--- a/Sources/Commons List.xlsx
+++ b/Sources/Commons List.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Programs\Personal-Hosts\Sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3BFCF73E-F870-4A24-BB53-F8C5320A82D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDBD5D9E-102C-4447-B793-96414C34A032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AC752DA5-279B-4E7D-9469-CEF11FD242ED}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="280">
   <si>
     <t>0.0.0.0</t>
   </si>
@@ -858,6 +858,21 @@
   </si>
   <si>
     <t>Nitter Blocks</t>
+  </si>
+  <si>
+    <t>hookgram.com</t>
+  </si>
+  <si>
+    <t>imginn.org</t>
+  </si>
+  <si>
+    <t>storiesig.app</t>
+  </si>
+  <si>
+    <t>storiesig.me</t>
+  </si>
+  <si>
+    <t>instalker.org</t>
   </si>
 </sst>
 </file>
@@ -920,14 +935,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1245,37 +1258,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECE8835C-5E4A-4A67-BE0B-662B45AD2111}">
-  <dimension ref="A1:G102"/>
+  <dimension ref="A1:G107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J70" sqref="J70"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="G101" sqref="G101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="26.85546875" customWidth="1"/>
     <col min="3" max="3" width="9.140625" customWidth="1"/>
-    <col min="4" max="4" width="27.85546875" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" customWidth="1"/>
     <col min="7" max="7" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="F1" s="5" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="F1" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="G1" s="3"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3" t="s">
@@ -1351,11 +1364,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="2" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7" t="s">
@@ -2664,7 +2677,7 @@
       <c r="D72" t="s">
         <v>218</v>
       </c>
-      <c r="F72" s="4" t="s">
+      <c r="F72" t="s">
         <v>0</v>
       </c>
       <c r="G72" t="s">
@@ -3082,6 +3095,13 @@
       <c r="B98" t="s">
         <v>148</v>
       </c>
+      <c r="C98" t="s">
+        <v>0</v>
+      </c>
+      <c r="D98" t="str">
+        <f>_xlfn.CONCAT("www.",B98)</f>
+        <v>www.viewprivateinsta.com</v>
+      </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
@@ -3090,6 +3110,13 @@
       <c r="B99" t="s">
         <v>149</v>
       </c>
+      <c r="C99" t="s">
+        <v>0</v>
+      </c>
+      <c r="D99" t="str">
+        <f t="shared" ref="D99:D107" si="0">_xlfn.CONCAT("www.",B99)</f>
+        <v>www.visibletweets.com</v>
+      </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
@@ -3098,6 +3125,13 @@
       <c r="B100" t="s">
         <v>150</v>
       </c>
+      <c r="C100" t="s">
+        <v>0</v>
+      </c>
+      <c r="D100" t="str">
+        <f t="shared" si="0"/>
+        <v>www.watchinsta.com</v>
+      </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
@@ -3106,6 +3140,13 @@
       <c r="B101" t="s">
         <v>151</v>
       </c>
+      <c r="C101" t="s">
+        <v>0</v>
+      </c>
+      <c r="D101" t="str">
+        <f>_xlfn.CONCAT("www.",B103)</f>
+        <v>www.hookgram.com</v>
+      </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
@@ -3113,6 +3154,74 @@
       </c>
       <c r="B102" t="s">
         <v>152</v>
+      </c>
+      <c r="C102" t="s">
+        <v>0</v>
+      </c>
+      <c r="D102" t="str">
+        <f>_xlfn.CONCAT("www.",B104)</f>
+        <v>www.imginn.org</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B103" t="s">
+        <v>275</v>
+      </c>
+      <c r="C103" t="s">
+        <v>0</v>
+      </c>
+      <c r="D103" t="str">
+        <f>_xlfn.CONCAT("www.",B105)</f>
+        <v>www.storiesig.app</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>0</v>
+      </c>
+      <c r="B104" t="s">
+        <v>276</v>
+      </c>
+      <c r="C104" t="s">
+        <v>0</v>
+      </c>
+      <c r="D104" t="str">
+        <f>_xlfn.CONCAT("www.",B106)</f>
+        <v>www.storiesig.me</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>0</v>
+      </c>
+      <c r="B105" t="s">
+        <v>277</v>
+      </c>
+      <c r="C105" t="s">
+        <v>0</v>
+      </c>
+      <c r="D105" t="str">
+        <f>_xlfn.CONCAT("www.",B107)</f>
+        <v>www.instalker.org</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>0</v>
+      </c>
+      <c r="B106" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>0</v>
+      </c>
+      <c r="B107" t="s">
+        <v>279</v>
       </c>
     </row>
   </sheetData>

--- a/Sources/Commons List.xlsx
+++ b/Sources/Commons List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Programs\Personal-Hosts\Sources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOHABANE\Documents\Projects\Personals\Personal-Hosts\Sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDBD5D9E-102C-4447-B793-96414C34A032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{521F0D2E-D4F5-4845-9505-0345C534F0AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AC752DA5-279B-4E7D-9469-CEF11FD242ED}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AC752DA5-279B-4E7D-9469-CEF11FD242ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="199">
   <si>
     <t>0.0.0.0</t>
   </si>
@@ -494,294 +495,18 @@
     <t>webstagram.org</t>
   </si>
   <si>
-    <t>www.actionsack.com</t>
-  </si>
-  <si>
-    <t>www.anonigviewer.com</t>
-  </si>
-  <si>
-    <t>www.apkun.com</t>
-  </si>
-  <si>
-    <t>www.backtweets.com</t>
-  </si>
-  <si>
-    <t>www.croxyproxy.com</t>
-  </si>
-  <si>
-    <t>www.croxyproxy.rocks</t>
-  </si>
-  <si>
-    <t>www.dumpor.com</t>
-  </si>
-  <si>
-    <t>www.farside.link</t>
-  </si>
-  <si>
-    <t>www.foller.me</t>
-  </si>
-  <si>
-    <t>www.followerwonk.com</t>
-  </si>
-  <si>
-    <t>www.fullinsta.photo</t>
-  </si>
-  <si>
-    <t>www.getmytweet.com</t>
-  </si>
-  <si>
-    <t>www.gmail.com</t>
-  </si>
-  <si>
-    <t>www.gramhir.com</t>
-  </si>
-  <si>
-    <t>www.gramho.com</t>
-  </si>
-  <si>
-    <t>www.gramvi.com</t>
-  </si>
-  <si>
-    <t>www.gramvio.com</t>
-  </si>
-  <si>
-    <t>www.greatfon.com</t>
-  </si>
-  <si>
-    <t>www.gwaa.net</t>
-  </si>
-  <si>
-    <t>www.iglookup.com</t>
-  </si>
-  <si>
-    <t>www.igpanda.com</t>
-  </si>
-  <si>
-    <t>www.igstories.app</t>
-  </si>
-  <si>
-    <t>www.ig-stories-viewer.net</t>
-  </si>
-  <si>
-    <t>www.imagerocket.com</t>
-  </si>
-  <si>
-    <t>www.imagerocket.net</t>
-  </si>
-  <si>
-    <t>www.imginn.com</t>
-  </si>
-  <si>
-    <t>www.ingramer.com</t>
-  </si>
-  <si>
-    <t>www.instabig.net</t>
-  </si>
-  <si>
-    <t>www.instadp.com</t>
-  </si>
-  <si>
-    <t>www.instadp.net</t>
-  </si>
-  <si>
-    <t>www.instadp.org</t>
-  </si>
-  <si>
-    <t>www.instafollowers.co</t>
-  </si>
-  <si>
-    <t>www.instagram.com</t>
-  </si>
-  <si>
-    <t>www.instajust.com</t>
-  </si>
-  <si>
-    <t>www.instalkr.com</t>
-  </si>
-  <si>
-    <t>www.instalooker.com</t>
-  </si>
-  <si>
-    <t>www.instaonline.org</t>
-  </si>
-  <si>
-    <t>www.instaprivate.com</t>
-  </si>
-  <si>
-    <t>www.instaprivateprofileviewer.com</t>
-  </si>
-  <si>
-    <t>www.insta-stories.com</t>
-  </si>
-  <si>
-    <t>www.insta-stories.online</t>
-  </si>
-  <si>
-    <t>www.instastory.net</t>
-  </si>
-  <si>
-    <t>www.instastoryviewer.com</t>
-  </si>
-  <si>
-    <t>www.instaviewer.ga</t>
-  </si>
-  <si>
-    <t>www.instaviewer.live</t>
-  </si>
-  <si>
-    <t>www.instaviewerapp.weebly.com</t>
-  </si>
-  <si>
-    <t>www.instaviews.net</t>
-  </si>
-  <si>
-    <t>www.instaxyz.com</t>
-  </si>
-  <si>
-    <t>www.insuiter.com</t>
-  </si>
-  <si>
-    <t>www.i-private-profile-viewer.com</t>
-  </si>
-  <si>
-    <t>www.istaprivate.com</t>
-  </si>
-  <si>
-    <t>www.likecreeper.com</t>
-  </si>
-  <si>
-    <t>www.mystalk.net</t>
-  </si>
-  <si>
-    <t>www.ninjalitics.com</t>
-  </si>
-  <si>
-    <t>www.omnicity.com</t>
-  </si>
-  <si>
-    <t>www.peekinspo.com</t>
-  </si>
-  <si>
-    <t>www.picosico.org</t>
-  </si>
-  <si>
-    <t>www.picuki.com</t>
-  </si>
-  <si>
-    <t>www.picuki.net</t>
-  </si>
-  <si>
-    <t>www.pikviewer.com</t>
-  </si>
-  <si>
-    <t>www.pixwox.com</t>
-  </si>
-  <si>
-    <t>www.privategramview.com</t>
-  </si>
-  <si>
-    <t>www.privateinstaview.com</t>
-  </si>
-  <si>
-    <t>www.privatephotoviewer.com</t>
-  </si>
-  <si>
-    <t>www.smihub.com</t>
-  </si>
-  <si>
-    <t>www.sotwe.com</t>
-  </si>
-  <si>
-    <t>www.storiesdown.com</t>
-  </si>
-  <si>
-    <t>www.storiesig.net</t>
-  </si>
-  <si>
-    <t>www.storieswatch.com</t>
-  </si>
-  <si>
-    <t>www.storysaver.net</t>
-  </si>
-  <si>
-    <t>www.stweetly.com</t>
-  </si>
-  <si>
-    <t>www.thepicgram.com</t>
-  </si>
-  <si>
-    <t>www.tweepsmap.com</t>
-  </si>
-  <si>
-    <t>www.tweepy.net</t>
-  </si>
-  <si>
-    <t>www.tweetbeam.com</t>
-  </si>
-  <si>
-    <t>www.twiiit.com</t>
-  </si>
-  <si>
-    <t>www.twimfeed.com</t>
-  </si>
-  <si>
-    <t>www.twimg.com</t>
-  </si>
-  <si>
-    <t>www.twipho.net</t>
-  </si>
-  <si>
-    <t>www.twipu.net</t>
-  </si>
-  <si>
-    <t>www.twitter.com</t>
-  </si>
-  <si>
-    <t>www.twittertt.com</t>
-  </si>
-  <si>
-    <t>www.twubs.com</t>
-  </si>
-  <si>
-    <t>www.viewerig.com</t>
-  </si>
-  <si>
-    <t>www.viewprivateinsta.com</t>
-  </si>
-  <si>
-    <t>www.visibletweets.com</t>
-  </si>
-  <si>
-    <t>www.watchinsta.com</t>
-  </si>
-  <si>
-    <t>www.webstagram.netlify.app</t>
-  </si>
-  <si>
-    <t>www.webstagram.org</t>
-  </si>
-  <si>
     <t>xnaas.github.io</t>
   </si>
   <si>
     <t>mythreadreader.com</t>
   </si>
   <si>
-    <t>www.mythreadreader.com</t>
-  </si>
-  <si>
     <t>threadreaderapp.com</t>
   </si>
   <si>
-    <t>www.threadreaderapp.com</t>
-  </si>
-  <si>
     <t>downloadgram.pro</t>
   </si>
   <si>
-    <t>www.downloadgram.pro</t>
-  </si>
-  <si>
     <t>nitter.rawbit.ninja</t>
   </si>
   <si>
@@ -848,12 +573,6 @@
     <t>nitter.privacytools.io</t>
   </si>
   <si>
-    <t>www.bib.actionsack.com</t>
-  </si>
-  <si>
-    <t>www.picaki.com</t>
-  </si>
-  <si>
     <t>Common Hosts Blocking List</t>
   </si>
   <si>
@@ -873,13 +592,52 @@
   </si>
   <si>
     <t>instalker.org</t>
+  </si>
+  <si>
+    <t>profileviewer.vercel.app</t>
+  </si>
+  <si>
+    <t>twidoom.com</t>
+  </si>
+  <si>
+    <t>fritter.cc</t>
+  </si>
+  <si>
+    <t>instastories.watch</t>
+  </si>
+  <si>
+    <t>instanavigation.com</t>
+  </si>
+  <si>
+    <t>insta-stories-viewer.com</t>
+  </si>
+  <si>
+    <t>save-insta.com</t>
+  </si>
+  <si>
+    <t>storiesig.info</t>
+  </si>
+  <si>
+    <t>instasaved.net</t>
+  </si>
+  <si>
+    <t>instafreeview.com</t>
+  </si>
+  <si>
+    <t>16gram.com</t>
+  </si>
+  <si>
+    <t>igrab.online</t>
+  </si>
+  <si>
+    <t>No WWW Required</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -904,6 +662,12 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -935,7 +699,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -944,6 +708,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1258,44 +1024,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECE8835C-5E4A-4A67-BE0B-662B45AD2111}">
-  <dimension ref="A1:G107"/>
+  <dimension ref="A1:J120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="G101" sqref="G101"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F105" sqref="F105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="26.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" customWidth="1"/>
-    <col min="7" max="7" width="27.28515625" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" customWidth="1"/>
+    <col min="4" max="4" width="34.109375" customWidth="1"/>
+    <col min="7" max="7" width="27.33203125" customWidth="1"/>
+    <col min="10" max="10" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>273</v>
+        <v>179</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="F1" s="3" t="s">
-        <v>274</v>
+        <v>180</v>
       </c>
       <c r="G1" s="3"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I1" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="J1" s="3"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>196</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
-        <v>153</v>
+      <c r="D3" t="str">
+        <f>_xlfn.CONCAT("www.",B3)</f>
+        <v>www.16gram.com</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>0</v>
@@ -1303,19 +1075,26 @@
       <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
       </c>
-      <c r="D4" t="s">
-        <v>154</v>
+      <c r="D4" t="str">
+        <f t="shared" ref="D4:D67" si="0">_xlfn.CONCAT("www.",B4)</f>
+        <v>www.actionsack.com</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>0</v>
@@ -1323,39 +1102,53 @@
       <c r="G4" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
       <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>www.anonigviewer.com</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>155</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
       <c r="C6" t="s">
         <v>0</v>
       </c>
-      <c r="D6" t="s">
-        <v>156</v>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>www.apkun.com</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>0</v>
@@ -1363,19 +1156,26 @@
       <c r="G6" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
         <v>0</v>
       </c>
-      <c r="D7" t="s">
-        <v>271</v>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>www.backtweets.com</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>0</v>
@@ -1383,8 +1183,14 @@
       <c r="G7" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I7" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1394,17 +1200,24 @@
       <c r="C8" t="s">
         <v>0</v>
       </c>
-      <c r="D8" t="s">
-        <v>157</v>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>www.croxyproxy.com</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+      <c r="I8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1414,8 +1227,9 @@
       <c r="C9" t="s">
         <v>0</v>
       </c>
-      <c r="D9" t="s">
-        <v>158</v>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>www.croxyproxy.rocks</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>0</v>
@@ -1423,28 +1237,41 @@
       <c r="G9" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>247</v>
+        <v>156</v>
       </c>
       <c r="C10" t="s">
         <v>0</v>
       </c>
-      <c r="D10" t="s">
-        <v>248</v>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>www.downloadgram.pro</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+      <c r="I10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -1454,8 +1281,9 @@
       <c r="C11" t="s">
         <v>0</v>
       </c>
-      <c r="D11" t="s">
-        <v>159</v>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>www.dumpor.com</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>0</v>
@@ -1464,7 +1292,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -1474,17 +1302,18 @@
       <c r="C12" t="s">
         <v>0</v>
       </c>
-      <c r="D12" t="s">
-        <v>160</v>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>www.farside.link</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -1494,8 +1323,9 @@
       <c r="C13" t="s">
         <v>0</v>
       </c>
-      <c r="D13" t="s">
-        <v>161</v>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>www.foller.me</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>0</v>
@@ -1504,7 +1334,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1514,8 +1344,9 @@
       <c r="C14" t="s">
         <v>0</v>
       </c>
-      <c r="D14" t="s">
-        <v>162</v>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>www.followerwonk.com</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>0</v>
@@ -1524,18 +1355,19 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>188</v>
       </c>
       <c r="C15" t="s">
         <v>0</v>
       </c>
-      <c r="D15" t="s">
-        <v>163</v>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>www.fritter.cc</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>0</v>
@@ -1544,18 +1376,19 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
         <v>0</v>
       </c>
-      <c r="D16" t="s">
-        <v>164</v>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>www.fullinsta.photo</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>0</v>
@@ -1564,18 +1397,19 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" t="s">
         <v>0</v>
       </c>
-      <c r="D17" t="s">
-        <v>165</v>
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>www.getmytweet.com</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>0</v>
@@ -1584,38 +1418,40 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>0</v>
       </c>
       <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>www.gmail.com</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
         <v>19</v>
       </c>
-      <c r="C18" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" t="s">
-        <v>166</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" t="s">
-        <v>20</v>
-      </c>
       <c r="C19" t="s">
         <v>0</v>
       </c>
-      <c r="D19" t="s">
-        <v>167</v>
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>www.gramhir.com</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>0</v>
@@ -1624,18 +1460,19 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
         <v>0</v>
       </c>
-      <c r="D20" t="s">
-        <v>168</v>
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>www.gramho.com</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>0</v>
@@ -1644,18 +1481,19 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21" t="s">
         <v>0</v>
       </c>
-      <c r="D21" t="s">
-        <v>169</v>
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>www.gramvi.com</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>0</v>
@@ -1664,18 +1502,19 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22" t="s">
         <v>0</v>
       </c>
-      <c r="D22" t="s">
-        <v>170</v>
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v>www.gramvio.com</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>0</v>
@@ -1684,18 +1523,19 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C23" t="s">
         <v>0</v>
       </c>
-      <c r="D23" t="s">
-        <v>171</v>
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v>www.greatfon.com</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>0</v>
@@ -1704,18 +1544,19 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
         <v>0</v>
       </c>
-      <c r="D24" t="s">
-        <v>172</v>
+      <c r="D24" t="str">
+        <f t="shared" si="0"/>
+        <v>www.gwaa.net</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>0</v>
@@ -1724,38 +1565,40 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>181</v>
       </c>
       <c r="C25" t="s">
         <v>0</v>
       </c>
-      <c r="D25" t="s">
-        <v>173</v>
+      <c r="D25" t="str">
+        <f t="shared" si="0"/>
+        <v>www.hookgram.com</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
         <v>0</v>
       </c>
-      <c r="D26" t="s">
-        <v>174</v>
+      <c r="D26" t="str">
+        <f t="shared" si="0"/>
+        <v>www.iglookup.com</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>0</v>
@@ -1764,18 +1607,19 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
         <v>0</v>
       </c>
-      <c r="D27" t="s">
-        <v>175</v>
+      <c r="D27" t="str">
+        <f t="shared" si="0"/>
+        <v>www.igpanda.com</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>0</v>
@@ -1784,18 +1628,19 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>197</v>
       </c>
       <c r="C28" t="s">
         <v>0</v>
       </c>
-      <c r="D28" t="s">
-        <v>176</v>
+      <c r="D28" t="str">
+        <f t="shared" si="0"/>
+        <v>www.igrab.online</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>0</v>
@@ -1804,58 +1649,61 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C29" t="s">
         <v>0</v>
       </c>
-      <c r="D29" t="s">
-        <v>177</v>
+      <c r="D29" t="str">
+        <f t="shared" si="0"/>
+        <v>www.igstories.app</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C30" t="s">
         <v>0</v>
       </c>
-      <c r="D30" t="s">
-        <v>178</v>
+      <c r="D30" t="str">
+        <f t="shared" si="0"/>
+        <v>www.ig-stories-viewer.net</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C31" t="s">
         <v>0</v>
       </c>
-      <c r="D31" t="s">
-        <v>179</v>
+      <c r="D31" t="str">
+        <f t="shared" si="0"/>
+        <v>www.imagerocket.com</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>0</v>
@@ -1864,18 +1712,19 @@
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C32" t="s">
         <v>0</v>
       </c>
-      <c r="D32" t="s">
-        <v>180</v>
+      <c r="D32" t="str">
+        <f t="shared" si="0"/>
+        <v>www.imagerocket.net</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>0</v>
@@ -1884,38 +1733,40 @@
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>0</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C33" t="s">
         <v>0</v>
       </c>
-      <c r="D33" t="s">
-        <v>181</v>
+      <c r="D33" t="str">
+        <f t="shared" si="0"/>
+        <v>www.imginn.com</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>0</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>182</v>
       </c>
       <c r="C34" t="s">
         <v>0</v>
       </c>
-      <c r="D34" t="s">
-        <v>182</v>
+      <c r="D34" t="str">
+        <f t="shared" si="0"/>
+        <v>www.imginn.org</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>0</v>
@@ -1924,18 +1775,19 @@
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>0</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C35" t="s">
         <v>0</v>
       </c>
-      <c r="D35" t="s">
-        <v>183</v>
+      <c r="D35" t="str">
+        <f t="shared" si="0"/>
+        <v>www.ingramer.com</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>0</v>
@@ -1944,18 +1796,19 @@
         <v>82</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>0</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C36" t="s">
         <v>0</v>
       </c>
-      <c r="D36" t="s">
-        <v>184</v>
+      <c r="D36" t="str">
+        <f t="shared" si="0"/>
+        <v>www.instabig.net</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>0</v>
@@ -1964,18 +1817,19 @@
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>0</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C37" t="s">
         <v>0</v>
       </c>
-      <c r="D37" t="s">
-        <v>185</v>
+      <c r="D37" t="str">
+        <f t="shared" si="0"/>
+        <v>www.instadp.com</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>0</v>
@@ -1984,18 +1838,19 @@
         <v>84</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>0</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C38" t="s">
         <v>0</v>
       </c>
-      <c r="D38" t="s">
-        <v>186</v>
+      <c r="D38" t="str">
+        <f t="shared" si="0"/>
+        <v>www.instadp.net</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>0</v>
@@ -2004,18 +1859,19 @@
         <v>85</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>0</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C39" t="s">
         <v>0</v>
       </c>
-      <c r="D39" t="s">
-        <v>187</v>
+      <c r="D39" t="str">
+        <f t="shared" si="0"/>
+        <v>www.instadp.org</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>0</v>
@@ -2024,18 +1880,19 @@
         <v>86</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>0</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C40" t="s">
         <v>0</v>
       </c>
-      <c r="D40" t="s">
-        <v>188</v>
+      <c r="D40" t="str">
+        <f t="shared" si="0"/>
+        <v>www.instafollowers.co</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>0</v>
@@ -2044,18 +1901,19 @@
         <v>87</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>0</v>
       </c>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>195</v>
       </c>
       <c r="C41" t="s">
         <v>0</v>
       </c>
-      <c r="D41" t="s">
-        <v>189</v>
+      <c r="D41" t="str">
+        <f t="shared" si="0"/>
+        <v>www.instafreeview.com</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>0</v>
@@ -2064,18 +1922,19 @@
         <v>88</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>0</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C42" t="s">
         <v>0</v>
       </c>
-      <c r="D42" t="s">
-        <v>190</v>
+      <c r="D42" t="str">
+        <f t="shared" si="0"/>
+        <v>www.instagram.com</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>0</v>
@@ -2084,18 +1943,19 @@
         <v>89</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>0</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C43" t="s">
         <v>0</v>
       </c>
-      <c r="D43" t="s">
-        <v>191</v>
+      <c r="D43" t="str">
+        <f t="shared" si="0"/>
+        <v>www.instajust.com</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>0</v>
@@ -2104,18 +1964,19 @@
         <v>90</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>0</v>
       </c>
       <c r="B44" t="s">
-        <v>45</v>
+        <v>185</v>
       </c>
       <c r="C44" t="s">
         <v>0</v>
       </c>
-      <c r="D44" t="s">
-        <v>192</v>
+      <c r="D44" t="str">
+        <f t="shared" si="0"/>
+        <v>www.instalker.org</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>0</v>
@@ -2124,18 +1985,19 @@
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>0</v>
       </c>
       <c r="B45" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C45" t="s">
         <v>0</v>
       </c>
-      <c r="D45" t="s">
-        <v>193</v>
+      <c r="D45" t="str">
+        <f t="shared" si="0"/>
+        <v>www.instalkr.com</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>0</v>
@@ -2144,18 +2006,19 @@
         <v>92</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>0</v>
       </c>
       <c r="B46" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C46" t="s">
         <v>0</v>
       </c>
-      <c r="D46" t="s">
-        <v>194</v>
+      <c r="D46" t="str">
+        <f t="shared" si="0"/>
+        <v>www.instalooker.com</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>0</v>
@@ -2164,18 +2027,19 @@
         <v>93</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>0</v>
       </c>
       <c r="B47" t="s">
-        <v>48</v>
+        <v>190</v>
       </c>
       <c r="C47" t="s">
         <v>0</v>
       </c>
-      <c r="D47" t="s">
-        <v>195</v>
+      <c r="D47" t="str">
+        <f t="shared" si="0"/>
+        <v>www.instanavigation.com</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>0</v>
@@ -2184,18 +2048,19 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>0</v>
       </c>
       <c r="B48" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C48" t="s">
         <v>0</v>
       </c>
-      <c r="D48" t="s">
-        <v>196</v>
+      <c r="D48" t="str">
+        <f t="shared" si="0"/>
+        <v>www.instaonline.org</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>0</v>
@@ -2204,58 +2069,61 @@
         <v>95</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>0</v>
       </c>
       <c r="B49" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C49" t="s">
         <v>0</v>
       </c>
-      <c r="D49" t="s">
-        <v>197</v>
+      <c r="D49" t="str">
+        <f t="shared" si="0"/>
+        <v>www.instaprivate.com</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>0</v>
       </c>
       <c r="B50" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C50" t="s">
         <v>0</v>
       </c>
-      <c r="D50" t="s">
-        <v>198</v>
+      <c r="D50" t="str">
+        <f t="shared" si="0"/>
+        <v>www.instaprivateprofileviewer.com</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>0</v>
       </c>
       <c r="B51" t="s">
-        <v>52</v>
+        <v>194</v>
       </c>
       <c r="C51" t="s">
         <v>0</v>
       </c>
-      <c r="D51" t="s">
-        <v>199</v>
+      <c r="D51" t="str">
+        <f t="shared" si="0"/>
+        <v>www.instasaved.net</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>0</v>
@@ -2264,58 +2132,61 @@
         <v>96</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>0</v>
       </c>
       <c r="B52" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C52" t="s">
         <v>0</v>
       </c>
-      <c r="D52" t="s">
-        <v>200</v>
+      <c r="D52" t="str">
+        <f t="shared" si="0"/>
+        <v>www.insta-stories.com</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>0</v>
       </c>
       <c r="B53" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C53" t="s">
         <v>0</v>
       </c>
-      <c r="D53" t="s">
-        <v>201</v>
+      <c r="D53" t="str">
+        <f t="shared" si="0"/>
+        <v>www.insta-stories.online</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>0</v>
       </c>
       <c r="B54" t="s">
-        <v>55</v>
+        <v>189</v>
       </c>
       <c r="C54" t="s">
         <v>0</v>
       </c>
-      <c r="D54" t="s">
-        <v>202</v>
+      <c r="D54" t="str">
+        <f t="shared" si="0"/>
+        <v>www.instastories.watch</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>0</v>
@@ -2324,38 +2195,40 @@
         <v>97</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>0</v>
       </c>
       <c r="B55" t="s">
-        <v>56</v>
+        <v>191</v>
       </c>
       <c r="C55" t="s">
         <v>0</v>
       </c>
-      <c r="D55" t="s">
-        <v>203</v>
+      <c r="D55" t="str">
+        <f t="shared" si="0"/>
+        <v>www.insta-stories-viewer.com</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>0</v>
       </c>
       <c r="B56" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C56" t="s">
         <v>0</v>
       </c>
-      <c r="D56" t="s">
-        <v>204</v>
+      <c r="D56" t="str">
+        <f t="shared" si="0"/>
+        <v>www.instastory.net</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>0</v>
@@ -2364,38 +2237,40 @@
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>0</v>
       </c>
       <c r="B57" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C57" t="s">
         <v>0</v>
       </c>
-      <c r="D57" t="s">
-        <v>205</v>
+      <c r="D57" t="str">
+        <f t="shared" si="0"/>
+        <v>www.instastoryviewer.com</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>0</v>
       </c>
       <c r="B58" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C58" t="s">
         <v>0</v>
       </c>
-      <c r="D58" t="s">
-        <v>244</v>
+      <c r="D58" t="str">
+        <f t="shared" si="0"/>
+        <v>www.instaviewer.ga</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>0</v>
@@ -2404,18 +2279,19 @@
         <v>99</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>0</v>
       </c>
       <c r="B59" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C59" t="s">
         <v>0</v>
       </c>
-      <c r="D59" t="s">
-        <v>206</v>
+      <c r="D59" t="str">
+        <f t="shared" si="0"/>
+        <v>www.instaviewer.live</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>0</v>
@@ -2424,38 +2300,40 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>0</v>
       </c>
       <c r="B60" t="s">
-        <v>243</v>
+        <v>51</v>
       </c>
       <c r="C60" t="s">
         <v>0</v>
       </c>
-      <c r="D60" t="s">
-        <v>207</v>
+      <c r="D60" t="str">
+        <f t="shared" si="0"/>
+        <v>www.instaviewerapp.weebly.com</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>0</v>
       </c>
       <c r="B61" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C61" t="s">
         <v>0</v>
       </c>
-      <c r="D61" t="s">
-        <v>208</v>
+      <c r="D61" t="str">
+        <f t="shared" si="0"/>
+        <v>www.instaviews.net</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>0</v>
@@ -2464,18 +2342,19 @@
         <v>101</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>0</v>
       </c>
       <c r="B62" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C62" t="s">
         <v>0</v>
       </c>
-      <c r="D62" t="s">
-        <v>272</v>
+      <c r="D62" t="str">
+        <f t="shared" si="0"/>
+        <v>www.instaxyz.com</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>0</v>
@@ -2484,18 +2363,19 @@
         <v>102</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>0</v>
       </c>
       <c r="B63" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C63" t="s">
         <v>0</v>
       </c>
-      <c r="D63" t="s">
-        <v>209</v>
+      <c r="D63" t="str">
+        <f t="shared" si="0"/>
+        <v>www.insuiter.com</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>0</v>
@@ -2504,18 +2384,19 @@
         <v>103</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>0</v>
       </c>
       <c r="B64" t="s">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="C64" t="s">
         <v>0</v>
       </c>
-      <c r="D64" t="s">
-        <v>210</v>
+      <c r="D64" t="str">
+        <f t="shared" si="0"/>
+        <v>www.i-private-profile-viewer.com</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>0</v>
@@ -2524,18 +2405,19 @@
         <v>104</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>0</v>
       </c>
       <c r="B65" t="s">
-        <v>109</v>
+        <v>56</v>
       </c>
       <c r="C65" t="s">
         <v>0</v>
       </c>
-      <c r="D65" t="s">
-        <v>211</v>
+      <c r="D65" t="str">
+        <f t="shared" si="0"/>
+        <v>www.istaprivate.com</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>0</v>
@@ -2544,18 +2426,19 @@
         <v>105</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>110</v>
+        <v>57</v>
       </c>
       <c r="C66" t="s">
         <v>0</v>
       </c>
-      <c r="D66" t="s">
-        <v>212</v>
+      <c r="D66" t="str">
+        <f t="shared" si="0"/>
+        <v>www.likecreeper.com</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>0</v>
@@ -2564,38 +2447,40 @@
         <v>106</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>0</v>
       </c>
       <c r="B67" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="C67" t="s">
         <v>0</v>
       </c>
-      <c r="D67" t="s">
-        <v>213</v>
+      <c r="D67" t="str">
+        <f t="shared" si="0"/>
+        <v>www.mystalk.net</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>0</v>
       </c>
       <c r="B68" t="s">
-        <v>112</v>
+        <v>154</v>
       </c>
       <c r="C68" t="s">
         <v>0</v>
       </c>
-      <c r="D68" t="s">
-        <v>214</v>
+      <c r="D68" t="str">
+        <f t="shared" ref="D68:D112" si="1">_xlfn.CONCAT("www.",B68)</f>
+        <v>www.mythreadreader.com</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>0</v>
@@ -2604,58 +2489,61 @@
         <v>107</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>0</v>
       </c>
       <c r="B69" t="s">
-        <v>113</v>
+        <v>64</v>
       </c>
       <c r="C69" t="s">
         <v>0</v>
       </c>
-      <c r="D69" t="s">
-        <v>215</v>
+      <c r="D69" t="str">
+        <f t="shared" si="1"/>
+        <v>www.ninjalitics.com</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>0</v>
       </c>
       <c r="B70" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C70" t="s">
         <v>0</v>
       </c>
-      <c r="D70" t="s">
-        <v>216</v>
+      <c r="D70" t="str">
+        <f t="shared" si="1"/>
+        <v>www.omnicity.com</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>0</v>
       </c>
       <c r="B71" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C71" t="s">
         <v>0</v>
       </c>
-      <c r="D71" t="s">
-        <v>217</v>
+      <c r="D71" t="str">
+        <f t="shared" si="1"/>
+        <v>www.peekinspo.com</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>0</v>
@@ -2664,18 +2552,19 @@
         <v>128</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>0</v>
       </c>
       <c r="B72" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C72" t="s">
         <v>0</v>
       </c>
-      <c r="D72" t="s">
-        <v>218</v>
+      <c r="D72" t="str">
+        <f t="shared" si="1"/>
+        <v>www.picaki.com</v>
       </c>
       <c r="F72" t="s">
         <v>0</v>
@@ -2684,18 +2573,19 @@
         <v>128</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>0</v>
       </c>
       <c r="B73" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C73" t="s">
         <v>0</v>
       </c>
-      <c r="D73" t="s">
-        <v>219</v>
+      <c r="D73" t="str">
+        <f t="shared" si="1"/>
+        <v>www.picosico.org</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>0</v>
@@ -2704,18 +2594,19 @@
         <v>131</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>0</v>
       </c>
       <c r="B74" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C74" t="s">
         <v>0</v>
       </c>
-      <c r="D74" t="s">
-        <v>220</v>
+      <c r="D74" t="str">
+        <f t="shared" si="1"/>
+        <v>www.picuki.com</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>0</v>
@@ -2724,18 +2615,19 @@
         <v>138</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>0</v>
       </c>
       <c r="B75" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C75" t="s">
         <v>0</v>
       </c>
-      <c r="D75" t="s">
-        <v>221</v>
+      <c r="D75" t="str">
+        <f t="shared" si="1"/>
+        <v>www.picuki.net</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>0</v>
@@ -2744,18 +2636,19 @@
         <v>139</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>0</v>
       </c>
       <c r="B76" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C76" t="s">
         <v>0</v>
       </c>
-      <c r="D76" t="s">
-        <v>222</v>
+      <c r="D76" t="str">
+        <f t="shared" si="1"/>
+        <v>www.pikviewer.com</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>0</v>
@@ -2764,18 +2657,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>0</v>
       </c>
       <c r="B77" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C77" t="s">
         <v>0</v>
       </c>
-      <c r="D77" t="s">
-        <v>223</v>
+      <c r="D77" t="str">
+        <f t="shared" si="1"/>
+        <v>www.pixwox.com</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>0</v>
@@ -2784,38 +2678,40 @@
         <v>142</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>0</v>
       </c>
       <c r="B78" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C78" t="s">
         <v>0</v>
       </c>
-      <c r="D78" t="s">
-        <v>224</v>
+      <c r="D78" t="str">
+        <f t="shared" si="1"/>
+        <v>www.privategramview.com</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>0</v>
       </c>
       <c r="B79" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C79" t="s">
         <v>0</v>
       </c>
-      <c r="D79" t="s">
-        <v>246</v>
+      <c r="D79" t="str">
+        <f t="shared" si="1"/>
+        <v>www.privateinstaview.com</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>0</v>
@@ -2824,415 +2720,536 @@
         <v>145</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>0</v>
       </c>
       <c r="B80" t="s">
+        <v>118</v>
+      </c>
+      <c r="C80" t="s">
+        <v>0</v>
+      </c>
+      <c r="D80" t="str">
+        <f t="shared" si="1"/>
+        <v>www.privatephotoviewer.com</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C81" t="s">
+        <v>0</v>
+      </c>
+      <c r="D81" t="str">
+        <f t="shared" si="1"/>
+        <v>www.profileviewer.vercel.app</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82" t="s">
+        <v>192</v>
+      </c>
+      <c r="C82" t="s">
+        <v>0</v>
+      </c>
+      <c r="D82" t="str">
+        <f t="shared" si="1"/>
+        <v>www.save-insta.com</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83" t="s">
+        <v>119</v>
+      </c>
+      <c r="C83" t="s">
+        <v>0</v>
+      </c>
+      <c r="D83" t="str">
+        <f t="shared" si="1"/>
+        <v>www.smihub.com</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84" t="s">
+        <v>120</v>
+      </c>
+      <c r="C84" t="s">
+        <v>0</v>
+      </c>
+      <c r="D84" t="str">
+        <f t="shared" si="1"/>
+        <v>www.sotwe.com</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85" t="s">
+        <v>121</v>
+      </c>
+      <c r="C85" t="s">
+        <v>0</v>
+      </c>
+      <c r="D85" t="str">
+        <f t="shared" si="1"/>
+        <v>www.storiesdown.com</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86" t="s">
+        <v>183</v>
+      </c>
+      <c r="C86" t="s">
+        <v>0</v>
+      </c>
+      <c r="D86" t="str">
+        <f t="shared" si="1"/>
+        <v>www.storiesig.app</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87" t="s">
+        <v>193</v>
+      </c>
+      <c r="C87" t="s">
+        <v>0</v>
+      </c>
+      <c r="D87" t="str">
+        <f t="shared" si="1"/>
+        <v>www.storiesig.info</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B88" t="s">
+        <v>184</v>
+      </c>
+      <c r="C88" t="s">
+        <v>0</v>
+      </c>
+      <c r="D88" t="str">
+        <f t="shared" si="1"/>
+        <v>www.storiesig.me</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89" t="s">
+        <v>122</v>
+      </c>
+      <c r="C89" t="s">
+        <v>0</v>
+      </c>
+      <c r="D89" t="str">
+        <f t="shared" si="1"/>
+        <v>www.storiesig.net</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B90" t="s">
+        <v>123</v>
+      </c>
+      <c r="C90" t="s">
+        <v>0</v>
+      </c>
+      <c r="D90" t="str">
+        <f t="shared" si="1"/>
+        <v>www.storieswatch.com</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91" t="s">
         <v>124</v>
       </c>
-      <c r="C80" t="s">
-        <v>0</v>
-      </c>
-      <c r="D80" t="s">
-        <v>225</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B81" t="s">
+      <c r="C91" t="s">
+        <v>0</v>
+      </c>
+      <c r="D91" t="str">
+        <f t="shared" si="1"/>
+        <v>www.storysaver.net</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B92" t="s">
         <v>125</v>
       </c>
-      <c r="C81" t="s">
-        <v>0</v>
-      </c>
-      <c r="D81" t="s">
-        <v>226</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B82" t="s">
+      <c r="C92" t="s">
+        <v>0</v>
+      </c>
+      <c r="D92" t="str">
+        <f t="shared" si="1"/>
+        <v>www.stweetly.com</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B93" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C82" t="s">
-        <v>0</v>
-      </c>
-      <c r="D82" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B83" t="s">
+      <c r="C93" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D93" t="str">
+        <f t="shared" si="1"/>
+        <v>www.t.com.sb</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94" t="s">
         <v>127</v>
       </c>
-      <c r="C83" t="s">
-        <v>0</v>
-      </c>
-      <c r="D83" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B84" t="s">
-        <v>245</v>
-      </c>
-      <c r="C84" t="s">
-        <v>0</v>
-      </c>
-      <c r="D84" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>0</v>
-      </c>
-      <c r="B85" t="s">
+      <c r="C94" t="s">
+        <v>0</v>
+      </c>
+      <c r="D94" t="str">
+        <f t="shared" si="1"/>
+        <v>www.thepicgram.com</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>0</v>
+      </c>
+      <c r="B95" t="s">
+        <v>155</v>
+      </c>
+      <c r="C95" t="s">
+        <v>0</v>
+      </c>
+      <c r="D95" t="str">
+        <f t="shared" si="1"/>
+        <v>www.threadreaderapp.com</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B96" t="s">
         <v>129</v>
       </c>
-      <c r="C85" t="s">
-        <v>0</v>
-      </c>
-      <c r="D85" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>0</v>
-      </c>
-      <c r="B86" t="s">
+      <c r="C96" t="s">
+        <v>0</v>
+      </c>
+      <c r="D96" t="str">
+        <f t="shared" si="1"/>
+        <v>www.tweepsmap.com</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>0</v>
+      </c>
+      <c r="B97" t="s">
         <v>130</v>
       </c>
-      <c r="C86" t="s">
-        <v>0</v>
-      </c>
-      <c r="D86" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>0</v>
-      </c>
-      <c r="B87" t="s">
+      <c r="C97" t="s">
+        <v>0</v>
+      </c>
+      <c r="D97" t="str">
+        <f t="shared" si="1"/>
+        <v>www.tweepy.net</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>0</v>
+      </c>
+      <c r="B98" t="s">
         <v>132</v>
       </c>
-      <c r="C87" t="s">
-        <v>0</v>
-      </c>
-      <c r="D87" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B88" t="s">
+      <c r="C98" t="s">
+        <v>0</v>
+      </c>
+      <c r="D98" t="str">
+        <f t="shared" si="1"/>
+        <v>www.tweetbeam.com</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>0</v>
+      </c>
+      <c r="B99" t="s">
+        <v>187</v>
+      </c>
+      <c r="C99" t="s">
+        <v>0</v>
+      </c>
+      <c r="D99" t="str">
+        <f t="shared" si="1"/>
+        <v>www.twidoom.com</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B100" t="s">
         <v>133</v>
       </c>
-      <c r="C88" t="s">
-        <v>0</v>
-      </c>
-      <c r="D88" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>0</v>
-      </c>
-      <c r="B89" t="s">
+      <c r="C100" t="s">
+        <v>0</v>
+      </c>
+      <c r="D100" t="str">
+        <f t="shared" si="1"/>
+        <v>www.twiiit.com</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B101" t="s">
         <v>134</v>
       </c>
-      <c r="C89" t="s">
-        <v>0</v>
-      </c>
-      <c r="D89" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>0</v>
-      </c>
-      <c r="B90" t="s">
+      <c r="C101" t="s">
+        <v>0</v>
+      </c>
+      <c r="D101" t="str">
+        <f t="shared" si="1"/>
+        <v>www.twimfeed.com</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>0</v>
+      </c>
+      <c r="B102" t="s">
         <v>135</v>
       </c>
-      <c r="C90" t="s">
-        <v>0</v>
-      </c>
-      <c r="D90" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B91" t="s">
+      <c r="C102" t="s">
+        <v>0</v>
+      </c>
+      <c r="D102" t="str">
+        <f t="shared" si="1"/>
+        <v>www.twimg.com</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B103" t="s">
         <v>136</v>
       </c>
-      <c r="C91" t="s">
-        <v>0</v>
-      </c>
-      <c r="D91" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B92" t="s">
+      <c r="C103" t="s">
+        <v>0</v>
+      </c>
+      <c r="D103" t="str">
+        <f t="shared" si="1"/>
+        <v>www.twipho.net</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>0</v>
+      </c>
+      <c r="B104" t="s">
         <v>137</v>
       </c>
-      <c r="C92" t="s">
-        <v>0</v>
-      </c>
-      <c r="D92" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>0</v>
-      </c>
-      <c r="B93" t="s">
+      <c r="C104" t="s">
+        <v>0</v>
+      </c>
+      <c r="D104" t="str">
+        <f t="shared" si="1"/>
+        <v>www.twipu.net</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>0</v>
+      </c>
+      <c r="B105" t="s">
         <v>141</v>
       </c>
-      <c r="C93" t="s">
-        <v>0</v>
-      </c>
-      <c r="D93" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>0</v>
-      </c>
-      <c r="B94" t="s">
-        <v>143</v>
-      </c>
-      <c r="C94" t="s">
-        <v>0</v>
-      </c>
-      <c r="D94" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>0</v>
-      </c>
-      <c r="B95" t="s">
+      <c r="C105" t="s">
+        <v>0</v>
+      </c>
+      <c r="D105" t="str">
+        <f t="shared" si="1"/>
+        <v>www.twitter.com</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>0</v>
+      </c>
+      <c r="B106" t="s">
         <v>144</v>
       </c>
-      <c r="C95" t="s">
-        <v>0</v>
-      </c>
-      <c r="D95" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>0</v>
-      </c>
-      <c r="B96" t="s">
+      <c r="C106" t="s">
+        <v>0</v>
+      </c>
+      <c r="D106" t="str">
+        <f t="shared" si="1"/>
+        <v>www.twittertt.com</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>0</v>
+      </c>
+      <c r="B107" t="s">
         <v>146</v>
       </c>
-      <c r="C96" t="s">
-        <v>0</v>
-      </c>
-      <c r="D96" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>0</v>
-      </c>
-      <c r="B97" t="s">
+      <c r="C107" t="s">
+        <v>0</v>
+      </c>
+      <c r="D107" t="str">
+        <f t="shared" si="1"/>
+        <v>www.twubs.com</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>0</v>
+      </c>
+      <c r="B108" t="s">
         <v>147</v>
       </c>
-      <c r="C97" t="s">
-        <v>0</v>
-      </c>
-      <c r="D97" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>0</v>
-      </c>
-      <c r="B98" t="s">
+      <c r="C108" t="s">
+        <v>0</v>
+      </c>
+      <c r="D108" t="str">
+        <f t="shared" si="1"/>
+        <v>www.viewerig.com</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>0</v>
+      </c>
+      <c r="B109" t="s">
         <v>148</v>
       </c>
-      <c r="C98" t="s">
-        <v>0</v>
-      </c>
-      <c r="D98" t="str">
-        <f>_xlfn.CONCAT("www.",B98)</f>
+      <c r="C109" t="s">
+        <v>0</v>
+      </c>
+      <c r="D109" t="str">
+        <f t="shared" si="1"/>
         <v>www.viewprivateinsta.com</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>0</v>
-      </c>
-      <c r="B99" t="s">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>0</v>
+      </c>
+      <c r="B110" t="s">
         <v>149</v>
       </c>
-      <c r="C99" t="s">
-        <v>0</v>
-      </c>
-      <c r="D99" t="str">
-        <f t="shared" ref="D99:D107" si="0">_xlfn.CONCAT("www.",B99)</f>
+      <c r="C110" t="s">
+        <v>0</v>
+      </c>
+      <c r="D110" t="str">
+        <f t="shared" si="1"/>
         <v>www.visibletweets.com</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>0</v>
-      </c>
-      <c r="B100" t="s">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B111" t="s">
         <v>150</v>
       </c>
-      <c r="C100" t="s">
-        <v>0</v>
-      </c>
-      <c r="D100" t="str">
-        <f t="shared" si="0"/>
+      <c r="C111" t="s">
+        <v>0</v>
+      </c>
+      <c r="D111" t="str">
+        <f t="shared" si="1"/>
         <v>www.watchinsta.com</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>0</v>
-      </c>
-      <c r="B101" t="s">
-        <v>151</v>
-      </c>
-      <c r="C101" t="s">
-        <v>0</v>
-      </c>
-      <c r="D101" t="str">
-        <f>_xlfn.CONCAT("www.",B103)</f>
-        <v>www.hookgram.com</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>0</v>
-      </c>
-      <c r="B102" t="s">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>0</v>
+      </c>
+      <c r="B112" t="s">
         <v>152</v>
       </c>
-      <c r="C102" t="s">
-        <v>0</v>
-      </c>
-      <c r="D102" t="str">
-        <f>_xlfn.CONCAT("www.",B104)</f>
-        <v>www.imginn.org</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>0</v>
-      </c>
-      <c r="B103" t="s">
-        <v>275</v>
-      </c>
-      <c r="C103" t="s">
-        <v>0</v>
-      </c>
-      <c r="D103" t="str">
-        <f>_xlfn.CONCAT("www.",B105)</f>
-        <v>www.storiesig.app</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>0</v>
-      </c>
-      <c r="B104" t="s">
-        <v>276</v>
-      </c>
-      <c r="C104" t="s">
-        <v>0</v>
-      </c>
-      <c r="D104" t="str">
-        <f>_xlfn.CONCAT("www.",B106)</f>
-        <v>www.storiesig.me</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>0</v>
-      </c>
-      <c r="B105" t="s">
-        <v>277</v>
-      </c>
-      <c r="C105" t="s">
-        <v>0</v>
-      </c>
-      <c r="D105" t="str">
-        <f>_xlfn.CONCAT("www.",B107)</f>
-        <v>www.instalker.org</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>0</v>
-      </c>
-      <c r="B106" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>0</v>
-      </c>
-      <c r="B107" t="s">
-        <v>279</v>
-      </c>
+      <c r="C112" t="s">
+        <v>0</v>
+      </c>
+      <c r="D112" t="str">
+        <f t="shared" si="1"/>
+        <v>www.webstagram.org</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" s="5"/>
+      <c r="B118" s="5"/>
+      <c r="C118" s="5"/>
+      <c r="D118" s="5"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" s="5"/>
+      <c r="B120" s="5"/>
+      <c r="C120" s="5"/>
+      <c r="D120" s="5"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B190">
-    <sortCondition ref="B3:B190"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D3:D117">
+    <sortCondition ref="D3:D117"/>
   </sortState>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:G1"/>
+    <mergeCell ref="I1:J1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Sources/Commons List.xlsx
+++ b/Sources/Commons List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOHABANE\Documents\Projects\Personals\Personal-Hosts\Sources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Programs\Personal-Hosts\Sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{521F0D2E-D4F5-4845-9505-0345C534F0AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A482508-38CC-45FC-910C-8378A722E76D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AC752DA5-279B-4E7D-9469-CEF11FD242ED}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AC752DA5-279B-4E7D-9469-CEF11FD242ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -34,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="201">
   <si>
     <t>0.0.0.0</t>
   </si>
@@ -631,6 +629,12 @@
   </si>
   <si>
     <t>No WWW Required</t>
+  </si>
+  <si>
+    <t>inflact.com</t>
+  </si>
+  <si>
+    <t>simpliers.com</t>
   </si>
 </sst>
 </file>
@@ -699,17 +703,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1024,38 +1027,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECE8835C-5E4A-4A67-BE0B-662B45AD2111}">
-  <dimension ref="A1:J120"/>
+  <dimension ref="A1:J114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F105" sqref="F105"/>
+      <selection activeCell="C113" sqref="C113:D114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.88671875" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" customWidth="1"/>
-    <col min="4" max="4" width="34.109375" customWidth="1"/>
-    <col min="7" max="7" width="27.33203125" customWidth="1"/>
-    <col min="10" max="10" width="27.33203125" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" customWidth="1"/>
+    <col min="7" max="7" width="27.28515625" customWidth="1"/>
+    <col min="10" max="10" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="F1" s="3" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="F1" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="I1" s="3" t="s">
+      <c r="G1" s="4"/>
+      <c r="I1" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="J1" s="3"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J1" s="4"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1082,7 +1085,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1109,7 +1112,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1136,7 +1139,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1159,11 +1162,11 @@
       <c r="I6" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1186,11 +1189,11 @@
       <c r="I7" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1213,11 +1216,11 @@
       <c r="I8" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="J8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1240,11 +1243,11 @@
       <c r="I9" t="s">
         <v>0</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="J9" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1267,11 +1270,11 @@
       <c r="I10" t="s">
         <v>0</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="J10" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -1292,7 +1295,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -1313,7 +1316,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -1334,7 +1337,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1355,7 +1358,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -1376,7 +1379,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -1397,7 +1400,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -1418,7 +1421,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -1439,7 +1442,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -1460,7 +1463,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -1481,7 +1484,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -1502,7 +1505,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -1523,7 +1526,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -1544,7 +1547,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -1565,7 +1568,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -1586,7 +1589,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -1607,7 +1610,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -1628,7 +1631,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -1649,7 +1652,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -1670,7 +1673,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -1691,7 +1694,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -1712,7 +1715,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -1733,7 +1736,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -1754,7 +1757,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -1775,7 +1778,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -1796,7 +1799,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -1817,7 +1820,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -1838,7 +1841,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -1859,7 +1862,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -1880,7 +1883,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -1901,7 +1904,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -1922,7 +1925,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -1943,7 +1946,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -1964,7 +1967,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -1985,7 +1988,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -2006,7 +2009,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -2027,7 +2030,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>0</v>
       </c>
@@ -2048,7 +2051,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>0</v>
       </c>
@@ -2069,7 +2072,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -2090,7 +2093,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>0</v>
       </c>
@@ -2111,7 +2114,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>0</v>
       </c>
@@ -2132,7 +2135,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>0</v>
       </c>
@@ -2153,7 +2156,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>0</v>
       </c>
@@ -2174,7 +2177,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>0</v>
       </c>
@@ -2195,7 +2198,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>0</v>
       </c>
@@ -2216,7 +2219,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>0</v>
       </c>
@@ -2237,7 +2240,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>0</v>
       </c>
@@ -2258,7 +2261,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>0</v>
       </c>
@@ -2279,7 +2282,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>0</v>
       </c>
@@ -2300,7 +2303,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>0</v>
       </c>
@@ -2321,7 +2324,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>0</v>
       </c>
@@ -2342,7 +2345,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>0</v>
       </c>
@@ -2363,7 +2366,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>0</v>
       </c>
@@ -2384,7 +2387,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>0</v>
       </c>
@@ -2405,7 +2408,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>0</v>
       </c>
@@ -2426,7 +2429,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>0</v>
       </c>
@@ -2447,7 +2450,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>0</v>
       </c>
@@ -2468,7 +2471,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>0</v>
       </c>
@@ -2479,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="D68" t="str">
-        <f t="shared" ref="D68:D112" si="1">_xlfn.CONCAT("www.",B68)</f>
+        <f t="shared" ref="D68:D114" si="1">_xlfn.CONCAT("www.",B68)</f>
         <v>www.mythreadreader.com</v>
       </c>
       <c r="F68" s="1" t="s">
@@ -2489,7 +2492,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>0</v>
       </c>
@@ -2510,7 +2513,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>0</v>
       </c>
@@ -2531,7 +2534,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>0</v>
       </c>
@@ -2552,7 +2555,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>0</v>
       </c>
@@ -2573,7 +2576,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>0</v>
       </c>
@@ -2594,7 +2597,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>0</v>
       </c>
@@ -2615,7 +2618,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>0</v>
       </c>
@@ -2636,7 +2639,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>0</v>
       </c>
@@ -2657,7 +2660,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>0</v>
       </c>
@@ -2678,7 +2681,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>0</v>
       </c>
@@ -2699,7 +2702,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>0</v>
       </c>
@@ -2720,7 +2723,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>0</v>
       </c>
@@ -2741,11 +2744,11 @@
         <v>170</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>0</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="B81" s="2" t="s">
         <v>186</v>
       </c>
       <c r="C81" t="s">
@@ -2762,7 +2765,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>0</v>
       </c>
@@ -2777,7 +2780,7 @@
         <v>www.save-insta.com</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>0</v>
       </c>
@@ -2792,7 +2795,7 @@
         <v>www.smihub.com</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>0</v>
       </c>
@@ -2807,7 +2810,7 @@
         <v>www.sotwe.com</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>0</v>
       </c>
@@ -2822,7 +2825,7 @@
         <v>www.storiesdown.com</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>0</v>
       </c>
@@ -2837,7 +2840,7 @@
         <v>www.storiesig.app</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>0</v>
       </c>
@@ -2852,7 +2855,7 @@
         <v>www.storiesig.info</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>0</v>
       </c>
@@ -2867,7 +2870,7 @@
         <v>www.storiesig.me</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>0</v>
       </c>
@@ -2882,7 +2885,7 @@
         <v>www.storiesig.net</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>0</v>
       </c>
@@ -2897,7 +2900,7 @@
         <v>www.storieswatch.com</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>0</v>
       </c>
@@ -2912,7 +2915,7 @@
         <v>www.storysaver.net</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>0</v>
       </c>
@@ -2927,14 +2930,14 @@
         <v>www.stweetly.com</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A93" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B93" s="5" t="s">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B93" t="s">
         <v>126</v>
       </c>
-      <c r="C93" s="5" t="s">
+      <c r="C93" t="s">
         <v>0</v>
       </c>
       <c r="D93" t="str">
@@ -2942,7 +2945,7 @@
         <v>www.t.com.sb</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>0</v>
       </c>
@@ -2957,7 +2960,7 @@
         <v>www.thepicgram.com</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>0</v>
       </c>
@@ -2972,7 +2975,7 @@
         <v>www.threadreaderapp.com</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>0</v>
       </c>
@@ -2987,7 +2990,7 @@
         <v>www.tweepsmap.com</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>0</v>
       </c>
@@ -3002,7 +3005,7 @@
         <v>www.tweepy.net</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>0</v>
       </c>
@@ -3017,7 +3020,7 @@
         <v>www.tweetbeam.com</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>0</v>
       </c>
@@ -3032,7 +3035,7 @@
         <v>www.twidoom.com</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>0</v>
       </c>
@@ -3047,7 +3050,7 @@
         <v>www.twiiit.com</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>0</v>
       </c>
@@ -3062,7 +3065,7 @@
         <v>www.twimfeed.com</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>0</v>
       </c>
@@ -3077,7 +3080,7 @@
         <v>www.twimg.com</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>0</v>
       </c>
@@ -3092,7 +3095,7 @@
         <v>www.twipho.net</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>0</v>
       </c>
@@ -3107,7 +3110,7 @@
         <v>www.twipu.net</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>0</v>
       </c>
@@ -3122,7 +3125,7 @@
         <v>www.twitter.com</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>0</v>
       </c>
@@ -3137,7 +3140,7 @@
         <v>www.twittertt.com</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>0</v>
       </c>
@@ -3152,7 +3155,7 @@
         <v>www.twubs.com</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>0</v>
       </c>
@@ -3167,7 +3170,7 @@
         <v>www.viewerig.com</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>0</v>
       </c>
@@ -3182,7 +3185,7 @@
         <v>www.viewprivateinsta.com</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>0</v>
       </c>
@@ -3197,7 +3200,7 @@
         <v>www.visibletweets.com</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>0</v>
       </c>
@@ -3212,7 +3215,7 @@
         <v>www.watchinsta.com</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>0</v>
       </c>
@@ -3227,17 +3230,35 @@
         <v>www.webstagram.org</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A118" s="5"/>
-      <c r="B118" s="5"/>
-      <c r="C118" s="5"/>
-      <c r="D118" s="5"/>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A120" s="5"/>
-      <c r="B120" s="5"/>
-      <c r="C120" s="5"/>
-      <c r="D120" s="5"/>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>0</v>
+      </c>
+      <c r="B113" t="s">
+        <v>199</v>
+      </c>
+      <c r="C113" t="s">
+        <v>0</v>
+      </c>
+      <c r="D113" t="str">
+        <f t="shared" si="1"/>
+        <v>www.inflact.com</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>0</v>
+      </c>
+      <c r="B114" t="s">
+        <v>200</v>
+      </c>
+      <c r="C114" t="s">
+        <v>0</v>
+      </c>
+      <c r="D114" t="str">
+        <f t="shared" si="1"/>
+        <v>www.simpliers.com</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D3:D117">

--- a/Sources/Commons List.xlsx
+++ b/Sources/Commons List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Programs\Personal-Hosts\Sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A482508-38CC-45FC-910C-8378A722E76D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E3A029-0845-47B3-87F8-30B1B27FEAA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AC752DA5-279B-4E7D-9469-CEF11FD242ED}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="208">
   <si>
     <t>0.0.0.0</t>
   </si>
@@ -635,6 +635,27 @@
   </si>
   <si>
     <t>simpliers.com</t>
+  </si>
+  <si>
+    <t>instastories.net</t>
+  </si>
+  <si>
+    <t>igram.io</t>
+  </si>
+  <si>
+    <t>instasaver.app</t>
+  </si>
+  <si>
+    <t>storistalker.com</t>
+  </si>
+  <si>
+    <t>snapinsta.app</t>
+  </si>
+  <si>
+    <t>twicopy.com</t>
+  </si>
+  <si>
+    <t>twisave.com</t>
   </si>
 </sst>
 </file>
@@ -1027,10 +1048,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECE8835C-5E4A-4A67-BE0B-662B45AD2111}">
-  <dimension ref="A1:J114"/>
+  <dimension ref="A1:J121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C113" sqref="C113:D114"/>
+      <selection activeCell="C121" sqref="C3:D121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1096,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="str">
-        <f t="shared" ref="D4:D67" si="0">_xlfn.CONCAT("www.",B4)</f>
+        <f>_xlfn.CONCAT("www.",B4)</f>
         <v>www.actionsack.com</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -1123,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("www.",B5)</f>
         <v>www.anonigviewer.com</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -1150,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("www.",B6)</f>
         <v>www.apkun.com</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -1177,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("www.",B7)</f>
         <v>www.backtweets.com</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -1204,7 +1225,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("www.",B8)</f>
         <v>www.croxyproxy.com</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -1231,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("www.",B9)</f>
         <v>www.croxyproxy.rocks</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -1258,7 +1279,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("www.",B10)</f>
         <v>www.downloadgram.pro</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -1285,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("www.",B11)</f>
         <v>www.dumpor.com</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -1306,7 +1327,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("www.",B12)</f>
         <v>www.farside.link</v>
       </c>
       <c r="F12" s="1" t="s">
@@ -1327,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("www.",B13)</f>
         <v>www.foller.me</v>
       </c>
       <c r="F13" s="1" t="s">
@@ -1348,7 +1369,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("www.",B14)</f>
         <v>www.followerwonk.com</v>
       </c>
       <c r="F14" s="1" t="s">
@@ -1369,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("www.",B15)</f>
         <v>www.fritter.cc</v>
       </c>
       <c r="F15" s="1" t="s">
@@ -1390,7 +1411,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("www.",B16)</f>
         <v>www.fullinsta.photo</v>
       </c>
       <c r="F16" s="1" t="s">
@@ -1411,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("www.",B17)</f>
         <v>www.getmytweet.com</v>
       </c>
       <c r="F17" s="1" t="s">
@@ -1432,7 +1453,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("www.",B18)</f>
         <v>www.gmail.com</v>
       </c>
       <c r="F18" s="1" t="s">
@@ -1453,7 +1474,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("www.",B19)</f>
         <v>www.gramhir.com</v>
       </c>
       <c r="F19" s="1" t="s">
@@ -1474,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("www.",B20)</f>
         <v>www.gramho.com</v>
       </c>
       <c r="F20" s="1" t="s">
@@ -1495,7 +1516,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("www.",B21)</f>
         <v>www.gramvi.com</v>
       </c>
       <c r="F21" s="1" t="s">
@@ -1516,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("www.",B22)</f>
         <v>www.gramvio.com</v>
       </c>
       <c r="F22" s="1" t="s">
@@ -1537,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("www.",B23)</f>
         <v>www.greatfon.com</v>
       </c>
       <c r="F23" s="1" t="s">
@@ -1558,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("www.",B24)</f>
         <v>www.gwaa.net</v>
       </c>
       <c r="F24" s="1" t="s">
@@ -1579,7 +1600,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("www.",B25)</f>
         <v>www.hookgram.com</v>
       </c>
       <c r="F25" s="1" t="s">
@@ -1600,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("www.",B26)</f>
         <v>www.iglookup.com</v>
       </c>
       <c r="F26" s="1" t="s">
@@ -1621,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("www.",B27)</f>
         <v>www.igpanda.com</v>
       </c>
       <c r="F27" s="1" t="s">
@@ -1642,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("www.",B28)</f>
         <v>www.igrab.online</v>
       </c>
       <c r="F28" s="1" t="s">
@@ -1657,14 +1678,14 @@
         <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>202</v>
       </c>
       <c r="C29" t="s">
         <v>0</v>
       </c>
       <c r="D29" t="str">
-        <f t="shared" si="0"/>
-        <v>www.igstories.app</v>
+        <f>_xlfn.CONCAT("www.",B29)</f>
+        <v>www.igram.io</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>0</v>
@@ -1678,14 +1699,14 @@
         <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30" t="s">
         <v>0</v>
       </c>
       <c r="D30" t="str">
-        <f t="shared" si="0"/>
-        <v>www.ig-stories-viewer.net</v>
+        <f>_xlfn.CONCAT("www.",B30)</f>
+        <v>www.igstories.app</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>0</v>
@@ -1699,14 +1720,14 @@
         <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C31" t="s">
         <v>0</v>
       </c>
       <c r="D31" t="str">
-        <f t="shared" si="0"/>
-        <v>www.imagerocket.com</v>
+        <f>_xlfn.CONCAT("www.",B31)</f>
+        <v>www.ig-stories-viewer.net</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>0</v>
@@ -1720,14 +1741,14 @@
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C32" t="s">
         <v>0</v>
       </c>
       <c r="D32" t="str">
-        <f t="shared" si="0"/>
-        <v>www.imagerocket.net</v>
+        <f>_xlfn.CONCAT("www.",B32)</f>
+        <v>www.imagerocket.com</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>0</v>
@@ -1741,14 +1762,14 @@
         <v>0</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C33" t="s">
         <v>0</v>
       </c>
       <c r="D33" t="str">
-        <f t="shared" si="0"/>
-        <v>www.imginn.com</v>
+        <f>_xlfn.CONCAT("www.",B33)</f>
+        <v>www.imagerocket.net</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>0</v>
@@ -1762,14 +1783,14 @@
         <v>0</v>
       </c>
       <c r="B34" t="s">
-        <v>182</v>
+        <v>31</v>
       </c>
       <c r="C34" t="s">
         <v>0</v>
       </c>
       <c r="D34" t="str">
-        <f t="shared" si="0"/>
-        <v>www.imginn.org</v>
+        <f>_xlfn.CONCAT("www.",B34)</f>
+        <v>www.imginn.com</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>0</v>
@@ -1783,14 +1804,14 @@
         <v>0</v>
       </c>
       <c r="B35" t="s">
-        <v>32</v>
+        <v>182</v>
       </c>
       <c r="C35" t="s">
         <v>0</v>
       </c>
       <c r="D35" t="str">
-        <f t="shared" si="0"/>
-        <v>www.ingramer.com</v>
+        <f>_xlfn.CONCAT("www.",B35)</f>
+        <v>www.imginn.org</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>0</v>
@@ -1804,14 +1825,14 @@
         <v>0</v>
       </c>
       <c r="B36" t="s">
-        <v>33</v>
+        <v>199</v>
       </c>
       <c r="C36" t="s">
         <v>0</v>
       </c>
       <c r="D36" t="str">
-        <f t="shared" si="0"/>
-        <v>www.instabig.net</v>
+        <f>_xlfn.CONCAT("www.",B36)</f>
+        <v>www.inflact.com</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>0</v>
@@ -1825,14 +1846,14 @@
         <v>0</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C37" t="s">
         <v>0</v>
       </c>
       <c r="D37" t="str">
-        <f t="shared" si="0"/>
-        <v>www.instadp.com</v>
+        <f>_xlfn.CONCAT("www.",B37)</f>
+        <v>www.ingramer.com</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>0</v>
@@ -1846,14 +1867,14 @@
         <v>0</v>
       </c>
       <c r="B38" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C38" t="s">
         <v>0</v>
       </c>
       <c r="D38" t="str">
-        <f t="shared" si="0"/>
-        <v>www.instadp.net</v>
+        <f>_xlfn.CONCAT("www.",B38)</f>
+        <v>www.instabig.net</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>0</v>
@@ -1867,14 +1888,14 @@
         <v>0</v>
       </c>
       <c r="B39" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C39" t="s">
         <v>0</v>
       </c>
       <c r="D39" t="str">
-        <f t="shared" si="0"/>
-        <v>www.instadp.org</v>
+        <f>_xlfn.CONCAT("www.",B39)</f>
+        <v>www.instadp.com</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>0</v>
@@ -1888,14 +1909,14 @@
         <v>0</v>
       </c>
       <c r="B40" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C40" t="s">
         <v>0</v>
       </c>
       <c r="D40" t="str">
-        <f t="shared" si="0"/>
-        <v>www.instafollowers.co</v>
+        <f>_xlfn.CONCAT("www.",B40)</f>
+        <v>www.instadp.net</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>0</v>
@@ -1909,14 +1930,14 @@
         <v>0</v>
       </c>
       <c r="B41" t="s">
-        <v>195</v>
+        <v>36</v>
       </c>
       <c r="C41" t="s">
         <v>0</v>
       </c>
       <c r="D41" t="str">
-        <f t="shared" si="0"/>
-        <v>www.instafreeview.com</v>
+        <f>_xlfn.CONCAT("www.",B41)</f>
+        <v>www.instadp.org</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>0</v>
@@ -1930,14 +1951,14 @@
         <v>0</v>
       </c>
       <c r="B42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C42" t="s">
         <v>0</v>
       </c>
       <c r="D42" t="str">
-        <f t="shared" si="0"/>
-        <v>www.instagram.com</v>
+        <f>_xlfn.CONCAT("www.",B42)</f>
+        <v>www.instafollowers.co</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>0</v>
@@ -1951,14 +1972,14 @@
         <v>0</v>
       </c>
       <c r="B43" t="s">
-        <v>39</v>
+        <v>195</v>
       </c>
       <c r="C43" t="s">
         <v>0</v>
       </c>
       <c r="D43" t="str">
-        <f t="shared" si="0"/>
-        <v>www.instajust.com</v>
+        <f>_xlfn.CONCAT("www.",B43)</f>
+        <v>www.instafreeview.com</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>0</v>
@@ -1972,14 +1993,14 @@
         <v>0</v>
       </c>
       <c r="B44" t="s">
-        <v>185</v>
+        <v>38</v>
       </c>
       <c r="C44" t="s">
         <v>0</v>
       </c>
       <c r="D44" t="str">
-        <f t="shared" si="0"/>
-        <v>www.instalker.org</v>
+        <f>_xlfn.CONCAT("www.",B44)</f>
+        <v>www.instagram.com</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>0</v>
@@ -1993,14 +2014,14 @@
         <v>0</v>
       </c>
       <c r="B45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C45" t="s">
         <v>0</v>
       </c>
       <c r="D45" t="str">
-        <f t="shared" si="0"/>
-        <v>www.instalkr.com</v>
+        <f>_xlfn.CONCAT("www.",B45)</f>
+        <v>www.instajust.com</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>0</v>
@@ -2014,14 +2035,14 @@
         <v>0</v>
       </c>
       <c r="B46" t="s">
-        <v>41</v>
+        <v>185</v>
       </c>
       <c r="C46" t="s">
         <v>0</v>
       </c>
       <c r="D46" t="str">
-        <f t="shared" si="0"/>
-        <v>www.instalooker.com</v>
+        <f>_xlfn.CONCAT("www.",B46)</f>
+        <v>www.instalker.org</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>0</v>
@@ -2035,14 +2056,14 @@
         <v>0</v>
       </c>
       <c r="B47" t="s">
-        <v>190</v>
+        <v>40</v>
       </c>
       <c r="C47" t="s">
         <v>0</v>
       </c>
       <c r="D47" t="str">
-        <f t="shared" si="0"/>
-        <v>www.instanavigation.com</v>
+        <f>_xlfn.CONCAT("www.",B47)</f>
+        <v>www.instalkr.com</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>0</v>
@@ -2056,14 +2077,14 @@
         <v>0</v>
       </c>
       <c r="B48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C48" t="s">
         <v>0</v>
       </c>
       <c r="D48" t="str">
-        <f t="shared" si="0"/>
-        <v>www.instaonline.org</v>
+        <f>_xlfn.CONCAT("www.",B48)</f>
+        <v>www.instalooker.com</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>0</v>
@@ -2077,14 +2098,14 @@
         <v>0</v>
       </c>
       <c r="B49" t="s">
-        <v>43</v>
+        <v>190</v>
       </c>
       <c r="C49" t="s">
         <v>0</v>
       </c>
       <c r="D49" t="str">
-        <f t="shared" si="0"/>
-        <v>www.instaprivate.com</v>
+        <f>_xlfn.CONCAT("www.",B49)</f>
+        <v>www.instanavigation.com</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>0</v>
@@ -2098,14 +2119,14 @@
         <v>0</v>
       </c>
       <c r="B50" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C50" t="s">
         <v>0</v>
       </c>
       <c r="D50" t="str">
-        <f t="shared" si="0"/>
-        <v>www.instaprivateprofileviewer.com</v>
+        <f>_xlfn.CONCAT("www.",B50)</f>
+        <v>www.instaonline.org</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>0</v>
@@ -2119,14 +2140,14 @@
         <v>0</v>
       </c>
       <c r="B51" t="s">
-        <v>194</v>
+        <v>43</v>
       </c>
       <c r="C51" t="s">
         <v>0</v>
       </c>
       <c r="D51" t="str">
-        <f t="shared" si="0"/>
-        <v>www.instasaved.net</v>
+        <f>_xlfn.CONCAT("www.",B51)</f>
+        <v>www.instaprivate.com</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>0</v>
@@ -2140,14 +2161,14 @@
         <v>0</v>
       </c>
       <c r="B52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C52" t="s">
         <v>0</v>
       </c>
       <c r="D52" t="str">
-        <f t="shared" si="0"/>
-        <v>www.insta-stories.com</v>
+        <f>_xlfn.CONCAT("www.",B52)</f>
+        <v>www.instaprivateprofileviewer.com</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>0</v>
@@ -2161,14 +2182,14 @@
         <v>0</v>
       </c>
       <c r="B53" t="s">
-        <v>46</v>
+        <v>194</v>
       </c>
       <c r="C53" t="s">
         <v>0</v>
       </c>
       <c r="D53" t="str">
-        <f t="shared" si="0"/>
-        <v>www.insta-stories.online</v>
+        <f>_xlfn.CONCAT("www.",B53)</f>
+        <v>www.instasaved.net</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>0</v>
@@ -2182,14 +2203,14 @@
         <v>0</v>
       </c>
       <c r="B54" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="C54" t="s">
         <v>0</v>
       </c>
       <c r="D54" t="str">
-        <f t="shared" si="0"/>
-        <v>www.instastories.watch</v>
+        <f>_xlfn.CONCAT("www.",B54)</f>
+        <v>www.instasaver.app</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>0</v>
@@ -2203,14 +2224,14 @@
         <v>0</v>
       </c>
       <c r="B55" t="s">
-        <v>191</v>
+        <v>45</v>
       </c>
       <c r="C55" t="s">
         <v>0</v>
       </c>
       <c r="D55" t="str">
-        <f t="shared" si="0"/>
-        <v>www.insta-stories-viewer.com</v>
+        <f>_xlfn.CONCAT("www.",B55)</f>
+        <v>www.insta-stories.com</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>0</v>
@@ -2224,14 +2245,14 @@
         <v>0</v>
       </c>
       <c r="B56" t="s">
-        <v>47</v>
+        <v>201</v>
       </c>
       <c r="C56" t="s">
         <v>0</v>
       </c>
       <c r="D56" t="str">
-        <f t="shared" si="0"/>
-        <v>www.instastory.net</v>
+        <f>_xlfn.CONCAT("www.",B56)</f>
+        <v>www.instastories.net</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>0</v>
@@ -2245,14 +2266,14 @@
         <v>0</v>
       </c>
       <c r="B57" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C57" t="s">
         <v>0</v>
       </c>
       <c r="D57" t="str">
-        <f t="shared" si="0"/>
-        <v>www.instastoryviewer.com</v>
+        <f>_xlfn.CONCAT("www.",B57)</f>
+        <v>www.insta-stories.online</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>0</v>
@@ -2266,14 +2287,14 @@
         <v>0</v>
       </c>
       <c r="B58" t="s">
-        <v>49</v>
+        <v>189</v>
       </c>
       <c r="C58" t="s">
         <v>0</v>
       </c>
       <c r="D58" t="str">
-        <f t="shared" si="0"/>
-        <v>www.instaviewer.ga</v>
+        <f>_xlfn.CONCAT("www.",B58)</f>
+        <v>www.instastories.watch</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>0</v>
@@ -2287,14 +2308,14 @@
         <v>0</v>
       </c>
       <c r="B59" t="s">
-        <v>50</v>
+        <v>191</v>
       </c>
       <c r="C59" t="s">
         <v>0</v>
       </c>
       <c r="D59" t="str">
-        <f t="shared" si="0"/>
-        <v>www.instaviewer.live</v>
+        <f>_xlfn.CONCAT("www.",B59)</f>
+        <v>www.insta-stories-viewer.com</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>0</v>
@@ -2308,14 +2329,14 @@
         <v>0</v>
       </c>
       <c r="B60" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C60" t="s">
         <v>0</v>
       </c>
       <c r="D60" t="str">
-        <f t="shared" si="0"/>
-        <v>www.instaviewerapp.weebly.com</v>
+        <f>_xlfn.CONCAT("www.",B60)</f>
+        <v>www.instastory.net</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>0</v>
@@ -2329,14 +2350,14 @@
         <v>0</v>
       </c>
       <c r="B61" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C61" t="s">
         <v>0</v>
       </c>
       <c r="D61" t="str">
-        <f t="shared" si="0"/>
-        <v>www.instaviews.net</v>
+        <f>_xlfn.CONCAT("www.",B61)</f>
+        <v>www.instastoryviewer.com</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>0</v>
@@ -2350,14 +2371,14 @@
         <v>0</v>
       </c>
       <c r="B62" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C62" t="s">
         <v>0</v>
       </c>
       <c r="D62" t="str">
-        <f t="shared" si="0"/>
-        <v>www.instaxyz.com</v>
+        <f>_xlfn.CONCAT("www.",B62)</f>
+        <v>www.instaviewer.ga</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>0</v>
@@ -2371,14 +2392,14 @@
         <v>0</v>
       </c>
       <c r="B63" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C63" t="s">
         <v>0</v>
       </c>
       <c r="D63" t="str">
-        <f t="shared" si="0"/>
-        <v>www.insuiter.com</v>
+        <f>_xlfn.CONCAT("www.",B63)</f>
+        <v>www.instaviewer.live</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>0</v>
@@ -2392,14 +2413,14 @@
         <v>0</v>
       </c>
       <c r="B64" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C64" t="s">
         <v>0</v>
       </c>
       <c r="D64" t="str">
-        <f t="shared" si="0"/>
-        <v>www.i-private-profile-viewer.com</v>
+        <f>_xlfn.CONCAT("www.",B64)</f>
+        <v>www.instaviewerapp.weebly.com</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>0</v>
@@ -2413,14 +2434,14 @@
         <v>0</v>
       </c>
       <c r="B65" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C65" t="s">
         <v>0</v>
       </c>
       <c r="D65" t="str">
-        <f t="shared" si="0"/>
-        <v>www.istaprivate.com</v>
+        <f>_xlfn.CONCAT("www.",B65)</f>
+        <v>www.instaviews.net</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>0</v>
@@ -2434,14 +2455,14 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C66" t="s">
         <v>0</v>
       </c>
       <c r="D66" t="str">
-        <f t="shared" si="0"/>
-        <v>www.likecreeper.com</v>
+        <f>_xlfn.CONCAT("www.",B66)</f>
+        <v>www.instaxyz.com</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>0</v>
@@ -2455,14 +2476,14 @@
         <v>0</v>
       </c>
       <c r="B67" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C67" t="s">
         <v>0</v>
       </c>
       <c r="D67" t="str">
-        <f t="shared" si="0"/>
-        <v>www.mystalk.net</v>
+        <f>_xlfn.CONCAT("www.",B67)</f>
+        <v>www.insuiter.com</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>0</v>
@@ -2476,14 +2497,14 @@
         <v>0</v>
       </c>
       <c r="B68" t="s">
-        <v>154</v>
+        <v>55</v>
       </c>
       <c r="C68" t="s">
         <v>0</v>
       </c>
       <c r="D68" t="str">
-        <f t="shared" ref="D68:D114" si="1">_xlfn.CONCAT("www.",B68)</f>
-        <v>www.mythreadreader.com</v>
+        <f>_xlfn.CONCAT("www.",B68)</f>
+        <v>www.i-private-profile-viewer.com</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>0</v>
@@ -2497,14 +2518,14 @@
         <v>0</v>
       </c>
       <c r="B69" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C69" t="s">
         <v>0</v>
       </c>
       <c r="D69" t="str">
-        <f t="shared" si="1"/>
-        <v>www.ninjalitics.com</v>
+        <f>_xlfn.CONCAT("www.",B69)</f>
+        <v>www.istaprivate.com</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>0</v>
@@ -2518,14 +2539,14 @@
         <v>0</v>
       </c>
       <c r="B70" t="s">
-        <v>108</v>
+        <v>57</v>
       </c>
       <c r="C70" t="s">
         <v>0</v>
       </c>
       <c r="D70" t="str">
-        <f t="shared" si="1"/>
-        <v>www.omnicity.com</v>
+        <f>_xlfn.CONCAT("www.",B70)</f>
+        <v>www.likecreeper.com</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>0</v>
@@ -2539,14 +2560,14 @@
         <v>0</v>
       </c>
       <c r="B71" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="C71" t="s">
         <v>0</v>
       </c>
       <c r="D71" t="str">
-        <f t="shared" si="1"/>
-        <v>www.peekinspo.com</v>
+        <f>_xlfn.CONCAT("www.",B71)</f>
+        <v>www.mystalk.net</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>0</v>
@@ -2560,14 +2581,14 @@
         <v>0</v>
       </c>
       <c r="B72" t="s">
-        <v>110</v>
+        <v>154</v>
       </c>
       <c r="C72" t="s">
         <v>0</v>
       </c>
       <c r="D72" t="str">
-        <f t="shared" si="1"/>
-        <v>www.picaki.com</v>
+        <f>_xlfn.CONCAT("www.",B72)</f>
+        <v>www.mythreadreader.com</v>
       </c>
       <c r="F72" t="s">
         <v>0</v>
@@ -2581,14 +2602,14 @@
         <v>0</v>
       </c>
       <c r="B73" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="C73" t="s">
         <v>0</v>
       </c>
       <c r="D73" t="str">
-        <f t="shared" si="1"/>
-        <v>www.picosico.org</v>
+        <f>_xlfn.CONCAT("www.",B73)</f>
+        <v>www.ninjalitics.com</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>0</v>
@@ -2602,14 +2623,14 @@
         <v>0</v>
       </c>
       <c r="B74" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C74" t="s">
         <v>0</v>
       </c>
       <c r="D74" t="str">
-        <f t="shared" si="1"/>
-        <v>www.picuki.com</v>
+        <f>_xlfn.CONCAT("www.",B74)</f>
+        <v>www.omnicity.com</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>0</v>
@@ -2623,14 +2644,14 @@
         <v>0</v>
       </c>
       <c r="B75" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C75" t="s">
         <v>0</v>
       </c>
       <c r="D75" t="str">
-        <f t="shared" si="1"/>
-        <v>www.picuki.net</v>
+        <f>_xlfn.CONCAT("www.",B75)</f>
+        <v>www.peekinspo.com</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>0</v>
@@ -2644,14 +2665,14 @@
         <v>0</v>
       </c>
       <c r="B76" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C76" t="s">
         <v>0</v>
       </c>
       <c r="D76" t="str">
-        <f t="shared" si="1"/>
-        <v>www.pikviewer.com</v>
+        <f>_xlfn.CONCAT("www.",B76)</f>
+        <v>www.picaki.com</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>0</v>
@@ -2665,14 +2686,14 @@
         <v>0</v>
       </c>
       <c r="B77" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C77" t="s">
         <v>0</v>
       </c>
       <c r="D77" t="str">
-        <f t="shared" si="1"/>
-        <v>www.pixwox.com</v>
+        <f>_xlfn.CONCAT("www.",B77)</f>
+        <v>www.picosico.org</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>0</v>
@@ -2686,14 +2707,14 @@
         <v>0</v>
       </c>
       <c r="B78" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C78" t="s">
         <v>0</v>
       </c>
       <c r="D78" t="str">
-        <f t="shared" si="1"/>
-        <v>www.privategramview.com</v>
+        <f>_xlfn.CONCAT("www.",B78)</f>
+        <v>www.picuki.com</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>0</v>
@@ -2707,14 +2728,14 @@
         <v>0</v>
       </c>
       <c r="B79" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C79" t="s">
         <v>0</v>
       </c>
       <c r="D79" t="str">
-        <f t="shared" si="1"/>
-        <v>www.privateinstaview.com</v>
+        <f>_xlfn.CONCAT("www.",B79)</f>
+        <v>www.picuki.net</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>0</v>
@@ -2728,14 +2749,14 @@
         <v>0</v>
       </c>
       <c r="B80" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C80" t="s">
         <v>0</v>
       </c>
       <c r="D80" t="str">
-        <f t="shared" si="1"/>
-        <v>www.privatephotoviewer.com</v>
+        <f>_xlfn.CONCAT("www.",B80)</f>
+        <v>www.pikviewer.com</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>0</v>
@@ -2748,15 +2769,15 @@
       <c r="A81" t="s">
         <v>0</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>186</v>
+      <c r="B81" t="s">
+        <v>115</v>
       </c>
       <c r="C81" t="s">
         <v>0</v>
       </c>
       <c r="D81" t="str">
-        <f t="shared" si="1"/>
-        <v>www.profileviewer.vercel.app</v>
+        <f>_xlfn.CONCAT("www.",B81)</f>
+        <v>www.pixwox.com</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>0</v>
@@ -2770,14 +2791,14 @@
         <v>0</v>
       </c>
       <c r="B82" t="s">
-        <v>192</v>
+        <v>116</v>
       </c>
       <c r="C82" t="s">
         <v>0</v>
       </c>
       <c r="D82" t="str">
-        <f t="shared" si="1"/>
-        <v>www.save-insta.com</v>
+        <f>_xlfn.CONCAT("www.",B82)</f>
+        <v>www.privategramview.com</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -2785,14 +2806,14 @@
         <v>0</v>
       </c>
       <c r="B83" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C83" t="s">
         <v>0</v>
       </c>
       <c r="D83" t="str">
-        <f t="shared" si="1"/>
-        <v>www.smihub.com</v>
+        <f>_xlfn.CONCAT("www.",B83)</f>
+        <v>www.privateinstaview.com</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -2800,29 +2821,29 @@
         <v>0</v>
       </c>
       <c r="B84" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C84" t="s">
         <v>0</v>
       </c>
       <c r="D84" t="str">
-        <f t="shared" si="1"/>
-        <v>www.sotwe.com</v>
+        <f>_xlfn.CONCAT("www.",B84)</f>
+        <v>www.privatephotoviewer.com</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>0</v>
       </c>
-      <c r="B85" t="s">
-        <v>121</v>
+      <c r="B85" s="2" t="s">
+        <v>186</v>
       </c>
       <c r="C85" t="s">
         <v>0</v>
       </c>
       <c r="D85" t="str">
-        <f t="shared" si="1"/>
-        <v>www.storiesdown.com</v>
+        <f>_xlfn.CONCAT("www.",B85)</f>
+        <v>www.profileviewer.vercel.app</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -2830,14 +2851,14 @@
         <v>0</v>
       </c>
       <c r="B86" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="C86" t="s">
         <v>0</v>
       </c>
       <c r="D86" t="str">
-        <f t="shared" si="1"/>
-        <v>www.storiesig.app</v>
+        <f>_xlfn.CONCAT("www.",B86)</f>
+        <v>www.save-insta.com</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -2845,14 +2866,14 @@
         <v>0</v>
       </c>
       <c r="B87" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="C87" t="s">
         <v>0</v>
       </c>
       <c r="D87" t="str">
-        <f t="shared" si="1"/>
-        <v>www.storiesig.info</v>
+        <f>_xlfn.CONCAT("www.",B87)</f>
+        <v>www.simpliers.com</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -2860,14 +2881,14 @@
         <v>0</v>
       </c>
       <c r="B88" t="s">
-        <v>184</v>
+        <v>119</v>
       </c>
       <c r="C88" t="s">
         <v>0</v>
       </c>
       <c r="D88" t="str">
-        <f t="shared" si="1"/>
-        <v>www.storiesig.me</v>
+        <f>_xlfn.CONCAT("www.",B88)</f>
+        <v>www.smihub.com</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -2875,14 +2896,14 @@
         <v>0</v>
       </c>
       <c r="B89" t="s">
-        <v>122</v>
+        <v>205</v>
       </c>
       <c r="C89" t="s">
         <v>0</v>
       </c>
       <c r="D89" t="str">
-        <f t="shared" si="1"/>
-        <v>www.storiesig.net</v>
+        <f>_xlfn.CONCAT("www.",B89)</f>
+        <v>www.snapinsta.app</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -2890,14 +2911,14 @@
         <v>0</v>
       </c>
       <c r="B90" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C90" t="s">
         <v>0</v>
       </c>
       <c r="D90" t="str">
-        <f t="shared" si="1"/>
-        <v>www.storieswatch.com</v>
+        <f>_xlfn.CONCAT("www.",B90)</f>
+        <v>www.sotwe.com</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -2905,14 +2926,14 @@
         <v>0</v>
       </c>
       <c r="B91" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C91" t="s">
         <v>0</v>
       </c>
       <c r="D91" t="str">
-        <f t="shared" si="1"/>
-        <v>www.storysaver.net</v>
+        <f>_xlfn.CONCAT("www.",B91)</f>
+        <v>www.storiesdown.com</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -2920,14 +2941,14 @@
         <v>0</v>
       </c>
       <c r="B92" t="s">
-        <v>125</v>
+        <v>183</v>
       </c>
       <c r="C92" t="s">
         <v>0</v>
       </c>
       <c r="D92" t="str">
-        <f t="shared" si="1"/>
-        <v>www.stweetly.com</v>
+        <f>_xlfn.CONCAT("www.",B92)</f>
+        <v>www.storiesig.app</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -2935,14 +2956,14 @@
         <v>0</v>
       </c>
       <c r="B93" t="s">
-        <v>126</v>
+        <v>193</v>
       </c>
       <c r="C93" t="s">
         <v>0</v>
       </c>
       <c r="D93" t="str">
-        <f t="shared" si="1"/>
-        <v>www.t.com.sb</v>
+        <f>_xlfn.CONCAT("www.",B93)</f>
+        <v>www.storiesig.info</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -2950,14 +2971,14 @@
         <v>0</v>
       </c>
       <c r="B94" t="s">
-        <v>127</v>
+        <v>184</v>
       </c>
       <c r="C94" t="s">
         <v>0</v>
       </c>
       <c r="D94" t="str">
-        <f t="shared" si="1"/>
-        <v>www.thepicgram.com</v>
+        <f>_xlfn.CONCAT("www.",B94)</f>
+        <v>www.storiesig.me</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -2965,14 +2986,14 @@
         <v>0</v>
       </c>
       <c r="B95" t="s">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="C95" t="s">
         <v>0</v>
       </c>
       <c r="D95" t="str">
-        <f t="shared" si="1"/>
-        <v>www.threadreaderapp.com</v>
+        <f>_xlfn.CONCAT("www.",B95)</f>
+        <v>www.storiesig.net</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -2980,14 +3001,14 @@
         <v>0</v>
       </c>
       <c r="B96" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C96" t="s">
         <v>0</v>
       </c>
       <c r="D96" t="str">
-        <f t="shared" si="1"/>
-        <v>www.tweepsmap.com</v>
+        <f>_xlfn.CONCAT("www.",B96)</f>
+        <v>www.storieswatch.com</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -2995,14 +3016,14 @@
         <v>0</v>
       </c>
       <c r="B97" t="s">
-        <v>130</v>
+        <v>204</v>
       </c>
       <c r="C97" t="s">
         <v>0</v>
       </c>
       <c r="D97" t="str">
-        <f t="shared" si="1"/>
-        <v>www.tweepy.net</v>
+        <f>_xlfn.CONCAT("www.",B97)</f>
+        <v>www.storistalker.com</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -3010,14 +3031,14 @@
         <v>0</v>
       </c>
       <c r="B98" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C98" t="s">
         <v>0</v>
       </c>
       <c r="D98" t="str">
-        <f t="shared" si="1"/>
-        <v>www.tweetbeam.com</v>
+        <f>_xlfn.CONCAT("www.",B98)</f>
+        <v>www.storysaver.net</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -3025,14 +3046,14 @@
         <v>0</v>
       </c>
       <c r="B99" t="s">
-        <v>187</v>
+        <v>125</v>
       </c>
       <c r="C99" t="s">
         <v>0</v>
       </c>
       <c r="D99" t="str">
-        <f t="shared" si="1"/>
-        <v>www.twidoom.com</v>
+        <f>_xlfn.CONCAT("www.",B99)</f>
+        <v>www.stweetly.com</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -3040,14 +3061,14 @@
         <v>0</v>
       </c>
       <c r="B100" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C100" t="s">
         <v>0</v>
       </c>
       <c r="D100" t="str">
-        <f t="shared" si="1"/>
-        <v>www.twiiit.com</v>
+        <f>_xlfn.CONCAT("www.",B100)</f>
+        <v>www.t.com.sb</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -3055,14 +3076,14 @@
         <v>0</v>
       </c>
       <c r="B101" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C101" t="s">
         <v>0</v>
       </c>
       <c r="D101" t="str">
-        <f t="shared" si="1"/>
-        <v>www.twimfeed.com</v>
+        <f>_xlfn.CONCAT("www.",B101)</f>
+        <v>www.thepicgram.com</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -3070,14 +3091,14 @@
         <v>0</v>
       </c>
       <c r="B102" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="C102" t="s">
         <v>0</v>
       </c>
       <c r="D102" t="str">
-        <f t="shared" si="1"/>
-        <v>www.twimg.com</v>
+        <f>_xlfn.CONCAT("www.",B102)</f>
+        <v>www.threadreaderapp.com</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -3085,14 +3106,14 @@
         <v>0</v>
       </c>
       <c r="B103" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C103" t="s">
         <v>0</v>
       </c>
       <c r="D103" t="str">
-        <f t="shared" si="1"/>
-        <v>www.twipho.net</v>
+        <f>_xlfn.CONCAT("www.",B103)</f>
+        <v>www.tweepsmap.com</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -3100,14 +3121,14 @@
         <v>0</v>
       </c>
       <c r="B104" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C104" t="s">
         <v>0</v>
       </c>
       <c r="D104" t="str">
-        <f t="shared" si="1"/>
-        <v>www.twipu.net</v>
+        <f>_xlfn.CONCAT("www.",B104)</f>
+        <v>www.tweepy.net</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -3115,14 +3136,14 @@
         <v>0</v>
       </c>
       <c r="B105" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C105" t="s">
         <v>0</v>
       </c>
       <c r="D105" t="str">
-        <f t="shared" si="1"/>
-        <v>www.twitter.com</v>
+        <f>_xlfn.CONCAT("www.",B105)</f>
+        <v>www.tweetbeam.com</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -3130,14 +3151,14 @@
         <v>0</v>
       </c>
       <c r="B106" t="s">
-        <v>144</v>
+        <v>206</v>
       </c>
       <c r="C106" t="s">
         <v>0</v>
       </c>
       <c r="D106" t="str">
-        <f t="shared" si="1"/>
-        <v>www.twittertt.com</v>
+        <f>_xlfn.CONCAT("www.",B106)</f>
+        <v>www.twicopy.com</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -3145,14 +3166,14 @@
         <v>0</v>
       </c>
       <c r="B107" t="s">
-        <v>146</v>
+        <v>187</v>
       </c>
       <c r="C107" t="s">
         <v>0</v>
       </c>
       <c r="D107" t="str">
-        <f t="shared" si="1"/>
-        <v>www.twubs.com</v>
+        <f>_xlfn.CONCAT("www.",B107)</f>
+        <v>www.twidoom.com</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -3160,14 +3181,14 @@
         <v>0</v>
       </c>
       <c r="B108" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="C108" t="s">
         <v>0</v>
       </c>
       <c r="D108" t="str">
-        <f t="shared" si="1"/>
-        <v>www.viewerig.com</v>
+        <f>_xlfn.CONCAT("www.",B108)</f>
+        <v>www.twiiit.com</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -3175,14 +3196,14 @@
         <v>0</v>
       </c>
       <c r="B109" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="C109" t="s">
         <v>0</v>
       </c>
       <c r="D109" t="str">
-        <f t="shared" si="1"/>
-        <v>www.viewprivateinsta.com</v>
+        <f>_xlfn.CONCAT("www.",B109)</f>
+        <v>www.twimfeed.com</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -3190,14 +3211,14 @@
         <v>0</v>
       </c>
       <c r="B110" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="C110" t="s">
         <v>0</v>
       </c>
       <c r="D110" t="str">
-        <f t="shared" si="1"/>
-        <v>www.visibletweets.com</v>
+        <f>_xlfn.CONCAT("www.",B110)</f>
+        <v>www.twimg.com</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -3205,14 +3226,14 @@
         <v>0</v>
       </c>
       <c r="B111" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="C111" t="s">
         <v>0</v>
       </c>
       <c r="D111" t="str">
-        <f t="shared" si="1"/>
-        <v>www.watchinsta.com</v>
+        <f>_xlfn.CONCAT("www.",B111)</f>
+        <v>www.twipho.net</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -3220,14 +3241,14 @@
         <v>0</v>
       </c>
       <c r="B112" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="C112" t="s">
         <v>0</v>
       </c>
       <c r="D112" t="str">
-        <f t="shared" si="1"/>
-        <v>www.webstagram.org</v>
+        <f>_xlfn.CONCAT("www.",B112)</f>
+        <v>www.twipu.net</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -3235,14 +3256,14 @@
         <v>0</v>
       </c>
       <c r="B113" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="C113" t="s">
         <v>0</v>
       </c>
       <c r="D113" t="str">
-        <f t="shared" si="1"/>
-        <v>www.inflact.com</v>
+        <f>_xlfn.CONCAT("www.",B113)</f>
+        <v>www.twisave.com</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -3250,19 +3271,124 @@
         <v>0</v>
       </c>
       <c r="B114" t="s">
-        <v>200</v>
+        <v>141</v>
       </c>
       <c r="C114" t="s">
         <v>0</v>
       </c>
       <c r="D114" t="str">
-        <f t="shared" si="1"/>
-        <v>www.simpliers.com</v>
+        <f>_xlfn.CONCAT("www.",B114)</f>
+        <v>www.twitter.com</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>0</v>
+      </c>
+      <c r="B115" t="s">
+        <v>144</v>
+      </c>
+      <c r="C115" t="s">
+        <v>0</v>
+      </c>
+      <c r="D115" t="str">
+        <f>_xlfn.CONCAT("www.",B115)</f>
+        <v>www.twittertt.com</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>0</v>
+      </c>
+      <c r="B116" t="s">
+        <v>146</v>
+      </c>
+      <c r="C116" t="s">
+        <v>0</v>
+      </c>
+      <c r="D116" t="str">
+        <f>_xlfn.CONCAT("www.",B116)</f>
+        <v>www.twubs.com</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>0</v>
+      </c>
+      <c r="B117" t="s">
+        <v>147</v>
+      </c>
+      <c r="C117" t="s">
+        <v>0</v>
+      </c>
+      <c r="D117" t="str">
+        <f>_xlfn.CONCAT("www.",B117)</f>
+        <v>www.viewerig.com</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>0</v>
+      </c>
+      <c r="B118" t="s">
+        <v>148</v>
+      </c>
+      <c r="C118" t="s">
+        <v>0</v>
+      </c>
+      <c r="D118" t="str">
+        <f>_xlfn.CONCAT("www.",B118)</f>
+        <v>www.viewprivateinsta.com</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>0</v>
+      </c>
+      <c r="B119" t="s">
+        <v>149</v>
+      </c>
+      <c r="C119" t="s">
+        <v>0</v>
+      </c>
+      <c r="D119" t="str">
+        <f>_xlfn.CONCAT("www.",B119)</f>
+        <v>www.visibletweets.com</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>0</v>
+      </c>
+      <c r="B120" t="s">
+        <v>150</v>
+      </c>
+      <c r="C120" t="s">
+        <v>0</v>
+      </c>
+      <c r="D120" t="str">
+        <f>_xlfn.CONCAT("www.",B120)</f>
+        <v>www.watchinsta.com</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>0</v>
+      </c>
+      <c r="B121" t="s">
+        <v>152</v>
+      </c>
+      <c r="C121" t="s">
+        <v>0</v>
+      </c>
+      <c r="D121" t="str">
+        <f>_xlfn.CONCAT("www.",B121)</f>
+        <v>www.webstagram.org</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D3:D117">
-    <sortCondition ref="D3:D117"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D3:D121">
+    <sortCondition ref="D3:D121"/>
   </sortState>
   <mergeCells count="3">
     <mergeCell ref="A1:D1"/>

--- a/Sources/Commons List.xlsx
+++ b/Sources/Commons List.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Programs\Personal-Hosts\Sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E3A029-0845-47B3-87F8-30B1B27FEAA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC3E465-C7F8-4C19-804A-3C456E4B0CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AC752DA5-279B-4E7D-9469-CEF11FD242ED}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{AC752DA5-279B-4E7D-9469-CEF11FD242ED}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Common" sheetId="1" r:id="rId1"/>
+    <sheet name="Nitter" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="225">
   <si>
     <t>0.0.0.0</t>
   </si>
@@ -656,6 +657,57 @@
   </si>
   <si>
     <t>twisave.com</t>
+  </si>
+  <si>
+    <t>instaviewers.net</t>
+  </si>
+  <si>
+    <t>WWW Required</t>
+  </si>
+  <si>
+    <t>nitter.net</t>
+  </si>
+  <si>
+    <t>nitter.lacontrevoie.fr</t>
+  </si>
+  <si>
+    <t>nitter.sneed.network</t>
+  </si>
+  <si>
+    <t>n.sneed.network</t>
+  </si>
+  <si>
+    <t>nitter.manasiwibi.com</t>
+  </si>
+  <si>
+    <t>nitter.smnz.de</t>
+  </si>
+  <si>
+    <t>nitter.twei.space</t>
+  </si>
+  <si>
+    <t>nitter.inpt.fr</t>
+  </si>
+  <si>
+    <t>nitter.d420.de</t>
+  </si>
+  <si>
+    <t>nitter.caioalonso.com</t>
+  </si>
+  <si>
+    <t>nitter.at</t>
+  </si>
+  <si>
+    <t>nitter.drivet.xyz</t>
+  </si>
+  <si>
+    <t>nitter.pw</t>
+  </si>
+  <si>
+    <t>nitter.nicfab.eu</t>
+  </si>
+  <si>
+    <t>bird.habedieeh.re</t>
   </si>
 </sst>
 </file>
@@ -724,7 +776,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -734,6 +786,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1048,22 +1101,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECE8835C-5E4A-4A67-BE0B-662B45AD2111}">
-  <dimension ref="A1:J121"/>
+  <dimension ref="A1:G122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C121" sqref="C3:D121"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.85546875" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" customWidth="1"/>
     <col min="3" max="3" width="9.140625" customWidth="1"/>
     <col min="4" max="4" width="34.140625" customWidth="1"/>
     <col min="7" max="7" width="27.28515625" customWidth="1"/>
-    <col min="10" max="10" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>179</v>
       </c>
@@ -1071,15 +1123,11 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="F1" s="4" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="G1" s="4"/>
-      <c r="I1" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="J1" s="4"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1090,23 +1138,17 @@
         <v>0</v>
       </c>
       <c r="D3" t="str">
-        <f>_xlfn.CONCAT("www.",B3)</f>
+        <f t="shared" ref="D3:D34" si="0">_xlfn.CONCAT("www.",B3)</f>
         <v>www.16gram.com</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1117,23 +1159,17 @@
         <v>0</v>
       </c>
       <c r="D4" t="str">
-        <f>_xlfn.CONCAT("www.",B4)</f>
+        <f t="shared" si="0"/>
         <v>www.actionsack.com</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="F4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1144,23 +1180,17 @@
         <v>0</v>
       </c>
       <c r="D5" t="str">
-        <f>_xlfn.CONCAT("www.",B5)</f>
+        <f t="shared" si="0"/>
         <v>www.anonigviewer.com</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="I5" t="s">
-        <v>0</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="F5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1171,23 +1201,17 @@
         <v>0</v>
       </c>
       <c r="D6" t="str">
-        <f>_xlfn.CONCAT("www.",B6)</f>
+        <f t="shared" si="0"/>
         <v>www.apkun.com</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" t="s">
-        <v>0</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="F6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1198,23 +1222,17 @@
         <v>0</v>
       </c>
       <c r="D7" t="str">
-        <f>_xlfn.CONCAT("www.",B7)</f>
+        <f t="shared" si="0"/>
         <v>www.backtweets.com</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" t="s">
-        <v>0</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="F7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1225,23 +1243,17 @@
         <v>0</v>
       </c>
       <c r="D8" t="str">
-        <f>_xlfn.CONCAT("www.",B8)</f>
+        <f t="shared" si="0"/>
         <v>www.croxyproxy.com</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="I8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="F8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1252,23 +1264,17 @@
         <v>0</v>
       </c>
       <c r="D9" t="str">
-        <f>_xlfn.CONCAT("www.",B9)</f>
+        <f t="shared" si="0"/>
         <v>www.croxyproxy.rocks</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I9" t="s">
-        <v>0</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="F9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1279,23 +1285,11 @@
         <v>0</v>
       </c>
       <c r="D10" t="str">
-        <f>_xlfn.CONCAT("www.",B10)</f>
+        <f t="shared" si="0"/>
         <v>www.downloadgram.pro</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="I10" t="s">
-        <v>0</v>
-      </c>
-      <c r="J10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -1306,17 +1300,11 @@
         <v>0</v>
       </c>
       <c r="D11" t="str">
-        <f>_xlfn.CONCAT("www.",B11)</f>
+        <f t="shared" si="0"/>
         <v>www.dumpor.com</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -1327,17 +1315,11 @@
         <v>0</v>
       </c>
       <c r="D12" t="str">
-        <f>_xlfn.CONCAT("www.",B12)</f>
+        <f t="shared" si="0"/>
         <v>www.farside.link</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -1348,17 +1330,11 @@
         <v>0</v>
       </c>
       <c r="D13" t="str">
-        <f>_xlfn.CONCAT("www.",B13)</f>
+        <f t="shared" si="0"/>
         <v>www.foller.me</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1369,17 +1345,11 @@
         <v>0</v>
       </c>
       <c r="D14" t="str">
-        <f>_xlfn.CONCAT("www.",B14)</f>
+        <f t="shared" si="0"/>
         <v>www.followerwonk.com</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -1390,17 +1360,11 @@
         <v>0</v>
       </c>
       <c r="D15" t="str">
-        <f>_xlfn.CONCAT("www.",B15)</f>
+        <f t="shared" si="0"/>
         <v>www.fritter.cc</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -1411,17 +1375,11 @@
         <v>0</v>
       </c>
       <c r="D16" t="str">
-        <f>_xlfn.CONCAT("www.",B16)</f>
+        <f t="shared" si="0"/>
         <v>www.fullinsta.photo</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -1432,17 +1390,11 @@
         <v>0</v>
       </c>
       <c r="D17" t="str">
-        <f>_xlfn.CONCAT("www.",B17)</f>
+        <f t="shared" si="0"/>
         <v>www.getmytweet.com</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -1453,17 +1405,11 @@
         <v>0</v>
       </c>
       <c r="D18" t="str">
-        <f>_xlfn.CONCAT("www.",B18)</f>
+        <f t="shared" si="0"/>
         <v>www.gmail.com</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -1474,17 +1420,11 @@
         <v>0</v>
       </c>
       <c r="D19" t="str">
-        <f>_xlfn.CONCAT("www.",B19)</f>
+        <f t="shared" si="0"/>
         <v>www.gramhir.com</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -1495,17 +1435,11 @@
         <v>0</v>
       </c>
       <c r="D20" t="str">
-        <f>_xlfn.CONCAT("www.",B20)</f>
+        <f t="shared" si="0"/>
         <v>www.gramho.com</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -1516,17 +1450,11 @@
         <v>0</v>
       </c>
       <c r="D21" t="str">
-        <f>_xlfn.CONCAT("www.",B21)</f>
+        <f t="shared" si="0"/>
         <v>www.gramvi.com</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -1537,17 +1465,11 @@
         <v>0</v>
       </c>
       <c r="D22" t="str">
-        <f>_xlfn.CONCAT("www.",B22)</f>
+        <f t="shared" si="0"/>
         <v>www.gramvio.com</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -1558,17 +1480,11 @@
         <v>0</v>
       </c>
       <c r="D23" t="str">
-        <f>_xlfn.CONCAT("www.",B23)</f>
+        <f t="shared" si="0"/>
         <v>www.greatfon.com</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -1579,17 +1495,11 @@
         <v>0</v>
       </c>
       <c r="D24" t="str">
-        <f>_xlfn.CONCAT("www.",B24)</f>
+        <f t="shared" si="0"/>
         <v>www.gwaa.net</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -1600,17 +1510,11 @@
         <v>0</v>
       </c>
       <c r="D25" t="str">
-        <f>_xlfn.CONCAT("www.",B25)</f>
+        <f t="shared" si="0"/>
         <v>www.hookgram.com</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -1621,17 +1525,11 @@
         <v>0</v>
       </c>
       <c r="D26" t="str">
-        <f>_xlfn.CONCAT("www.",B26)</f>
+        <f t="shared" si="0"/>
         <v>www.iglookup.com</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -1642,17 +1540,11 @@
         <v>0</v>
       </c>
       <c r="D27" t="str">
-        <f>_xlfn.CONCAT("www.",B27)</f>
+        <f t="shared" si="0"/>
         <v>www.igpanda.com</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -1663,17 +1555,11 @@
         <v>0</v>
       </c>
       <c r="D28" t="str">
-        <f>_xlfn.CONCAT("www.",B28)</f>
+        <f t="shared" si="0"/>
         <v>www.igrab.online</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -1684,17 +1570,11 @@
         <v>0</v>
       </c>
       <c r="D29" t="str">
-        <f>_xlfn.CONCAT("www.",B29)</f>
+        <f t="shared" si="0"/>
         <v>www.igram.io</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -1705,17 +1585,11 @@
         <v>0</v>
       </c>
       <c r="D30" t="str">
-        <f>_xlfn.CONCAT("www.",B30)</f>
+        <f t="shared" si="0"/>
         <v>www.igstories.app</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -1726,17 +1600,11 @@
         <v>0</v>
       </c>
       <c r="D31" t="str">
-        <f>_xlfn.CONCAT("www.",B31)</f>
+        <f t="shared" si="0"/>
         <v>www.ig-stories-viewer.net</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -1747,17 +1615,11 @@
         <v>0</v>
       </c>
       <c r="D32" t="str">
-        <f>_xlfn.CONCAT("www.",B32)</f>
+        <f t="shared" si="0"/>
         <v>www.imagerocket.com</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -1768,17 +1630,11 @@
         <v>0</v>
       </c>
       <c r="D33" t="str">
-        <f>_xlfn.CONCAT("www.",B33)</f>
+        <f t="shared" si="0"/>
         <v>www.imagerocket.net</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -1789,17 +1645,11 @@
         <v>0</v>
       </c>
       <c r="D34" t="str">
-        <f>_xlfn.CONCAT("www.",B34)</f>
+        <f t="shared" si="0"/>
         <v>www.imginn.com</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -1810,17 +1660,11 @@
         <v>0</v>
       </c>
       <c r="D35" t="str">
-        <f>_xlfn.CONCAT("www.",B35)</f>
+        <f t="shared" ref="D35:D66" si="1">_xlfn.CONCAT("www.",B35)</f>
         <v>www.imginn.org</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -1831,17 +1675,11 @@
         <v>0</v>
       </c>
       <c r="D36" t="str">
-        <f>_xlfn.CONCAT("www.",B36)</f>
+        <f t="shared" si="1"/>
         <v>www.inflact.com</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -1852,17 +1690,11 @@
         <v>0</v>
       </c>
       <c r="D37" t="str">
-        <f>_xlfn.CONCAT("www.",B37)</f>
+        <f t="shared" si="1"/>
         <v>www.ingramer.com</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -1873,17 +1705,11 @@
         <v>0</v>
       </c>
       <c r="D38" t="str">
-        <f>_xlfn.CONCAT("www.",B38)</f>
+        <f t="shared" si="1"/>
         <v>www.instabig.net</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -1894,17 +1720,11 @@
         <v>0</v>
       </c>
       <c r="D39" t="str">
-        <f>_xlfn.CONCAT("www.",B39)</f>
+        <f t="shared" si="1"/>
         <v>www.instadp.com</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -1915,17 +1735,11 @@
         <v>0</v>
       </c>
       <c r="D40" t="str">
-        <f>_xlfn.CONCAT("www.",B40)</f>
+        <f t="shared" si="1"/>
         <v>www.instadp.net</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -1936,17 +1750,11 @@
         <v>0</v>
       </c>
       <c r="D41" t="str">
-        <f>_xlfn.CONCAT("www.",B41)</f>
+        <f t="shared" si="1"/>
         <v>www.instadp.org</v>
       </c>
-      <c r="F41" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -1957,17 +1765,11 @@
         <v>0</v>
       </c>
       <c r="D42" t="str">
-        <f>_xlfn.CONCAT("www.",B42)</f>
+        <f t="shared" si="1"/>
         <v>www.instafollowers.co</v>
       </c>
-      <c r="F42" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -1978,17 +1780,11 @@
         <v>0</v>
       </c>
       <c r="D43" t="str">
-        <f>_xlfn.CONCAT("www.",B43)</f>
+        <f t="shared" si="1"/>
         <v>www.instafreeview.com</v>
       </c>
-      <c r="F43" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -1999,17 +1795,11 @@
         <v>0</v>
       </c>
       <c r="D44" t="str">
-        <f>_xlfn.CONCAT("www.",B44)</f>
+        <f t="shared" si="1"/>
         <v>www.instagram.com</v>
       </c>
-      <c r="F44" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -2020,17 +1810,11 @@
         <v>0</v>
       </c>
       <c r="D45" t="str">
-        <f>_xlfn.CONCAT("www.",B45)</f>
+        <f t="shared" si="1"/>
         <v>www.instajust.com</v>
       </c>
-      <c r="F45" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -2041,17 +1825,11 @@
         <v>0</v>
       </c>
       <c r="D46" t="str">
-        <f>_xlfn.CONCAT("www.",B46)</f>
+        <f t="shared" si="1"/>
         <v>www.instalker.org</v>
       </c>
-      <c r="F46" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>0</v>
       </c>
@@ -2062,17 +1840,11 @@
         <v>0</v>
       </c>
       <c r="D47" t="str">
-        <f>_xlfn.CONCAT("www.",B47)</f>
+        <f t="shared" si="1"/>
         <v>www.instalkr.com</v>
       </c>
-      <c r="F47" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>0</v>
       </c>
@@ -2083,17 +1855,11 @@
         <v>0</v>
       </c>
       <c r="D48" t="str">
-        <f>_xlfn.CONCAT("www.",B48)</f>
+        <f t="shared" si="1"/>
         <v>www.instalooker.com</v>
       </c>
-      <c r="F48" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -2104,17 +1870,11 @@
         <v>0</v>
       </c>
       <c r="D49" t="str">
-        <f>_xlfn.CONCAT("www.",B49)</f>
+        <f t="shared" si="1"/>
         <v>www.instanavigation.com</v>
       </c>
-      <c r="F49" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>0</v>
       </c>
@@ -2125,17 +1885,11 @@
         <v>0</v>
       </c>
       <c r="D50" t="str">
-        <f>_xlfn.CONCAT("www.",B50)</f>
+        <f t="shared" si="1"/>
         <v>www.instaonline.org</v>
       </c>
-      <c r="F50" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>0</v>
       </c>
@@ -2146,17 +1900,11 @@
         <v>0</v>
       </c>
       <c r="D51" t="str">
-        <f>_xlfn.CONCAT("www.",B51)</f>
+        <f t="shared" si="1"/>
         <v>www.instaprivate.com</v>
       </c>
-      <c r="F51" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>0</v>
       </c>
@@ -2167,17 +1915,11 @@
         <v>0</v>
       </c>
       <c r="D52" t="str">
-        <f>_xlfn.CONCAT("www.",B52)</f>
+        <f t="shared" si="1"/>
         <v>www.instaprivateprofileviewer.com</v>
       </c>
-      <c r="F52" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>0</v>
       </c>
@@ -2188,17 +1930,11 @@
         <v>0</v>
       </c>
       <c r="D53" t="str">
-        <f>_xlfn.CONCAT("www.",B53)</f>
+        <f t="shared" si="1"/>
         <v>www.instasaved.net</v>
       </c>
-      <c r="F53" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>0</v>
       </c>
@@ -2209,17 +1945,11 @@
         <v>0</v>
       </c>
       <c r="D54" t="str">
-        <f>_xlfn.CONCAT("www.",B54)</f>
+        <f t="shared" si="1"/>
         <v>www.instasaver.app</v>
       </c>
-      <c r="F54" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>0</v>
       </c>
@@ -2230,17 +1960,11 @@
         <v>0</v>
       </c>
       <c r="D55" t="str">
-        <f>_xlfn.CONCAT("www.",B55)</f>
+        <f t="shared" si="1"/>
         <v>www.insta-stories.com</v>
       </c>
-      <c r="F55" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>0</v>
       </c>
@@ -2251,17 +1975,11 @@
         <v>0</v>
       </c>
       <c r="D56" t="str">
-        <f>_xlfn.CONCAT("www.",B56)</f>
+        <f t="shared" si="1"/>
         <v>www.instastories.net</v>
       </c>
-      <c r="F56" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>0</v>
       </c>
@@ -2272,17 +1990,11 @@
         <v>0</v>
       </c>
       <c r="D57" t="str">
-        <f>_xlfn.CONCAT("www.",B57)</f>
+        <f t="shared" si="1"/>
         <v>www.insta-stories.online</v>
       </c>
-      <c r="F57" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>0</v>
       </c>
@@ -2293,17 +2005,11 @@
         <v>0</v>
       </c>
       <c r="D58" t="str">
-        <f>_xlfn.CONCAT("www.",B58)</f>
+        <f t="shared" si="1"/>
         <v>www.instastories.watch</v>
       </c>
-      <c r="F58" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>0</v>
       </c>
@@ -2314,17 +2020,11 @@
         <v>0</v>
       </c>
       <c r="D59" t="str">
-        <f>_xlfn.CONCAT("www.",B59)</f>
+        <f t="shared" si="1"/>
         <v>www.insta-stories-viewer.com</v>
       </c>
-      <c r="F59" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>0</v>
       </c>
@@ -2335,17 +2035,11 @@
         <v>0</v>
       </c>
       <c r="D60" t="str">
-        <f>_xlfn.CONCAT("www.",B60)</f>
+        <f t="shared" si="1"/>
         <v>www.instastory.net</v>
       </c>
-      <c r="F60" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>0</v>
       </c>
@@ -2356,17 +2050,11 @@
         <v>0</v>
       </c>
       <c r="D61" t="str">
-        <f>_xlfn.CONCAT("www.",B61)</f>
+        <f t="shared" si="1"/>
         <v>www.instastoryviewer.com</v>
       </c>
-      <c r="F61" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>0</v>
       </c>
@@ -2377,17 +2065,11 @@
         <v>0</v>
       </c>
       <c r="D62" t="str">
-        <f>_xlfn.CONCAT("www.",B62)</f>
+        <f t="shared" si="1"/>
         <v>www.instaviewer.ga</v>
       </c>
-      <c r="F62" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>0</v>
       </c>
@@ -2398,17 +2080,11 @@
         <v>0</v>
       </c>
       <c r="D63" t="str">
-        <f>_xlfn.CONCAT("www.",B63)</f>
+        <f t="shared" si="1"/>
         <v>www.instaviewer.live</v>
       </c>
-      <c r="F63" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>0</v>
       </c>
@@ -2419,596 +2095,488 @@
         <v>0</v>
       </c>
       <c r="D64" t="str">
-        <f>_xlfn.CONCAT("www.",B64)</f>
+        <f t="shared" si="1"/>
         <v>www.instaviewerapp.weebly.com</v>
       </c>
-      <c r="F64" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>0</v>
       </c>
       <c r="B65" t="s">
+        <v>208</v>
+      </c>
+      <c r="C65" t="s">
+        <v>0</v>
+      </c>
+      <c r="D65" t="str">
+        <f t="shared" si="1"/>
+        <v>www.instaviewers.net</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" t="s">
         <v>52</v>
       </c>
-      <c r="C65" t="s">
-        <v>0</v>
-      </c>
-      <c r="D65" t="str">
-        <f>_xlfn.CONCAT("www.",B65)</f>
+      <c r="C66" t="s">
+        <v>0</v>
+      </c>
+      <c r="D66" t="str">
+        <f t="shared" si="1"/>
         <v>www.instaviews.net</v>
       </c>
-      <c r="F65" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>0</v>
-      </c>
-      <c r="B66" t="s">
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" t="s">
         <v>53</v>
       </c>
-      <c r="C66" t="s">
-        <v>0</v>
-      </c>
-      <c r="D66" t="str">
-        <f>_xlfn.CONCAT("www.",B66)</f>
+      <c r="C67" t="s">
+        <v>0</v>
+      </c>
+      <c r="D67" t="str">
+        <f t="shared" ref="D67:D98" si="2">_xlfn.CONCAT("www.",B67)</f>
         <v>www.instaxyz.com</v>
       </c>
-      <c r="F66" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>0</v>
-      </c>
-      <c r="B67" t="s">
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" t="s">
         <v>54</v>
       </c>
-      <c r="C67" t="s">
-        <v>0</v>
-      </c>
-      <c r="D67" t="str">
-        <f>_xlfn.CONCAT("www.",B67)</f>
+      <c r="C68" t="s">
+        <v>0</v>
+      </c>
+      <c r="D68" t="str">
+        <f t="shared" si="2"/>
         <v>www.insuiter.com</v>
       </c>
-      <c r="F67" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>0</v>
-      </c>
-      <c r="B68" t="s">
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69" t="s">
         <v>55</v>
       </c>
-      <c r="C68" t="s">
-        <v>0</v>
-      </c>
-      <c r="D68" t="str">
-        <f>_xlfn.CONCAT("www.",B68)</f>
+      <c r="C69" t="s">
+        <v>0</v>
+      </c>
+      <c r="D69" t="str">
+        <f t="shared" si="2"/>
         <v>www.i-private-profile-viewer.com</v>
       </c>
-      <c r="F68" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>0</v>
-      </c>
-      <c r="B69" t="s">
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70" t="s">
         <v>56</v>
       </c>
-      <c r="C69" t="s">
-        <v>0</v>
-      </c>
-      <c r="D69" t="str">
-        <f>_xlfn.CONCAT("www.",B69)</f>
+      <c r="C70" t="s">
+        <v>0</v>
+      </c>
+      <c r="D70" t="str">
+        <f t="shared" si="2"/>
         <v>www.istaprivate.com</v>
       </c>
-      <c r="F69" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B70" t="s">
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71" t="s">
         <v>57</v>
       </c>
-      <c r="C70" t="s">
-        <v>0</v>
-      </c>
-      <c r="D70" t="str">
-        <f>_xlfn.CONCAT("www.",B70)</f>
+      <c r="C71" t="s">
+        <v>0</v>
+      </c>
+      <c r="D71" t="str">
+        <f t="shared" si="2"/>
         <v>www.likecreeper.com</v>
       </c>
-      <c r="F70" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>0</v>
-      </c>
-      <c r="B71" t="s">
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" t="s">
         <v>60</v>
       </c>
-      <c r="C71" t="s">
-        <v>0</v>
-      </c>
-      <c r="D71" t="str">
-        <f>_xlfn.CONCAT("www.",B71)</f>
+      <c r="C72" t="s">
+        <v>0</v>
+      </c>
+      <c r="D72" t="str">
+        <f t="shared" si="2"/>
         <v>www.mystalk.net</v>
       </c>
-      <c r="F71" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B72" t="s">
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" t="s">
         <v>154</v>
       </c>
-      <c r="C72" t="s">
-        <v>0</v>
-      </c>
-      <c r="D72" t="str">
-        <f>_xlfn.CONCAT("www.",B72)</f>
+      <c r="C73" t="s">
+        <v>0</v>
+      </c>
+      <c r="D73" t="str">
+        <f t="shared" si="2"/>
         <v>www.mythreadreader.com</v>
       </c>
-      <c r="F72" t="s">
-        <v>0</v>
-      </c>
-      <c r="G72" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B73" t="s">
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" t="s">
         <v>64</v>
       </c>
-      <c r="C73" t="s">
-        <v>0</v>
-      </c>
-      <c r="D73" t="str">
-        <f>_xlfn.CONCAT("www.",B73)</f>
+      <c r="C74" t="s">
+        <v>0</v>
+      </c>
+      <c r="D74" t="str">
+        <f t="shared" si="2"/>
         <v>www.ninjalitics.com</v>
       </c>
-      <c r="F73" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B74" t="s">
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75" t="s">
         <v>108</v>
       </c>
-      <c r="C74" t="s">
-        <v>0</v>
-      </c>
-      <c r="D74" t="str">
-        <f>_xlfn.CONCAT("www.",B74)</f>
+      <c r="C75" t="s">
+        <v>0</v>
+      </c>
+      <c r="D75" t="str">
+        <f t="shared" si="2"/>
         <v>www.omnicity.com</v>
       </c>
-      <c r="F74" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B75" t="s">
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" t="s">
         <v>109</v>
       </c>
-      <c r="C75" t="s">
-        <v>0</v>
-      </c>
-      <c r="D75" t="str">
-        <f>_xlfn.CONCAT("www.",B75)</f>
+      <c r="C76" t="s">
+        <v>0</v>
+      </c>
+      <c r="D76" t="str">
+        <f t="shared" si="2"/>
         <v>www.peekinspo.com</v>
       </c>
-      <c r="F75" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B76" t="s">
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77" t="s">
         <v>110</v>
       </c>
-      <c r="C76" t="s">
-        <v>0</v>
-      </c>
-      <c r="D76" t="str">
-        <f>_xlfn.CONCAT("www.",B76)</f>
+      <c r="C77" t="s">
+        <v>0</v>
+      </c>
+      <c r="D77" t="str">
+        <f t="shared" si="2"/>
         <v>www.picaki.com</v>
       </c>
-      <c r="F76" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>0</v>
-      </c>
-      <c r="B77" t="s">
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78" t="s">
         <v>111</v>
       </c>
-      <c r="C77" t="s">
-        <v>0</v>
-      </c>
-      <c r="D77" t="str">
-        <f>_xlfn.CONCAT("www.",B77)</f>
+      <c r="C78" t="s">
+        <v>0</v>
+      </c>
+      <c r="D78" t="str">
+        <f t="shared" si="2"/>
         <v>www.picosico.org</v>
       </c>
-      <c r="F77" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>0</v>
-      </c>
-      <c r="B78" t="s">
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79" t="s">
         <v>112</v>
       </c>
-      <c r="C78" t="s">
-        <v>0</v>
-      </c>
-      <c r="D78" t="str">
-        <f>_xlfn.CONCAT("www.",B78)</f>
+      <c r="C79" t="s">
+        <v>0</v>
+      </c>
+      <c r="D79" t="str">
+        <f t="shared" si="2"/>
         <v>www.picuki.com</v>
       </c>
-      <c r="F78" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B79" t="s">
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80" t="s">
         <v>113</v>
       </c>
-      <c r="C79" t="s">
-        <v>0</v>
-      </c>
-      <c r="D79" t="str">
-        <f>_xlfn.CONCAT("www.",B79)</f>
+      <c r="C80" t="s">
+        <v>0</v>
+      </c>
+      <c r="D80" t="str">
+        <f t="shared" si="2"/>
         <v>www.picuki.net</v>
       </c>
-      <c r="F79" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B80" t="s">
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81" t="s">
         <v>114</v>
       </c>
-      <c r="C80" t="s">
-        <v>0</v>
-      </c>
-      <c r="D80" t="str">
-        <f>_xlfn.CONCAT("www.",B80)</f>
+      <c r="C81" t="s">
+        <v>0</v>
+      </c>
+      <c r="D81" t="str">
+        <f t="shared" si="2"/>
         <v>www.pikviewer.com</v>
       </c>
-      <c r="F80" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B81" t="s">
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82" t="s">
         <v>115</v>
       </c>
-      <c r="C81" t="s">
-        <v>0</v>
-      </c>
-      <c r="D81" t="str">
-        <f>_xlfn.CONCAT("www.",B81)</f>
+      <c r="C82" t="s">
+        <v>0</v>
+      </c>
+      <c r="D82" t="str">
+        <f t="shared" si="2"/>
         <v>www.pixwox.com</v>
       </c>
-      <c r="F81" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B82" t="s">
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83" t="s">
         <v>116</v>
       </c>
-      <c r="C82" t="s">
-        <v>0</v>
-      </c>
-      <c r="D82" t="str">
-        <f>_xlfn.CONCAT("www.",B82)</f>
+      <c r="C83" t="s">
+        <v>0</v>
+      </c>
+      <c r="D83" t="str">
+        <f t="shared" si="2"/>
         <v>www.privategramview.com</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B83" t="s">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84" t="s">
         <v>117</v>
       </c>
-      <c r="C83" t="s">
-        <v>0</v>
-      </c>
-      <c r="D83" t="str">
-        <f>_xlfn.CONCAT("www.",B83)</f>
+      <c r="C84" t="s">
+        <v>0</v>
+      </c>
+      <c r="D84" t="str">
+        <f t="shared" si="2"/>
         <v>www.privateinstaview.com</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B84" t="s">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85" t="s">
         <v>118</v>
       </c>
-      <c r="C84" t="s">
-        <v>0</v>
-      </c>
-      <c r="D84" t="str">
-        <f>_xlfn.CONCAT("www.",B84)</f>
+      <c r="C85" t="s">
+        <v>0</v>
+      </c>
+      <c r="D85" t="str">
+        <f t="shared" si="2"/>
         <v>www.privatephotoviewer.com</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>0</v>
-      </c>
-      <c r="B85" s="2" t="s">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C85" t="s">
-        <v>0</v>
-      </c>
-      <c r="D85" t="str">
-        <f>_xlfn.CONCAT("www.",B85)</f>
+      <c r="C86" t="s">
+        <v>0</v>
+      </c>
+      <c r="D86" t="str">
+        <f t="shared" si="2"/>
         <v>www.profileviewer.vercel.app</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>0</v>
-      </c>
-      <c r="B86" t="s">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87" t="s">
         <v>192</v>
       </c>
-      <c r="C86" t="s">
-        <v>0</v>
-      </c>
-      <c r="D86" t="str">
-        <f>_xlfn.CONCAT("www.",B86)</f>
+      <c r="C87" t="s">
+        <v>0</v>
+      </c>
+      <c r="D87" t="str">
+        <f t="shared" si="2"/>
         <v>www.save-insta.com</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>0</v>
-      </c>
-      <c r="B87" t="s">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B88" t="s">
         <v>200</v>
       </c>
-      <c r="C87" t="s">
-        <v>0</v>
-      </c>
-      <c r="D87" t="str">
-        <f>_xlfn.CONCAT("www.",B87)</f>
+      <c r="C88" t="s">
+        <v>0</v>
+      </c>
+      <c r="D88" t="str">
+        <f t="shared" si="2"/>
         <v>www.simpliers.com</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B88" t="s">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89" t="s">
         <v>119</v>
       </c>
-      <c r="C88" t="s">
-        <v>0</v>
-      </c>
-      <c r="D88" t="str">
-        <f>_xlfn.CONCAT("www.",B88)</f>
+      <c r="C89" t="s">
+        <v>0</v>
+      </c>
+      <c r="D89" t="str">
+        <f t="shared" si="2"/>
         <v>www.smihub.com</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>0</v>
-      </c>
-      <c r="B89" t="s">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B90" t="s">
         <v>205</v>
       </c>
-      <c r="C89" t="s">
-        <v>0</v>
-      </c>
-      <c r="D89" t="str">
-        <f>_xlfn.CONCAT("www.",B89)</f>
+      <c r="C90" t="s">
+        <v>0</v>
+      </c>
+      <c r="D90" t="str">
+        <f t="shared" si="2"/>
         <v>www.snapinsta.app</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>0</v>
-      </c>
-      <c r="B90" t="s">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91" t="s">
         <v>120</v>
       </c>
-      <c r="C90" t="s">
-        <v>0</v>
-      </c>
-      <c r="D90" t="str">
-        <f>_xlfn.CONCAT("www.",B90)</f>
+      <c r="C91" t="s">
+        <v>0</v>
+      </c>
+      <c r="D91" t="str">
+        <f t="shared" si="2"/>
         <v>www.sotwe.com</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B91" t="s">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B92" t="s">
         <v>121</v>
       </c>
-      <c r="C91" t="s">
-        <v>0</v>
-      </c>
-      <c r="D91" t="str">
-        <f>_xlfn.CONCAT("www.",B91)</f>
+      <c r="C92" t="s">
+        <v>0</v>
+      </c>
+      <c r="D92" t="str">
+        <f t="shared" si="2"/>
         <v>www.storiesdown.com</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B92" t="s">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B93" t="s">
         <v>183</v>
       </c>
-      <c r="C92" t="s">
-        <v>0</v>
-      </c>
-      <c r="D92" t="str">
-        <f>_xlfn.CONCAT("www.",B92)</f>
+      <c r="C93" t="s">
+        <v>0</v>
+      </c>
+      <c r="D93" t="str">
+        <f t="shared" si="2"/>
         <v>www.storiesig.app</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>0</v>
-      </c>
-      <c r="B93" t="s">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94" t="s">
         <v>193</v>
       </c>
-      <c r="C93" t="s">
-        <v>0</v>
-      </c>
-      <c r="D93" t="str">
-        <f>_xlfn.CONCAT("www.",B93)</f>
+      <c r="C94" t="s">
+        <v>0</v>
+      </c>
+      <c r="D94" t="str">
+        <f t="shared" si="2"/>
         <v>www.storiesig.info</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>0</v>
-      </c>
-      <c r="B94" t="s">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>0</v>
+      </c>
+      <c r="B95" t="s">
         <v>184</v>
       </c>
-      <c r="C94" t="s">
-        <v>0</v>
-      </c>
-      <c r="D94" t="str">
-        <f>_xlfn.CONCAT("www.",B94)</f>
+      <c r="C95" t="s">
+        <v>0</v>
+      </c>
+      <c r="D95" t="str">
+        <f t="shared" si="2"/>
         <v>www.storiesig.me</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>0</v>
-      </c>
-      <c r="B95" t="s">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B96" t="s">
         <v>122</v>
       </c>
-      <c r="C95" t="s">
-        <v>0</v>
-      </c>
-      <c r="D95" t="str">
-        <f>_xlfn.CONCAT("www.",B95)</f>
+      <c r="C96" t="s">
+        <v>0</v>
+      </c>
+      <c r="D96" t="str">
+        <f t="shared" si="2"/>
         <v>www.storiesig.net</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>0</v>
-      </c>
-      <c r="B96" t="s">
-        <v>123</v>
-      </c>
-      <c r="C96" t="s">
-        <v>0</v>
-      </c>
-      <c r="D96" t="str">
-        <f>_xlfn.CONCAT("www.",B96)</f>
-        <v>www.storieswatch.com</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -3016,14 +2584,14 @@
         <v>0</v>
       </c>
       <c r="B97" t="s">
-        <v>204</v>
+        <v>123</v>
       </c>
       <c r="C97" t="s">
         <v>0</v>
       </c>
       <c r="D97" t="str">
-        <f>_xlfn.CONCAT("www.",B97)</f>
-        <v>www.storistalker.com</v>
+        <f t="shared" si="2"/>
+        <v>www.storieswatch.com</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -3031,14 +2599,14 @@
         <v>0</v>
       </c>
       <c r="B98" t="s">
-        <v>124</v>
+        <v>204</v>
       </c>
       <c r="C98" t="s">
         <v>0</v>
       </c>
       <c r="D98" t="str">
-        <f>_xlfn.CONCAT("www.",B98)</f>
-        <v>www.storysaver.net</v>
+        <f t="shared" si="2"/>
+        <v>www.storistalker.com</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -3046,14 +2614,14 @@
         <v>0</v>
       </c>
       <c r="B99" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C99" t="s">
         <v>0</v>
       </c>
       <c r="D99" t="str">
-        <f>_xlfn.CONCAT("www.",B99)</f>
-        <v>www.stweetly.com</v>
+        <f t="shared" ref="D99:D122" si="3">_xlfn.CONCAT("www.",B99)</f>
+        <v>www.storysaver.net</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -3061,14 +2629,14 @@
         <v>0</v>
       </c>
       <c r="B100" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C100" t="s">
         <v>0</v>
       </c>
       <c r="D100" t="str">
-        <f>_xlfn.CONCAT("www.",B100)</f>
-        <v>www.t.com.sb</v>
+        <f t="shared" si="3"/>
+        <v>www.stweetly.com</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -3076,14 +2644,14 @@
         <v>0</v>
       </c>
       <c r="B101" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C101" t="s">
         <v>0</v>
       </c>
       <c r="D101" t="str">
-        <f>_xlfn.CONCAT("www.",B101)</f>
-        <v>www.thepicgram.com</v>
+        <f t="shared" si="3"/>
+        <v>www.t.com.sb</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -3091,14 +2659,14 @@
         <v>0</v>
       </c>
       <c r="B102" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="C102" t="s">
         <v>0</v>
       </c>
       <c r="D102" t="str">
-        <f>_xlfn.CONCAT("www.",B102)</f>
-        <v>www.threadreaderapp.com</v>
+        <f t="shared" si="3"/>
+        <v>www.thepicgram.com</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -3106,14 +2674,14 @@
         <v>0</v>
       </c>
       <c r="B103" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="C103" t="s">
         <v>0</v>
       </c>
       <c r="D103" t="str">
-        <f>_xlfn.CONCAT("www.",B103)</f>
-        <v>www.tweepsmap.com</v>
+        <f t="shared" si="3"/>
+        <v>www.threadreaderapp.com</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -3121,14 +2689,14 @@
         <v>0</v>
       </c>
       <c r="B104" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C104" t="s">
         <v>0</v>
       </c>
       <c r="D104" t="str">
-        <f>_xlfn.CONCAT("www.",B104)</f>
-        <v>www.tweepy.net</v>
+        <f t="shared" si="3"/>
+        <v>www.tweepsmap.com</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -3136,14 +2704,14 @@
         <v>0</v>
       </c>
       <c r="B105" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C105" t="s">
         <v>0</v>
       </c>
       <c r="D105" t="str">
-        <f>_xlfn.CONCAT("www.",B105)</f>
-        <v>www.tweetbeam.com</v>
+        <f t="shared" si="3"/>
+        <v>www.tweepy.net</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -3151,14 +2719,14 @@
         <v>0</v>
       </c>
       <c r="B106" t="s">
-        <v>206</v>
+        <v>132</v>
       </c>
       <c r="C106" t="s">
         <v>0</v>
       </c>
       <c r="D106" t="str">
-        <f>_xlfn.CONCAT("www.",B106)</f>
-        <v>www.twicopy.com</v>
+        <f t="shared" si="3"/>
+        <v>www.tweetbeam.com</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -3166,14 +2734,14 @@
         <v>0</v>
       </c>
       <c r="B107" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="C107" t="s">
         <v>0</v>
       </c>
       <c r="D107" t="str">
-        <f>_xlfn.CONCAT("www.",B107)</f>
-        <v>www.twidoom.com</v>
+        <f t="shared" si="3"/>
+        <v>www.twicopy.com</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -3181,14 +2749,14 @@
         <v>0</v>
       </c>
       <c r="B108" t="s">
-        <v>133</v>
+        <v>187</v>
       </c>
       <c r="C108" t="s">
         <v>0</v>
       </c>
       <c r="D108" t="str">
-        <f>_xlfn.CONCAT("www.",B108)</f>
-        <v>www.twiiit.com</v>
+        <f t="shared" si="3"/>
+        <v>www.twidoom.com</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -3196,14 +2764,14 @@
         <v>0</v>
       </c>
       <c r="B109" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C109" t="s">
         <v>0</v>
       </c>
       <c r="D109" t="str">
-        <f>_xlfn.CONCAT("www.",B109)</f>
-        <v>www.twimfeed.com</v>
+        <f t="shared" si="3"/>
+        <v>www.twiiit.com</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -3211,14 +2779,14 @@
         <v>0</v>
       </c>
       <c r="B110" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C110" t="s">
         <v>0</v>
       </c>
       <c r="D110" t="str">
-        <f>_xlfn.CONCAT("www.",B110)</f>
-        <v>www.twimg.com</v>
+        <f t="shared" si="3"/>
+        <v>www.twimfeed.com</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -3226,14 +2794,14 @@
         <v>0</v>
       </c>
       <c r="B111" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C111" t="s">
         <v>0</v>
       </c>
       <c r="D111" t="str">
-        <f>_xlfn.CONCAT("www.",B111)</f>
-        <v>www.twipho.net</v>
+        <f t="shared" si="3"/>
+        <v>www.twimg.com</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -3241,14 +2809,14 @@
         <v>0</v>
       </c>
       <c r="B112" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C112" t="s">
         <v>0</v>
       </c>
       <c r="D112" t="str">
-        <f>_xlfn.CONCAT("www.",B112)</f>
-        <v>www.twipu.net</v>
+        <f t="shared" si="3"/>
+        <v>www.twipho.net</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -3256,14 +2824,14 @@
         <v>0</v>
       </c>
       <c r="B113" t="s">
-        <v>207</v>
+        <v>137</v>
       </c>
       <c r="C113" t="s">
         <v>0</v>
       </c>
       <c r="D113" t="str">
-        <f>_xlfn.CONCAT("www.",B113)</f>
-        <v>www.twisave.com</v>
+        <f t="shared" si="3"/>
+        <v>www.twipu.net</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -3271,14 +2839,14 @@
         <v>0</v>
       </c>
       <c r="B114" t="s">
-        <v>141</v>
+        <v>207</v>
       </c>
       <c r="C114" t="s">
         <v>0</v>
       </c>
       <c r="D114" t="str">
-        <f>_xlfn.CONCAT("www.",B114)</f>
-        <v>www.twitter.com</v>
+        <f t="shared" si="3"/>
+        <v>www.twisave.com</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -3286,14 +2854,14 @@
         <v>0</v>
       </c>
       <c r="B115" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C115" t="s">
         <v>0</v>
       </c>
       <c r="D115" t="str">
-        <f>_xlfn.CONCAT("www.",B115)</f>
-        <v>www.twittertt.com</v>
+        <f t="shared" si="3"/>
+        <v>www.twitter.com</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -3301,14 +2869,14 @@
         <v>0</v>
       </c>
       <c r="B116" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C116" t="s">
         <v>0</v>
       </c>
       <c r="D116" t="str">
-        <f>_xlfn.CONCAT("www.",B116)</f>
-        <v>www.twubs.com</v>
+        <f t="shared" si="3"/>
+        <v>www.twittertt.com</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -3316,14 +2884,14 @@
         <v>0</v>
       </c>
       <c r="B117" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C117" t="s">
         <v>0</v>
       </c>
       <c r="D117" t="str">
-        <f>_xlfn.CONCAT("www.",B117)</f>
-        <v>www.viewerig.com</v>
+        <f t="shared" si="3"/>
+        <v>www.twubs.com</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -3331,14 +2899,14 @@
         <v>0</v>
       </c>
       <c r="B118" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C118" t="s">
         <v>0</v>
       </c>
       <c r="D118" t="str">
-        <f>_xlfn.CONCAT("www.",B118)</f>
-        <v>www.viewprivateinsta.com</v>
+        <f t="shared" si="3"/>
+        <v>www.viewerig.com</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -3346,14 +2914,14 @@
         <v>0</v>
       </c>
       <c r="B119" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C119" t="s">
         <v>0</v>
       </c>
       <c r="D119" t="str">
-        <f>_xlfn.CONCAT("www.",B119)</f>
-        <v>www.visibletweets.com</v>
+        <f t="shared" si="3"/>
+        <v>www.viewprivateinsta.com</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -3361,14 +2929,14 @@
         <v>0</v>
       </c>
       <c r="B120" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C120" t="s">
         <v>0</v>
       </c>
       <c r="D120" t="str">
-        <f>_xlfn.CONCAT("www.",B120)</f>
-        <v>www.watchinsta.com</v>
+        <f t="shared" si="3"/>
+        <v>www.visibletweets.com</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -3376,24 +2944,899 @@
         <v>0</v>
       </c>
       <c r="B121" t="s">
+        <v>150</v>
+      </c>
+      <c r="C121" t="s">
+        <v>0</v>
+      </c>
+      <c r="D121" t="str">
+        <f t="shared" si="3"/>
+        <v>www.watchinsta.com</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>0</v>
+      </c>
+      <c r="B122" t="s">
         <v>152</v>
       </c>
-      <c r="C121" t="s">
-        <v>0</v>
-      </c>
-      <c r="D121" t="str">
-        <f>_xlfn.CONCAT("www.",B121)</f>
+      <c r="C122" t="s">
+        <v>0</v>
+      </c>
+      <c r="D122" t="str">
+        <f t="shared" si="3"/>
         <v>www.webstagram.org</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D3:D121">
-    <sortCondition ref="D3:D121"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:B122">
+    <sortCondition ref="B3:B122"/>
   </sortState>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="I1:J1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA59CB1C-FDC9-4B42-B2B3-9AF6BDB5B633}">
+  <dimension ref="A1:G85"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" customWidth="1"/>
+    <col min="7" max="7" width="23.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="D1" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>220</v>
+      </c>
+      <c r="F3" t="str">
+        <f>D3</f>
+        <v>0.0.0.0</v>
+      </c>
+      <c r="G3" t="str">
+        <f>_xlfn.CONCAT("www.",E3)</f>
+        <v>www.nitter.at</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" ref="F4:F13" si="0">D4</f>
+        <v>0.0.0.0</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" ref="G4:G13" si="1">_xlfn.CONCAT("www.",E4)</f>
+        <v>www.nitter.ca</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>0.0.0.0</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="1"/>
+        <v>www.nitter.cz</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>0.0.0.0</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="1"/>
+        <v>www.nitter.hu</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>0.0.0.0</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="1"/>
+        <v>www.nitter.ir</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>0.0.0.0</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="1"/>
+        <v>www.nitter.it</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>0.0.0.0</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="1"/>
+        <v>www.nitter.net</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" t="str">
+        <f>D10</f>
+        <v>0.0.0.0</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="1"/>
+        <v>www.nitter.nl</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>222</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>0.0.0.0</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="1"/>
+        <v>www.nitter.pw</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>0.0.0.0</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="1"/>
+        <v>www.notabird.site</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>213</v>
+      </c>
+      <c r="D13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>0.0.0.0</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="1"/>
+        <v>www.unofficialbird.com</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E3:E13">
+    <sortCondition ref="E3:E13"/>
+  </sortState>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:G1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Sources/Commons List.xlsx
+++ b/Sources/Commons List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Programs\Personal-Hosts\Sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC3E465-C7F8-4C19-804A-3C456E4B0CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B1BE7C3-838A-46CF-983D-98BCB1E1A6DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{AC752DA5-279B-4E7D-9469-CEF11FD242ED}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="230">
   <si>
     <t>0.0.0.0</t>
   </si>
@@ -708,6 +708,21 @@
   </si>
   <si>
     <t>bird.habedieeh.re</t>
+  </si>
+  <si>
+    <t>iganony.com</t>
+  </si>
+  <si>
+    <t>inststalk.com</t>
+  </si>
+  <si>
+    <t>twstalker.com</t>
+  </si>
+  <si>
+    <t>nitter.tannhauser.network</t>
+  </si>
+  <si>
+    <t>nitter.matsuda.tips</t>
   </si>
 </sst>
 </file>
@@ -1101,10 +1116,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECE8835C-5E4A-4A67-BE0B-662B45AD2111}">
-  <dimension ref="A1:G122"/>
+  <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10:G10"/>
+    <sheetView topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="C123" sqref="C123:D125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2620,7 +2635,7 @@
         <v>0</v>
       </c>
       <c r="D99" t="str">
-        <f t="shared" ref="D99:D122" si="3">_xlfn.CONCAT("www.",B99)</f>
+        <f t="shared" ref="D99:D125" si="3">_xlfn.CONCAT("www.",B99)</f>
         <v>www.storysaver.net</v>
       </c>
     </row>
@@ -2967,6 +2982,51 @@
       <c r="D122" t="str">
         <f t="shared" si="3"/>
         <v>www.webstagram.org</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>0</v>
+      </c>
+      <c r="B123" t="s">
+        <v>225</v>
+      </c>
+      <c r="C123" t="s">
+        <v>0</v>
+      </c>
+      <c r="D123" t="str">
+        <f t="shared" si="3"/>
+        <v>www.iganony.com</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>0</v>
+      </c>
+      <c r="B124" t="s">
+        <v>226</v>
+      </c>
+      <c r="C124" t="s">
+        <v>0</v>
+      </c>
+      <c r="D124" t="str">
+        <f t="shared" si="3"/>
+        <v>www.inststalk.com</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>0</v>
+      </c>
+      <c r="B125" t="s">
+        <v>227</v>
+      </c>
+      <c r="C125" t="s">
+        <v>0</v>
+      </c>
+      <c r="D125" t="str">
+        <f t="shared" si="3"/>
+        <v>www.twstalker.com</v>
       </c>
     </row>
   </sheetData>
@@ -2985,10 +3045,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA59CB1C-FDC9-4B42-B2B3-9AF6BDB5B633}">
-  <dimension ref="A1:G85"/>
+  <dimension ref="A1:G87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3154,7 +3214,7 @@
       <c r="D9" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" t="s">
         <v>210</v>
       </c>
       <c r="F9" t="str">
@@ -3195,7 +3255,7 @@
       <c r="B11" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" t="s">
         <v>0</v>
       </c>
       <c r="E11" t="s">
@@ -3743,7 +3803,7 @@
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="5" t="s">
+      <c r="A75" t="s">
         <v>0</v>
       </c>
       <c r="B75" s="1" t="s">
@@ -3751,7 +3811,7 @@
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="5" t="s">
+      <c r="A76" t="s">
         <v>0</v>
       </c>
       <c r="B76" s="1" t="s">
@@ -3775,7 +3835,7 @@
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="5" t="s">
+      <c r="A79" t="s">
         <v>0</v>
       </c>
       <c r="B79" s="1" t="s">
@@ -3783,7 +3843,7 @@
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="5" t="s">
+      <c r="A80" t="s">
         <v>0</v>
       </c>
       <c r="B80" s="1" t="s">
@@ -3807,7 +3867,7 @@
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="5" t="s">
+      <c r="A83" t="s">
         <v>0</v>
       </c>
       <c r="B83" s="1" t="s">
@@ -3815,7 +3875,7 @@
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="5" t="s">
+      <c r="A84" t="s">
         <v>0</v>
       </c>
       <c r="B84" s="1" t="s">
@@ -3828,6 +3888,22 @@
       </c>
       <c r="B85" s="1" t="s">
         <v>170</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>

--- a/Sources/Commons List.xlsx
+++ b/Sources/Commons List.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Programs\Personal-Hosts\Sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B1BE7C3-838A-46CF-983D-98BCB1E1A6DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F442C48-5A75-4C7A-862C-3C310820D484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{AC752DA5-279B-4E7D-9469-CEF11FD242ED}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="233">
   <si>
     <t>0.0.0.0</t>
   </si>
@@ -209,12 +209,6 @@
     <t>likecreeper.com</t>
   </si>
   <si>
-    <t>mail.gmail.com</t>
-  </si>
-  <si>
-    <t>mail.google.com</t>
-  </si>
-  <si>
     <t>mystalk.net</t>
   </si>
   <si>
@@ -723,6 +717,21 @@
   </si>
   <si>
     <t>nitter.matsuda.tips</t>
+  </si>
+  <si>
+    <t>nitter.hostux.net</t>
+  </si>
+  <si>
+    <t>nitter.adminforge.de</t>
+  </si>
+  <si>
+    <t>nitter.platypush.tech</t>
+  </si>
+  <si>
+    <t>nitter.mask.sh</t>
+  </si>
+  <si>
+    <t>nitter.c-r-t.tk</t>
   </si>
 </sst>
 </file>
@@ -791,7 +800,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -801,7 +810,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1118,8 +1126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECE8835C-5E4A-4A67-BE0B-662B45AD2111}">
   <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="C123" sqref="C123:D125"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C125" sqref="C3:D125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1132,13 +1140,13 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="F1" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G1" s="4"/>
     </row>
@@ -1147,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -1160,7 +1168,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>58</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1181,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>59</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1202,7 +1210,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1223,7 +1231,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>153</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1244,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>143</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1261,12 +1269,6 @@
         <f t="shared" si="0"/>
         <v>www.croxyproxy.com</v>
       </c>
-      <c r="F8" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1282,19 +1284,13 @@
         <f t="shared" si="0"/>
         <v>www.croxyproxy.rocks</v>
       </c>
-      <c r="F9" t="s">
-        <v>0</v>
-      </c>
-      <c r="G9" t="s">
-        <v>62</v>
-      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C10" t="s">
         <v>0</v>
@@ -1369,7 +1365,7 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C15" t="s">
         <v>0</v>
@@ -1519,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C25" t="s">
         <v>0</v>
@@ -1564,7 +1560,7 @@
         <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C28" t="s">
         <v>0</v>
@@ -1579,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C29" t="s">
         <v>0</v>
@@ -1669,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="B35" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C35" t="s">
         <v>0</v>
@@ -1684,7 +1680,7 @@
         <v>0</v>
       </c>
       <c r="B36" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C36" t="s">
         <v>0</v>
@@ -1789,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="B43" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C43" t="s">
         <v>0</v>
@@ -1834,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="B46" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C46" t="s">
         <v>0</v>
@@ -1879,7 +1875,7 @@
         <v>0</v>
       </c>
       <c r="B49" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C49" t="s">
         <v>0</v>
@@ -1939,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="B53" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C53" t="s">
         <v>0</v>
@@ -1954,7 +1950,7 @@
         <v>0</v>
       </c>
       <c r="B54" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C54" t="s">
         <v>0</v>
@@ -1984,7 +1980,7 @@
         <v>0</v>
       </c>
       <c r="B56" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C56" t="s">
         <v>0</v>
@@ -2014,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="B58" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C58" t="s">
         <v>0</v>
@@ -2029,7 +2025,7 @@
         <v>0</v>
       </c>
       <c r="B59" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C59" t="s">
         <v>0</v>
@@ -2119,7 +2115,7 @@
         <v>0</v>
       </c>
       <c r="B65" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C65" t="s">
         <v>0</v>
@@ -2224,7 +2220,7 @@
         <v>0</v>
       </c>
       <c r="B72" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C72" t="s">
         <v>0</v>
@@ -2239,7 +2235,7 @@
         <v>0</v>
       </c>
       <c r="B73" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C73" t="s">
         <v>0</v>
@@ -2254,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="B74" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C74" t="s">
         <v>0</v>
@@ -2269,7 +2265,7 @@
         <v>0</v>
       </c>
       <c r="B75" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C75" t="s">
         <v>0</v>
@@ -2284,7 +2280,7 @@
         <v>0</v>
       </c>
       <c r="B76" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C76" t="s">
         <v>0</v>
@@ -2299,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="B77" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C77" t="s">
         <v>0</v>
@@ -2314,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="B78" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C78" t="s">
         <v>0</v>
@@ -2329,7 +2325,7 @@
         <v>0</v>
       </c>
       <c r="B79" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C79" t="s">
         <v>0</v>
@@ -2344,7 +2340,7 @@
         <v>0</v>
       </c>
       <c r="B80" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C80" t="s">
         <v>0</v>
@@ -2359,7 +2355,7 @@
         <v>0</v>
       </c>
       <c r="B81" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C81" t="s">
         <v>0</v>
@@ -2374,7 +2370,7 @@
         <v>0</v>
       </c>
       <c r="B82" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C82" t="s">
         <v>0</v>
@@ -2389,7 +2385,7 @@
         <v>0</v>
       </c>
       <c r="B83" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C83" t="s">
         <v>0</v>
@@ -2404,7 +2400,7 @@
         <v>0</v>
       </c>
       <c r="B84" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C84" t="s">
         <v>0</v>
@@ -2419,7 +2415,7 @@
         <v>0</v>
       </c>
       <c r="B85" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C85" t="s">
         <v>0</v>
@@ -2434,7 +2430,7 @@
         <v>0</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C86" t="s">
         <v>0</v>
@@ -2449,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="B87" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C87" t="s">
         <v>0</v>
@@ -2464,7 +2460,7 @@
         <v>0</v>
       </c>
       <c r="B88" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C88" t="s">
         <v>0</v>
@@ -2479,7 +2475,7 @@
         <v>0</v>
       </c>
       <c r="B89" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C89" t="s">
         <v>0</v>
@@ -2494,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="B90" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C90" t="s">
         <v>0</v>
@@ -2509,7 +2505,7 @@
         <v>0</v>
       </c>
       <c r="B91" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C91" t="s">
         <v>0</v>
@@ -2524,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="B92" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C92" t="s">
         <v>0</v>
@@ -2539,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="B93" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C93" t="s">
         <v>0</v>
@@ -2554,7 +2550,7 @@
         <v>0</v>
       </c>
       <c r="B94" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C94" t="s">
         <v>0</v>
@@ -2569,7 +2565,7 @@
         <v>0</v>
       </c>
       <c r="B95" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C95" t="s">
         <v>0</v>
@@ -2584,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="B96" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C96" t="s">
         <v>0</v>
@@ -2599,7 +2595,7 @@
         <v>0</v>
       </c>
       <c r="B97" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C97" t="s">
         <v>0</v>
@@ -2614,7 +2610,7 @@
         <v>0</v>
       </c>
       <c r="B98" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C98" t="s">
         <v>0</v>
@@ -2629,7 +2625,7 @@
         <v>0</v>
       </c>
       <c r="B99" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C99" t="s">
         <v>0</v>
@@ -2644,7 +2640,7 @@
         <v>0</v>
       </c>
       <c r="B100" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C100" t="s">
         <v>0</v>
@@ -2659,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="B101" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C101" t="s">
         <v>0</v>
@@ -2674,7 +2670,7 @@
         <v>0</v>
       </c>
       <c r="B102" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C102" t="s">
         <v>0</v>
@@ -2689,7 +2685,7 @@
         <v>0</v>
       </c>
       <c r="B103" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C103" t="s">
         <v>0</v>
@@ -2704,7 +2700,7 @@
         <v>0</v>
       </c>
       <c r="B104" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C104" t="s">
         <v>0</v>
@@ -2719,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="B105" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C105" t="s">
         <v>0</v>
@@ -2734,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="B106" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C106" t="s">
         <v>0</v>
@@ -2749,7 +2745,7 @@
         <v>0</v>
       </c>
       <c r="B107" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C107" t="s">
         <v>0</v>
@@ -2764,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="B108" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C108" t="s">
         <v>0</v>
@@ -2779,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="B109" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C109" t="s">
         <v>0</v>
@@ -2794,7 +2790,7 @@
         <v>0</v>
       </c>
       <c r="B110" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C110" t="s">
         <v>0</v>
@@ -2809,7 +2805,7 @@
         <v>0</v>
       </c>
       <c r="B111" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C111" t="s">
         <v>0</v>
@@ -2824,7 +2820,7 @@
         <v>0</v>
       </c>
       <c r="B112" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C112" t="s">
         <v>0</v>
@@ -2839,7 +2835,7 @@
         <v>0</v>
       </c>
       <c r="B113" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C113" t="s">
         <v>0</v>
@@ -2854,7 +2850,7 @@
         <v>0</v>
       </c>
       <c r="B114" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C114" t="s">
         <v>0</v>
@@ -2869,7 +2865,7 @@
         <v>0</v>
       </c>
       <c r="B115" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C115" t="s">
         <v>0</v>
@@ -2884,7 +2880,7 @@
         <v>0</v>
       </c>
       <c r="B116" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C116" t="s">
         <v>0</v>
@@ -2899,7 +2895,7 @@
         <v>0</v>
       </c>
       <c r="B117" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C117" t="s">
         <v>0</v>
@@ -2914,7 +2910,7 @@
         <v>0</v>
       </c>
       <c r="B118" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C118" t="s">
         <v>0</v>
@@ -2929,7 +2925,7 @@
         <v>0</v>
       </c>
       <c r="B119" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C119" t="s">
         <v>0</v>
@@ -2944,7 +2940,7 @@
         <v>0</v>
       </c>
       <c r="B120" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C120" t="s">
         <v>0</v>
@@ -2959,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="B121" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C121" t="s">
         <v>0</v>
@@ -2974,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="B122" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C122" t="s">
         <v>0</v>
@@ -2989,7 +2985,7 @@
         <v>0</v>
       </c>
       <c r="B123" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C123" t="s">
         <v>0</v>
@@ -3004,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="B124" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C124" t="s">
         <v>0</v>
@@ -3019,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="B125" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C125" t="s">
         <v>0</v>
@@ -3045,10 +3041,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA59CB1C-FDC9-4B42-B2B3-9AF6BDB5B633}">
-  <dimension ref="A1:G87"/>
+  <dimension ref="A1:G91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="C91" sqref="C91"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3062,11 +3058,11 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B1" s="4"/>
       <c r="D1" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -3077,13 +3073,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D3" t="s">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F3" t="str">
         <f>D3</f>
@@ -3105,7 +3101,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" ref="F4:F13" si="0">D4</f>
@@ -3127,7 +3123,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="0"/>
@@ -3143,13 +3139,13 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D6" t="s">
         <v>0</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
@@ -3171,7 +3167,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
@@ -3193,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
@@ -3209,13 +3205,13 @@
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D9" t="s">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
@@ -3231,13 +3227,13 @@
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F10" t="str">
         <f>D10</f>
@@ -3253,13 +3249,13 @@
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D11" t="s">
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
@@ -3275,13 +3271,13 @@
         <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D12" t="s">
         <v>0</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
@@ -3297,13 +3293,13 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D13" t="s">
         <v>0</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="0"/>
@@ -3319,7 +3315,7 @@
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -3327,7 +3323,7 @@
         <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -3335,15 +3331,15 @@
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>67</v>
+      <c r="B17" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -3351,23 +3347,23 @@
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B19" t="s">
-        <v>219</v>
+      <c r="B19" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>161</v>
+      <c r="B20" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -3375,7 +3371,7 @@
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>70</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -3383,7 +3379,7 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -3391,23 +3387,23 @@
         <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>73</v>
+      <c r="B24" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B25" t="s">
-        <v>221</v>
+      <c r="B25" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -3415,15 +3411,15 @@
         <v>0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>75</v>
+      <c r="B27" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -3431,7 +3427,7 @@
         <v>0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>159</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -3439,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -3447,7 +3443,7 @@
         <v>0</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>77</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -3455,7 +3451,7 @@
         <v>0</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -3463,7 +3459,7 @@
         <v>0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>166</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -3471,7 +3467,7 @@
         <v>0</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>158</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -3479,15 +3475,15 @@
         <v>0</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>79</v>
+        <v>164</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B35" t="s">
-        <v>217</v>
+      <c r="B35" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -3495,15 +3491,15 @@
         <v>0</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>83</v>
+      <c r="B37" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -3511,15 +3507,15 @@
         <v>0</v>
       </c>
       <c r="B38" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B39" t="s">
-        <v>214</v>
+      <c r="B39" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -3527,47 +3523,47 @@
         <v>0</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>85</v>
+      <c r="B41" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>86</v>
+      <c r="B42" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>87</v>
+      <c r="B43" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B44" t="s">
-        <v>223</v>
+      <c r="B44" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>88</v>
+      <c r="B45" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -3575,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -3583,7 +3579,7 @@
         <v>0</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -3591,15 +3587,15 @@
         <v>0</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>93</v>
+      <c r="B49" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -3607,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -3615,7 +3611,7 @@
         <v>0</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -3623,15 +3619,15 @@
         <v>0</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>178</v>
+        <v>89</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>163</v>
+      <c r="B53" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -3639,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -3647,7 +3643,7 @@
         <v>0</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>174</v>
+        <v>91</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -3655,7 +3651,7 @@
         <v>0</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>157</v>
+        <v>92</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -3663,7 +3659,7 @@
         <v>0</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -3671,23 +3667,23 @@
         <v>0</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B59" t="s">
-        <v>215</v>
+      <c r="B59" s="1" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B60" t="s">
-        <v>212</v>
+      <c r="B60" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -3695,7 +3691,7 @@
         <v>0</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>98</v>
+        <v>172</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -3703,7 +3699,7 @@
         <v>0</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -3711,7 +3707,7 @@
         <v>0</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -3719,15 +3715,15 @@
         <v>0</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>100</v>
+        <v>170</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>160</v>
+      <c r="B65" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -3735,7 +3731,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -3743,7 +3739,7 @@
         <v>0</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -3751,7 +3747,7 @@
         <v>0</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>102</v>
+        <v>171</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -3759,15 +3755,15 @@
         <v>0</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>104</v>
+      <c r="B70" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -3775,7 +3771,7 @@
         <v>0</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -3783,15 +3779,15 @@
         <v>0</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>107</v>
+      <c r="B73" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -3799,7 +3795,7 @@
         <v>0</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>175</v>
+        <v>99</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -3807,7 +3803,7 @@
         <v>0</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>164</v>
+        <v>100</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -3815,15 +3811,15 @@
         <v>0</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B77" t="s">
-        <v>128</v>
+      <c r="B77" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -3831,7 +3827,7 @@
         <v>0</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -3839,7 +3835,7 @@
         <v>0</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -3847,7 +3843,7 @@
         <v>0</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>139</v>
+        <v>105</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -3855,7 +3851,7 @@
         <v>0</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>140</v>
+        <v>173</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -3863,7 +3859,7 @@
         <v>0</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -3871,44 +3867,76 @@
         <v>0</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>165</v>
+        <v>126</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="A84" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
+      <c r="A85" t="s">
         <v>0</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B86" t="s">
-        <v>228</v>
+      <c r="A86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B87" t="s">
-        <v>229</v>
+      <c r="A87" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E3:E13">
-    <sortCondition ref="E3:E13"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:B91">
+    <sortCondition ref="B91"/>
   </sortState>
   <mergeCells count="2">
     <mergeCell ref="A1:B1"/>

--- a/Sources/Commons List.xlsx
+++ b/Sources/Commons List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Programs\Personal-Hosts\Sources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOHABANE\Documents\Projects\Personal-Hosts\Sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F442C48-5A75-4C7A-862C-3C310820D484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C071DCF-D427-4D6A-82AE-D1788367A778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{AC752DA5-279B-4E7D-9469-CEF11FD242ED}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AC752DA5-279B-4E7D-9469-CEF11FD242ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Common" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="238">
   <si>
     <t>0.0.0.0</t>
   </si>
@@ -732,6 +734,21 @@
   </si>
   <si>
     <t>nitter.c-r-t.tk</t>
+  </si>
+  <si>
+    <t>nitter.us.projectsegfau.lt</t>
+  </si>
+  <si>
+    <t>nitter.pufe.org</t>
+  </si>
+  <si>
+    <t>nitter.marcopisco.com</t>
+  </si>
+  <si>
+    <t>nitter.arcticfoxes.net</t>
+  </si>
+  <si>
+    <t>nitter.selfhostable.net</t>
   </si>
 </sst>
 </file>
@@ -1126,19 +1143,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECE8835C-5E4A-4A67-BE0B-662B45AD2111}">
   <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C125" sqref="C3:D125"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="34.140625" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" customWidth="1"/>
-    <col min="7" max="7" width="27.28515625" customWidth="1"/>
+    <col min="2" max="2" width="34.109375" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" customWidth="1"/>
+    <col min="4" max="4" width="34.109375" customWidth="1"/>
+    <col min="7" max="7" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>177</v>
       </c>
@@ -1150,7 +1167,7 @@
       </c>
       <c r="G1" s="4"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1171,7 +1188,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1192,7 +1209,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1213,7 +1230,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1234,7 +1251,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1255,7 +1272,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1270,7 +1287,7 @@
         <v>www.croxyproxy.com</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1285,7 +1302,7 @@
         <v>www.croxyproxy.rocks</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1300,7 +1317,7 @@
         <v>www.downloadgram.pro</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -1315,7 +1332,7 @@
         <v>www.dumpor.com</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -1330,7 +1347,7 @@
         <v>www.farside.link</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -1345,7 +1362,7 @@
         <v>www.foller.me</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1360,7 +1377,7 @@
         <v>www.followerwonk.com</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -1375,7 +1392,7 @@
         <v>www.fritter.cc</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -1390,7 +1407,7 @@
         <v>www.fullinsta.photo</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -1405,7 +1422,7 @@
         <v>www.getmytweet.com</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -1420,7 +1437,7 @@
         <v>www.gmail.com</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -1435,7 +1452,7 @@
         <v>www.gramhir.com</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -1450,7 +1467,7 @@
         <v>www.gramho.com</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -1465,7 +1482,7 @@
         <v>www.gramvi.com</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -1480,7 +1497,7 @@
         <v>www.gramvio.com</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -1495,7 +1512,7 @@
         <v>www.greatfon.com</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -1510,7 +1527,7 @@
         <v>www.gwaa.net</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -1525,7 +1542,7 @@
         <v>www.hookgram.com</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -1540,7 +1557,7 @@
         <v>www.iglookup.com</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -1555,7 +1572,7 @@
         <v>www.igpanda.com</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -1570,7 +1587,7 @@
         <v>www.igrab.online</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -1585,7 +1602,7 @@
         <v>www.igram.io</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -1600,7 +1617,7 @@
         <v>www.igstories.app</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -1615,7 +1632,7 @@
         <v>www.ig-stories-viewer.net</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -1630,7 +1647,7 @@
         <v>www.imagerocket.com</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -1645,7 +1662,7 @@
         <v>www.imagerocket.net</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -1660,7 +1677,7 @@
         <v>www.imginn.com</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -1675,7 +1692,7 @@
         <v>www.imginn.org</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -1690,7 +1707,7 @@
         <v>www.inflact.com</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -1705,7 +1722,7 @@
         <v>www.ingramer.com</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -1720,7 +1737,7 @@
         <v>www.instabig.net</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -1735,7 +1752,7 @@
         <v>www.instadp.com</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -1750,7 +1767,7 @@
         <v>www.instadp.net</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -1765,7 +1782,7 @@
         <v>www.instadp.org</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -1780,7 +1797,7 @@
         <v>www.instafollowers.co</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -1795,7 +1812,7 @@
         <v>www.instafreeview.com</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -1810,7 +1827,7 @@
         <v>www.instagram.com</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -1825,7 +1842,7 @@
         <v>www.instajust.com</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -1840,7 +1857,7 @@
         <v>www.instalker.org</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>0</v>
       </c>
@@ -1855,7 +1872,7 @@
         <v>www.instalkr.com</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>0</v>
       </c>
@@ -1870,7 +1887,7 @@
         <v>www.instalooker.com</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -1885,7 +1902,7 @@
         <v>www.instanavigation.com</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>0</v>
       </c>
@@ -1900,7 +1917,7 @@
         <v>www.instaonline.org</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>0</v>
       </c>
@@ -1915,7 +1932,7 @@
         <v>www.instaprivate.com</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>0</v>
       </c>
@@ -1930,7 +1947,7 @@
         <v>www.instaprivateprofileviewer.com</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>0</v>
       </c>
@@ -1945,7 +1962,7 @@
         <v>www.instasaved.net</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>0</v>
       </c>
@@ -1960,7 +1977,7 @@
         <v>www.instasaver.app</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>0</v>
       </c>
@@ -1975,7 +1992,7 @@
         <v>www.insta-stories.com</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>0</v>
       </c>
@@ -1990,7 +2007,7 @@
         <v>www.instastories.net</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>0</v>
       </c>
@@ -2005,7 +2022,7 @@
         <v>www.insta-stories.online</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>0</v>
       </c>
@@ -2020,7 +2037,7 @@
         <v>www.instastories.watch</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>0</v>
       </c>
@@ -2035,7 +2052,7 @@
         <v>www.insta-stories-viewer.com</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>0</v>
       </c>
@@ -2050,7 +2067,7 @@
         <v>www.instastory.net</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>0</v>
       </c>
@@ -2065,7 +2082,7 @@
         <v>www.instastoryviewer.com</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>0</v>
       </c>
@@ -2080,7 +2097,7 @@
         <v>www.instaviewer.ga</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>0</v>
       </c>
@@ -2095,7 +2112,7 @@
         <v>www.instaviewer.live</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>0</v>
       </c>
@@ -2110,7 +2127,7 @@
         <v>www.instaviewerapp.weebly.com</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>0</v>
       </c>
@@ -2125,7 +2142,7 @@
         <v>www.instaviewers.net</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>0</v>
       </c>
@@ -2140,7 +2157,7 @@
         <v>www.instaviews.net</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>0</v>
       </c>
@@ -2155,7 +2172,7 @@
         <v>www.instaxyz.com</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>0</v>
       </c>
@@ -2170,7 +2187,7 @@
         <v>www.insuiter.com</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>0</v>
       </c>
@@ -2185,7 +2202,7 @@
         <v>www.i-private-profile-viewer.com</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>0</v>
       </c>
@@ -2200,7 +2217,7 @@
         <v>www.istaprivate.com</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>0</v>
       </c>
@@ -2215,7 +2232,7 @@
         <v>www.likecreeper.com</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>0</v>
       </c>
@@ -2230,7 +2247,7 @@
         <v>www.mystalk.net</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>0</v>
       </c>
@@ -2245,7 +2262,7 @@
         <v>www.mythreadreader.com</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>0</v>
       </c>
@@ -2260,7 +2277,7 @@
         <v>www.ninjalitics.com</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>0</v>
       </c>
@@ -2275,7 +2292,7 @@
         <v>www.omnicity.com</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>0</v>
       </c>
@@ -2290,7 +2307,7 @@
         <v>www.peekinspo.com</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>0</v>
       </c>
@@ -2305,7 +2322,7 @@
         <v>www.picaki.com</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>0</v>
       </c>
@@ -2320,7 +2337,7 @@
         <v>www.picosico.org</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>0</v>
       </c>
@@ -2335,7 +2352,7 @@
         <v>www.picuki.com</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>0</v>
       </c>
@@ -2350,7 +2367,7 @@
         <v>www.picuki.net</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>0</v>
       </c>
@@ -2365,7 +2382,7 @@
         <v>www.pikviewer.com</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>0</v>
       </c>
@@ -2380,7 +2397,7 @@
         <v>www.pixwox.com</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>0</v>
       </c>
@@ -2395,7 +2412,7 @@
         <v>www.privategramview.com</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>0</v>
       </c>
@@ -2410,7 +2427,7 @@
         <v>www.privateinstaview.com</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>0</v>
       </c>
@@ -2425,7 +2442,7 @@
         <v>www.privatephotoviewer.com</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>0</v>
       </c>
@@ -2440,7 +2457,7 @@
         <v>www.profileviewer.vercel.app</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>0</v>
       </c>
@@ -2455,7 +2472,7 @@
         <v>www.save-insta.com</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>0</v>
       </c>
@@ -2470,7 +2487,7 @@
         <v>www.simpliers.com</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>0</v>
       </c>
@@ -2485,7 +2502,7 @@
         <v>www.smihub.com</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>0</v>
       </c>
@@ -2500,7 +2517,7 @@
         <v>www.snapinsta.app</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>0</v>
       </c>
@@ -2515,7 +2532,7 @@
         <v>www.sotwe.com</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>0</v>
       </c>
@@ -2530,7 +2547,7 @@
         <v>www.storiesdown.com</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>0</v>
       </c>
@@ -2545,7 +2562,7 @@
         <v>www.storiesig.app</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>0</v>
       </c>
@@ -2560,7 +2577,7 @@
         <v>www.storiesig.info</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>0</v>
       </c>
@@ -2575,7 +2592,7 @@
         <v>www.storiesig.me</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>0</v>
       </c>
@@ -2590,7 +2607,7 @@
         <v>www.storiesig.net</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>0</v>
       </c>
@@ -2605,7 +2622,7 @@
         <v>www.storieswatch.com</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>0</v>
       </c>
@@ -2620,7 +2637,7 @@
         <v>www.storistalker.com</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>0</v>
       </c>
@@ -2635,7 +2652,7 @@
         <v>www.storysaver.net</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>0</v>
       </c>
@@ -2650,7 +2667,7 @@
         <v>www.stweetly.com</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>0</v>
       </c>
@@ -2665,7 +2682,7 @@
         <v>www.t.com.sb</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>0</v>
       </c>
@@ -2680,7 +2697,7 @@
         <v>www.thepicgram.com</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>0</v>
       </c>
@@ -2695,7 +2712,7 @@
         <v>www.threadreaderapp.com</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>0</v>
       </c>
@@ -2710,7 +2727,7 @@
         <v>www.tweepsmap.com</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>0</v>
       </c>
@@ -2725,7 +2742,7 @@
         <v>www.tweepy.net</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>0</v>
       </c>
@@ -2740,7 +2757,7 @@
         <v>www.tweetbeam.com</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>0</v>
       </c>
@@ -2755,7 +2772,7 @@
         <v>www.twicopy.com</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>0</v>
       </c>
@@ -2770,7 +2787,7 @@
         <v>www.twidoom.com</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>0</v>
       </c>
@@ -2785,7 +2802,7 @@
         <v>www.twiiit.com</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>0</v>
       </c>
@@ -2800,7 +2817,7 @@
         <v>www.twimfeed.com</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>0</v>
       </c>
@@ -2815,7 +2832,7 @@
         <v>www.twimg.com</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>0</v>
       </c>
@@ -2830,7 +2847,7 @@
         <v>www.twipho.net</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>0</v>
       </c>
@@ -2845,7 +2862,7 @@
         <v>www.twipu.net</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>0</v>
       </c>
@@ -2860,7 +2877,7 @@
         <v>www.twisave.com</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>0</v>
       </c>
@@ -2875,7 +2892,7 @@
         <v>www.twitter.com</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>0</v>
       </c>
@@ -2890,7 +2907,7 @@
         <v>www.twittertt.com</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>0</v>
       </c>
@@ -2905,7 +2922,7 @@
         <v>www.twubs.com</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>0</v>
       </c>
@@ -2920,7 +2937,7 @@
         <v>www.viewerig.com</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>0</v>
       </c>
@@ -2935,7 +2952,7 @@
         <v>www.viewprivateinsta.com</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>0</v>
       </c>
@@ -2950,7 +2967,7 @@
         <v>www.visibletweets.com</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>0</v>
       </c>
@@ -2965,7 +2982,7 @@
         <v>www.watchinsta.com</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>0</v>
       </c>
@@ -2980,7 +2997,7 @@
         <v>www.webstagram.org</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>0</v>
       </c>
@@ -2995,7 +3012,7 @@
         <v>www.iganony.com</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>0</v>
       </c>
@@ -3010,7 +3027,7 @@
         <v>www.inststalk.com</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>0</v>
       </c>
@@ -3041,22 +3058,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA59CB1C-FDC9-4B42-B2B3-9AF6BDB5B633}">
-  <dimension ref="A1:G91"/>
+  <dimension ref="A1:G95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" customWidth="1"/>
-    <col min="7" max="7" width="23.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" customWidth="1"/>
+    <col min="7" max="7" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>178</v>
       </c>
@@ -3068,7 +3085,7 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -3090,7 +3107,7 @@
         <v>www.nitter.at</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -3104,15 +3121,15 @@
         <v>67</v>
       </c>
       <c r="F4" t="str">
-        <f t="shared" ref="F4:F13" si="0">D4</f>
+        <f t="shared" ref="F4:F9" si="0">D4</f>
         <v>0.0.0.0</v>
       </c>
       <c r="G4" t="str">
-        <f t="shared" ref="G4:G13" si="1">_xlfn.CONCAT("www.",E4)</f>
+        <f t="shared" ref="G4:G14" si="1">_xlfn.CONCAT("www.",E4)</f>
         <v>www.nitter.ca</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -3134,7 +3151,7 @@
         <v>www.nitter.cz</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -3156,7 +3173,7 @@
         <v>www.nitter.hu</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -3178,7 +3195,7 @@
         <v>www.nitter.ir</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -3200,7 +3217,7 @@
         <v>www.nitter.it</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -3222,7 +3239,7 @@
         <v>www.nitter.net</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -3244,7 +3261,7 @@
         <v>www.nitter.nl</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -3255,18 +3272,18 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="F11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F11:F14" si="2">D11</f>
         <v>0.0.0.0</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" si="1"/>
-        <v>www.nitter.pw</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>www.nitter.pufe.org</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -3276,19 +3293,19 @@
       <c r="D12" t="s">
         <v>0</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>103</v>
+      <c r="E12" t="s">
+        <v>220</v>
       </c>
       <c r="F12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.0.0.0</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" si="1"/>
-        <v>www.notabird.site</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>www.nitter.pw</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -3299,26 +3316,40 @@
         <v>0</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>160</v>
+        <v>103</v>
       </c>
       <c r="F13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.0.0.0</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" si="1"/>
-        <v>www.unofficialbird.com</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>www.notabird.site</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="2"/>
+        <v>0.0.0.0</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="1"/>
+        <v>www.unofficialbird.com</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -3326,7 +3357,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -3334,7 +3365,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -3342,601 +3373,633 @@
         <v>229</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="1" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="1" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="1" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="1" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="1" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="1" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" s="1" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="1" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" s="1" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32" s="1" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" s="1" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34" s="1" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" s="1" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36" s="1" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" s="1" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B40" s="1" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B43" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B44" s="1" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B45" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B46" s="1" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" s="1" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B48" s="1" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B49" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B50" s="1" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" s="1" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B52" s="1" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B53" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B54" s="1" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B55" s="1" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B56" s="1" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B57" s="1" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B58" s="1" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B59" s="1" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B60" s="1" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B61" s="1" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B62" s="1" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B63" s="1" t="s">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B64" s="1" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B65" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>0</v>
-      </c>
-      <c r="B66" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B67" s="1" t="s">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B68" s="1" t="s">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B69" s="1" t="s">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B70" t="s">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B71" s="1" t="s">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B72" s="1" t="s">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B73" t="s">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B74" s="1" t="s">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B75" s="1" t="s">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B76" s="1" t="s">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B77" s="1" t="s">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B78" s="1" t="s">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B79" s="1" t="s">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B80" s="1" t="s">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B81" s="1" t="s">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B82" s="1" t="s">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B83" s="1" t="s">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B84" s="1" t="s">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>0</v>
-      </c>
-      <c r="B85" s="1" t="s">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>0</v>
-      </c>
-      <c r="B86" s="1" t="s">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B90" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B87" s="1" t="s">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B88" s="1" t="s">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>0</v>
-      </c>
-      <c r="B89" s="1" t="s">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B90" s="1" t="s">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B91" s="1" t="s">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>168</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:B91">
-    <sortCondition ref="B91"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E3:E14">
+    <sortCondition ref="E3:E14"/>
   </sortState>
   <mergeCells count="2">
     <mergeCell ref="A1:B1"/>

--- a/Sources/Commons List.xlsx
+++ b/Sources/Commons List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOHABANE\Documents\Projects\Personal-Hosts\Sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C071DCF-D427-4D6A-82AE-D1788367A778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D4F1EF7-4C57-44FF-B343-F15FE274EACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AC752DA5-279B-4E7D-9469-CEF11FD242ED}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{AC752DA5-279B-4E7D-9469-CEF11FD242ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Common" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="239">
   <si>
     <t>0.0.0.0</t>
   </si>
@@ -749,6 +749,9 @@
   </si>
   <si>
     <t>nitter.selfhostable.net</t>
+  </si>
+  <si>
+    <t>bluebird.codeine.world</t>
   </si>
 </sst>
 </file>
@@ -1143,7 +1146,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECE8835C-5E4A-4A67-BE0B-662B45AD2111}">
   <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -3058,10 +3061,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA59CB1C-FDC9-4B42-B2B3-9AF6BDB5B633}">
-  <dimension ref="A1:G95"/>
+  <dimension ref="A1:G96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3997,6 +4000,14 @@
         <v>168</v>
       </c>
     </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B96" t="s">
+        <v>238</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E3:E14">
     <sortCondition ref="E3:E14"/>

--- a/Sources/Commons List.xlsx
+++ b/Sources/Commons List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOHABANE\Documents\Projects\Personal-Hosts\Sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D4F1EF7-4C57-44FF-B343-F15FE274EACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD658E1-704F-4743-A4F3-F1DC24BED9D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{AC752DA5-279B-4E7D-9469-CEF11FD242ED}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AC752DA5-279B-4E7D-9469-CEF11FD242ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Common" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="243">
   <si>
     <t>0.0.0.0</t>
   </si>
@@ -752,6 +752,18 @@
   </si>
   <si>
     <t>bluebird.codeine.world</t>
+  </si>
+  <si>
+    <t>nitter.kling.gg</t>
+  </si>
+  <si>
+    <t>nitter.dark.fail</t>
+  </si>
+  <si>
+    <t>nitter.eu.org</t>
+  </si>
+  <si>
+    <t>mollygram.com</t>
   </si>
 </sst>
 </file>
@@ -1144,10 +1156,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECE8835C-5E4A-4A67-BE0B-662B45AD2111}">
-  <dimension ref="A1:G125"/>
+  <dimension ref="A1:G126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="G124" sqref="G124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1550,14 +1562,14 @@
         <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>223</v>
       </c>
       <c r="C26" t="s">
         <v>0</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="0"/>
-        <v>www.iglookup.com</v>
+        <v>www.iganony.com</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1565,14 +1577,14 @@
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
         <v>0</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" si="0"/>
-        <v>www.igpanda.com</v>
+        <v>www.iglookup.com</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1580,14 +1592,14 @@
         <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>195</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
         <v>0</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" si="0"/>
-        <v>www.igrab.online</v>
+        <v>www.igpanda.com</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1595,14 +1607,14 @@
         <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C29" t="s">
         <v>0</v>
       </c>
       <c r="D29" t="str">
         <f t="shared" si="0"/>
-        <v>www.igram.io</v>
+        <v>www.igrab.online</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1610,14 +1622,14 @@
         <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>200</v>
       </c>
       <c r="C30" t="s">
         <v>0</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" si="0"/>
-        <v>www.igstories.app</v>
+        <v>www.igram.io</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1625,14 +1637,14 @@
         <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C31" t="s">
         <v>0</v>
       </c>
       <c r="D31" t="str">
         <f t="shared" si="0"/>
-        <v>www.ig-stories-viewer.net</v>
+        <v>www.igstories.app</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1640,14 +1652,14 @@
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C32" t="s">
         <v>0</v>
       </c>
       <c r="D32" t="str">
         <f t="shared" si="0"/>
-        <v>www.imagerocket.com</v>
+        <v>www.ig-stories-viewer.net</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1655,14 +1667,14 @@
         <v>0</v>
       </c>
       <c r="B33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C33" t="s">
         <v>0</v>
       </c>
       <c r="D33" t="str">
         <f t="shared" si="0"/>
-        <v>www.imagerocket.net</v>
+        <v>www.imagerocket.com</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1670,14 +1682,14 @@
         <v>0</v>
       </c>
       <c r="B34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C34" t="s">
         <v>0</v>
       </c>
       <c r="D34" t="str">
         <f t="shared" si="0"/>
-        <v>www.imginn.com</v>
+        <v>www.imagerocket.net</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1685,14 +1697,14 @@
         <v>0</v>
       </c>
       <c r="B35" t="s">
-        <v>180</v>
+        <v>31</v>
       </c>
       <c r="C35" t="s">
         <v>0</v>
       </c>
       <c r="D35" t="str">
         <f t="shared" ref="D35:D66" si="1">_xlfn.CONCAT("www.",B35)</f>
-        <v>www.imginn.org</v>
+        <v>www.imginn.com</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1700,14 +1712,14 @@
         <v>0</v>
       </c>
       <c r="B36" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="C36" t="s">
         <v>0</v>
       </c>
       <c r="D36" t="str">
         <f t="shared" si="1"/>
-        <v>www.inflact.com</v>
+        <v>www.imginn.org</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1715,14 +1727,14 @@
         <v>0</v>
       </c>
       <c r="B37" t="s">
-        <v>32</v>
+        <v>197</v>
       </c>
       <c r="C37" t="s">
         <v>0</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" si="1"/>
-        <v>www.ingramer.com</v>
+        <v>www.inflact.com</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1730,14 +1742,14 @@
         <v>0</v>
       </c>
       <c r="B38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C38" t="s">
         <v>0</v>
       </c>
       <c r="D38" t="str">
         <f t="shared" si="1"/>
-        <v>www.instabig.net</v>
+        <v>www.ingramer.com</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -1745,14 +1757,14 @@
         <v>0</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C39" t="s">
         <v>0</v>
       </c>
       <c r="D39" t="str">
         <f t="shared" si="1"/>
-        <v>www.instadp.com</v>
+        <v>www.instabig.net</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1760,14 +1772,14 @@
         <v>0</v>
       </c>
       <c r="B40" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C40" t="s">
         <v>0</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" si="1"/>
-        <v>www.instadp.net</v>
+        <v>www.instadp.com</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1775,14 +1787,14 @@
         <v>0</v>
       </c>
       <c r="B41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C41" t="s">
         <v>0</v>
       </c>
       <c r="D41" t="str">
         <f t="shared" si="1"/>
-        <v>www.instadp.org</v>
+        <v>www.instadp.net</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1790,14 +1802,14 @@
         <v>0</v>
       </c>
       <c r="B42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C42" t="s">
         <v>0</v>
       </c>
       <c r="D42" t="str">
         <f t="shared" si="1"/>
-        <v>www.instafollowers.co</v>
+        <v>www.instadp.org</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1805,14 +1817,14 @@
         <v>0</v>
       </c>
       <c r="B43" t="s">
-        <v>193</v>
+        <v>37</v>
       </c>
       <c r="C43" t="s">
         <v>0</v>
       </c>
       <c r="D43" t="str">
         <f t="shared" si="1"/>
-        <v>www.instafreeview.com</v>
+        <v>www.instafollowers.co</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1820,14 +1832,14 @@
         <v>0</v>
       </c>
       <c r="B44" t="s">
-        <v>38</v>
+        <v>193</v>
       </c>
       <c r="C44" t="s">
         <v>0</v>
       </c>
       <c r="D44" t="str">
         <f t="shared" si="1"/>
-        <v>www.instagram.com</v>
+        <v>www.instafreeview.com</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -1835,14 +1847,14 @@
         <v>0</v>
       </c>
       <c r="B45" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C45" t="s">
         <v>0</v>
       </c>
       <c r="D45" t="str">
         <f t="shared" si="1"/>
-        <v>www.instajust.com</v>
+        <v>www.instagram.com</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1850,14 +1862,14 @@
         <v>0</v>
       </c>
       <c r="B46" t="s">
-        <v>183</v>
+        <v>39</v>
       </c>
       <c r="C46" t="s">
         <v>0</v>
       </c>
       <c r="D46" t="str">
         <f t="shared" si="1"/>
-        <v>www.instalker.org</v>
+        <v>www.instajust.com</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -1865,14 +1877,14 @@
         <v>0</v>
       </c>
       <c r="B47" t="s">
-        <v>40</v>
+        <v>183</v>
       </c>
       <c r="C47" t="s">
         <v>0</v>
       </c>
       <c r="D47" t="str">
         <f t="shared" si="1"/>
-        <v>www.instalkr.com</v>
+        <v>www.instalker.org</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -1880,14 +1892,14 @@
         <v>0</v>
       </c>
       <c r="B48" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C48" t="s">
         <v>0</v>
       </c>
       <c r="D48" t="str">
         <f t="shared" si="1"/>
-        <v>www.instalooker.com</v>
+        <v>www.instalkr.com</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -1895,14 +1907,14 @@
         <v>0</v>
       </c>
       <c r="B49" t="s">
-        <v>188</v>
+        <v>41</v>
       </c>
       <c r="C49" t="s">
         <v>0</v>
       </c>
       <c r="D49" t="str">
         <f t="shared" si="1"/>
-        <v>www.instanavigation.com</v>
+        <v>www.instalooker.com</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -1910,14 +1922,14 @@
         <v>0</v>
       </c>
       <c r="B50" t="s">
-        <v>42</v>
+        <v>188</v>
       </c>
       <c r="C50" t="s">
         <v>0</v>
       </c>
       <c r="D50" t="str">
         <f t="shared" si="1"/>
-        <v>www.instaonline.org</v>
+        <v>www.instanavigation.com</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -1925,14 +1937,14 @@
         <v>0</v>
       </c>
       <c r="B51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C51" t="s">
         <v>0</v>
       </c>
       <c r="D51" t="str">
         <f t="shared" si="1"/>
-        <v>www.instaprivate.com</v>
+        <v>www.instaonline.org</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -1940,14 +1952,14 @@
         <v>0</v>
       </c>
       <c r="B52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C52" t="s">
         <v>0</v>
       </c>
       <c r="D52" t="str">
         <f t="shared" si="1"/>
-        <v>www.instaprivateprofileviewer.com</v>
+        <v>www.instaprivate.com</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -1955,14 +1967,14 @@
         <v>0</v>
       </c>
       <c r="B53" t="s">
-        <v>192</v>
+        <v>44</v>
       </c>
       <c r="C53" t="s">
         <v>0</v>
       </c>
       <c r="D53" t="str">
         <f t="shared" si="1"/>
-        <v>www.instasaved.net</v>
+        <v>www.instaprivateprofileviewer.com</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -1970,14 +1982,14 @@
         <v>0</v>
       </c>
       <c r="B54" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="C54" t="s">
         <v>0</v>
       </c>
       <c r="D54" t="str">
         <f t="shared" si="1"/>
-        <v>www.instasaver.app</v>
+        <v>www.instasaved.net</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -1985,14 +1997,14 @@
         <v>0</v>
       </c>
       <c r="B55" t="s">
-        <v>45</v>
+        <v>201</v>
       </c>
       <c r="C55" t="s">
         <v>0</v>
       </c>
       <c r="D55" t="str">
         <f t="shared" si="1"/>
-        <v>www.insta-stories.com</v>
+        <v>www.instasaver.app</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -2000,14 +2012,14 @@
         <v>0</v>
       </c>
       <c r="B56" t="s">
-        <v>199</v>
+        <v>45</v>
       </c>
       <c r="C56" t="s">
         <v>0</v>
       </c>
       <c r="D56" t="str">
         <f t="shared" si="1"/>
-        <v>www.instastories.net</v>
+        <v>www.insta-stories.com</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -2015,14 +2027,14 @@
         <v>0</v>
       </c>
       <c r="B57" t="s">
-        <v>46</v>
+        <v>199</v>
       </c>
       <c r="C57" t="s">
         <v>0</v>
       </c>
       <c r="D57" t="str">
         <f t="shared" si="1"/>
-        <v>www.insta-stories.online</v>
+        <v>www.instastories.net</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -2030,14 +2042,14 @@
         <v>0</v>
       </c>
       <c r="B58" t="s">
-        <v>187</v>
+        <v>46</v>
       </c>
       <c r="C58" t="s">
         <v>0</v>
       </c>
       <c r="D58" t="str">
         <f t="shared" si="1"/>
-        <v>www.instastories.watch</v>
+        <v>www.insta-stories.online</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -2045,14 +2057,14 @@
         <v>0</v>
       </c>
       <c r="B59" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C59" t="s">
         <v>0</v>
       </c>
       <c r="D59" t="str">
         <f t="shared" si="1"/>
-        <v>www.insta-stories-viewer.com</v>
+        <v>www.instastories.watch</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -2060,14 +2072,14 @@
         <v>0</v>
       </c>
       <c r="B60" t="s">
-        <v>47</v>
+        <v>189</v>
       </c>
       <c r="C60" t="s">
         <v>0</v>
       </c>
       <c r="D60" t="str">
         <f t="shared" si="1"/>
-        <v>www.instastory.net</v>
+        <v>www.insta-stories-viewer.com</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -2075,14 +2087,14 @@
         <v>0</v>
       </c>
       <c r="B61" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C61" t="s">
         <v>0</v>
       </c>
       <c r="D61" t="str">
         <f t="shared" si="1"/>
-        <v>www.instastoryviewer.com</v>
+        <v>www.instastory.net</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -2090,14 +2102,14 @@
         <v>0</v>
       </c>
       <c r="B62" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C62" t="s">
         <v>0</v>
       </c>
       <c r="D62" t="str">
         <f t="shared" si="1"/>
-        <v>www.instaviewer.ga</v>
+        <v>www.instastoryviewer.com</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -2105,14 +2117,14 @@
         <v>0</v>
       </c>
       <c r="B63" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C63" t="s">
         <v>0</v>
       </c>
       <c r="D63" t="str">
         <f t="shared" si="1"/>
-        <v>www.instaviewer.live</v>
+        <v>www.instaviewer.ga</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -2120,14 +2132,14 @@
         <v>0</v>
       </c>
       <c r="B64" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C64" t="s">
         <v>0</v>
       </c>
       <c r="D64" t="str">
         <f t="shared" si="1"/>
-        <v>www.instaviewerapp.weebly.com</v>
+        <v>www.instaviewer.live</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -2135,14 +2147,14 @@
         <v>0</v>
       </c>
       <c r="B65" t="s">
-        <v>206</v>
+        <v>51</v>
       </c>
       <c r="C65" t="s">
         <v>0</v>
       </c>
       <c r="D65" t="str">
         <f t="shared" si="1"/>
-        <v>www.instaviewers.net</v>
+        <v>www.instaviewerapp.weebly.com</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -2150,14 +2162,14 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>52</v>
+        <v>206</v>
       </c>
       <c r="C66" t="s">
         <v>0</v>
       </c>
       <c r="D66" t="str">
         <f t="shared" si="1"/>
-        <v>www.instaviews.net</v>
+        <v>www.instaviewers.net</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -2165,14 +2177,14 @@
         <v>0</v>
       </c>
       <c r="B67" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C67" t="s">
         <v>0</v>
       </c>
       <c r="D67" t="str">
         <f t="shared" ref="D67:D98" si="2">_xlfn.CONCAT("www.",B67)</f>
-        <v>www.instaxyz.com</v>
+        <v>www.instaviews.net</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -2180,14 +2192,14 @@
         <v>0</v>
       </c>
       <c r="B68" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C68" t="s">
         <v>0</v>
       </c>
       <c r="D68" t="str">
         <f t="shared" si="2"/>
-        <v>www.insuiter.com</v>
+        <v>www.instaxyz.com</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -2195,14 +2207,14 @@
         <v>0</v>
       </c>
       <c r="B69" t="s">
-        <v>55</v>
+        <v>224</v>
       </c>
       <c r="C69" t="s">
         <v>0</v>
       </c>
       <c r="D69" t="str">
         <f t="shared" si="2"/>
-        <v>www.i-private-profile-viewer.com</v>
+        <v>www.inststalk.com</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -2210,14 +2222,14 @@
         <v>0</v>
       </c>
       <c r="B70" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C70" t="s">
         <v>0</v>
       </c>
       <c r="D70" t="str">
         <f t="shared" si="2"/>
-        <v>www.istaprivate.com</v>
+        <v>www.insuiter.com</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -2225,14 +2237,14 @@
         <v>0</v>
       </c>
       <c r="B71" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C71" t="s">
         <v>0</v>
       </c>
       <c r="D71" t="str">
         <f t="shared" si="2"/>
-        <v>www.likecreeper.com</v>
+        <v>www.i-private-profile-viewer.com</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -2240,14 +2252,14 @@
         <v>0</v>
       </c>
       <c r="B72" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C72" t="s">
         <v>0</v>
       </c>
       <c r="D72" t="str">
         <f t="shared" si="2"/>
-        <v>www.mystalk.net</v>
+        <v>www.istaprivate.com</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -2255,14 +2267,14 @@
         <v>0</v>
       </c>
       <c r="B73" t="s">
-        <v>152</v>
+        <v>57</v>
       </c>
       <c r="C73" t="s">
         <v>0</v>
       </c>
       <c r="D73" t="str">
         <f t="shared" si="2"/>
-        <v>www.mythreadreader.com</v>
+        <v>www.likecreeper.com</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -2270,14 +2282,14 @@
         <v>0</v>
       </c>
       <c r="B74" t="s">
-        <v>62</v>
+        <v>242</v>
       </c>
       <c r="C74" t="s">
         <v>0</v>
       </c>
       <c r="D74" t="str">
         <f t="shared" si="2"/>
-        <v>www.ninjalitics.com</v>
+        <v>www.mollygram.com</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -2285,14 +2297,14 @@
         <v>0</v>
       </c>
       <c r="B75" t="s">
-        <v>106</v>
+        <v>58</v>
       </c>
       <c r="C75" t="s">
         <v>0</v>
       </c>
       <c r="D75" t="str">
         <f t="shared" si="2"/>
-        <v>www.omnicity.com</v>
+        <v>www.mystalk.net</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -2300,14 +2312,14 @@
         <v>0</v>
       </c>
       <c r="B76" t="s">
-        <v>107</v>
+        <v>152</v>
       </c>
       <c r="C76" t="s">
         <v>0</v>
       </c>
       <c r="D76" t="str">
         <f t="shared" si="2"/>
-        <v>www.peekinspo.com</v>
+        <v>www.mythreadreader.com</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -2315,14 +2327,14 @@
         <v>0</v>
       </c>
       <c r="B77" t="s">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="C77" t="s">
         <v>0</v>
       </c>
       <c r="D77" t="str">
         <f t="shared" si="2"/>
-        <v>www.picaki.com</v>
+        <v>www.ninjalitics.com</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -2330,14 +2342,14 @@
         <v>0</v>
       </c>
       <c r="B78" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C78" t="s">
         <v>0</v>
       </c>
       <c r="D78" t="str">
         <f t="shared" si="2"/>
-        <v>www.picosico.org</v>
+        <v>www.omnicity.com</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -2345,14 +2357,14 @@
         <v>0</v>
       </c>
       <c r="B79" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C79" t="s">
         <v>0</v>
       </c>
       <c r="D79" t="str">
         <f t="shared" si="2"/>
-        <v>www.picuki.com</v>
+        <v>www.peekinspo.com</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -2360,14 +2372,14 @@
         <v>0</v>
       </c>
       <c r="B80" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C80" t="s">
         <v>0</v>
       </c>
       <c r="D80" t="str">
         <f t="shared" si="2"/>
-        <v>www.picuki.net</v>
+        <v>www.picaki.com</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -2375,14 +2387,14 @@
         <v>0</v>
       </c>
       <c r="B81" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C81" t="s">
         <v>0</v>
       </c>
       <c r="D81" t="str">
         <f t="shared" si="2"/>
-        <v>www.pikviewer.com</v>
+        <v>www.picosico.org</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -2390,14 +2402,14 @@
         <v>0</v>
       </c>
       <c r="B82" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C82" t="s">
         <v>0</v>
       </c>
       <c r="D82" t="str">
         <f t="shared" si="2"/>
-        <v>www.pixwox.com</v>
+        <v>www.picuki.com</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -2405,14 +2417,14 @@
         <v>0</v>
       </c>
       <c r="B83" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C83" t="s">
         <v>0</v>
       </c>
       <c r="D83" t="str">
         <f t="shared" si="2"/>
-        <v>www.privategramview.com</v>
+        <v>www.picuki.net</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -2420,14 +2432,14 @@
         <v>0</v>
       </c>
       <c r="B84" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C84" t="s">
         <v>0</v>
       </c>
       <c r="D84" t="str">
         <f t="shared" si="2"/>
-        <v>www.privateinstaview.com</v>
+        <v>www.pikviewer.com</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -2435,29 +2447,29 @@
         <v>0</v>
       </c>
       <c r="B85" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C85" t="s">
         <v>0</v>
       </c>
       <c r="D85" t="str">
         <f t="shared" si="2"/>
-        <v>www.privatephotoviewer.com</v>
+        <v>www.pixwox.com</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>0</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>184</v>
+      <c r="B86" t="s">
+        <v>114</v>
       </c>
       <c r="C86" t="s">
         <v>0</v>
       </c>
       <c r="D86" t="str">
         <f t="shared" si="2"/>
-        <v>www.profileviewer.vercel.app</v>
+        <v>www.privategramview.com</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -2465,14 +2477,14 @@
         <v>0</v>
       </c>
       <c r="B87" t="s">
-        <v>190</v>
+        <v>115</v>
       </c>
       <c r="C87" t="s">
         <v>0</v>
       </c>
       <c r="D87" t="str">
         <f t="shared" si="2"/>
-        <v>www.save-insta.com</v>
+        <v>www.privateinstaview.com</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -2480,29 +2492,29 @@
         <v>0</v>
       </c>
       <c r="B88" t="s">
-        <v>198</v>
+        <v>116</v>
       </c>
       <c r="C88" t="s">
         <v>0</v>
       </c>
       <c r="D88" t="str">
         <f t="shared" si="2"/>
-        <v>www.simpliers.com</v>
+        <v>www.privatephotoviewer.com</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>0</v>
       </c>
-      <c r="B89" t="s">
-        <v>117</v>
+      <c r="B89" s="2" t="s">
+        <v>184</v>
       </c>
       <c r="C89" t="s">
         <v>0</v>
       </c>
       <c r="D89" t="str">
         <f t="shared" si="2"/>
-        <v>www.smihub.com</v>
+        <v>www.profileviewer.vercel.app</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -2510,14 +2522,14 @@
         <v>0</v>
       </c>
       <c r="B90" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="C90" t="s">
         <v>0</v>
       </c>
       <c r="D90" t="str">
         <f t="shared" si="2"/>
-        <v>www.snapinsta.app</v>
+        <v>www.save-insta.com</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -2525,14 +2537,14 @@
         <v>0</v>
       </c>
       <c r="B91" t="s">
-        <v>118</v>
+        <v>198</v>
       </c>
       <c r="C91" t="s">
         <v>0</v>
       </c>
       <c r="D91" t="str">
         <f t="shared" si="2"/>
-        <v>www.sotwe.com</v>
+        <v>www.simpliers.com</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -2540,14 +2552,14 @@
         <v>0</v>
       </c>
       <c r="B92" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C92" t="s">
         <v>0</v>
       </c>
       <c r="D92" t="str">
         <f t="shared" si="2"/>
-        <v>www.storiesdown.com</v>
+        <v>www.smihub.com</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -2555,14 +2567,14 @@
         <v>0</v>
       </c>
       <c r="B93" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="C93" t="s">
         <v>0</v>
       </c>
       <c r="D93" t="str">
         <f t="shared" si="2"/>
-        <v>www.storiesig.app</v>
+        <v>www.snapinsta.app</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -2570,14 +2582,14 @@
         <v>0</v>
       </c>
       <c r="B94" t="s">
-        <v>191</v>
+        <v>118</v>
       </c>
       <c r="C94" t="s">
         <v>0</v>
       </c>
       <c r="D94" t="str">
         <f t="shared" si="2"/>
-        <v>www.storiesig.info</v>
+        <v>www.sotwe.com</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -2585,14 +2597,14 @@
         <v>0</v>
       </c>
       <c r="B95" t="s">
-        <v>182</v>
+        <v>119</v>
       </c>
       <c r="C95" t="s">
         <v>0</v>
       </c>
       <c r="D95" t="str">
         <f t="shared" si="2"/>
-        <v>www.storiesig.me</v>
+        <v>www.storiesdown.com</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -2600,14 +2612,14 @@
         <v>0</v>
       </c>
       <c r="B96" t="s">
-        <v>120</v>
+        <v>181</v>
       </c>
       <c r="C96" t="s">
         <v>0</v>
       </c>
       <c r="D96" t="str">
         <f t="shared" si="2"/>
-        <v>www.storiesig.net</v>
+        <v>www.storiesig.app</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
@@ -2615,14 +2627,14 @@
         <v>0</v>
       </c>
       <c r="B97" t="s">
-        <v>121</v>
+        <v>191</v>
       </c>
       <c r="C97" t="s">
         <v>0</v>
       </c>
       <c r="D97" t="str">
         <f t="shared" si="2"/>
-        <v>www.storieswatch.com</v>
+        <v>www.storiesig.info</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -2630,14 +2642,14 @@
         <v>0</v>
       </c>
       <c r="B98" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="C98" t="s">
         <v>0</v>
       </c>
       <c r="D98" t="str">
         <f t="shared" si="2"/>
-        <v>www.storistalker.com</v>
+        <v>www.storiesig.me</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -2645,14 +2657,14 @@
         <v>0</v>
       </c>
       <c r="B99" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C99" t="s">
         <v>0</v>
       </c>
       <c r="D99" t="str">
-        <f t="shared" ref="D99:D125" si="3">_xlfn.CONCAT("www.",B99)</f>
-        <v>www.storysaver.net</v>
+        <f t="shared" ref="D99:D126" si="3">_xlfn.CONCAT("www.",B99)</f>
+        <v>www.storiesig.net</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -2660,14 +2672,14 @@
         <v>0</v>
       </c>
       <c r="B100" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C100" t="s">
         <v>0</v>
       </c>
       <c r="D100" t="str">
         <f t="shared" si="3"/>
-        <v>www.stweetly.com</v>
+        <v>www.storieswatch.com</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -2675,14 +2687,14 @@
         <v>0</v>
       </c>
       <c r="B101" t="s">
-        <v>124</v>
+        <v>202</v>
       </c>
       <c r="C101" t="s">
         <v>0</v>
       </c>
       <c r="D101" t="str">
         <f t="shared" si="3"/>
-        <v>www.t.com.sb</v>
+        <v>www.storistalker.com</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
@@ -2690,14 +2702,14 @@
         <v>0</v>
       </c>
       <c r="B102" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C102" t="s">
         <v>0</v>
       </c>
       <c r="D102" t="str">
         <f t="shared" si="3"/>
-        <v>www.thepicgram.com</v>
+        <v>www.storysaver.net</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
@@ -2705,14 +2717,14 @@
         <v>0</v>
       </c>
       <c r="B103" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="C103" t="s">
         <v>0</v>
       </c>
       <c r="D103" t="str">
         <f t="shared" si="3"/>
-        <v>www.threadreaderapp.com</v>
+        <v>www.stweetly.com</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
@@ -2720,14 +2732,14 @@
         <v>0</v>
       </c>
       <c r="B104" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C104" t="s">
         <v>0</v>
       </c>
       <c r="D104" t="str">
         <f t="shared" si="3"/>
-        <v>www.tweepsmap.com</v>
+        <v>www.t.com.sb</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
@@ -2735,14 +2747,14 @@
         <v>0</v>
       </c>
       <c r="B105" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C105" t="s">
         <v>0</v>
       </c>
       <c r="D105" t="str">
         <f t="shared" si="3"/>
-        <v>www.tweepy.net</v>
+        <v>www.thepicgram.com</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
@@ -2750,14 +2762,14 @@
         <v>0</v>
       </c>
       <c r="B106" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="C106" t="s">
         <v>0</v>
       </c>
       <c r="D106" t="str">
         <f t="shared" si="3"/>
-        <v>www.tweetbeam.com</v>
+        <v>www.threadreaderapp.com</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
@@ -2765,14 +2777,14 @@
         <v>0</v>
       </c>
       <c r="B107" t="s">
-        <v>204</v>
+        <v>127</v>
       </c>
       <c r="C107" t="s">
         <v>0</v>
       </c>
       <c r="D107" t="str">
         <f t="shared" si="3"/>
-        <v>www.twicopy.com</v>
+        <v>www.tweepsmap.com</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
@@ -2780,14 +2792,14 @@
         <v>0</v>
       </c>
       <c r="B108" t="s">
-        <v>185</v>
+        <v>128</v>
       </c>
       <c r="C108" t="s">
         <v>0</v>
       </c>
       <c r="D108" t="str">
         <f t="shared" si="3"/>
-        <v>www.twidoom.com</v>
+        <v>www.tweepy.net</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
@@ -2795,14 +2807,14 @@
         <v>0</v>
       </c>
       <c r="B109" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C109" t="s">
         <v>0</v>
       </c>
       <c r="D109" t="str">
         <f t="shared" si="3"/>
-        <v>www.twiiit.com</v>
+        <v>www.tweetbeam.com</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
@@ -2810,14 +2822,14 @@
         <v>0</v>
       </c>
       <c r="B110" t="s">
-        <v>132</v>
+        <v>204</v>
       </c>
       <c r="C110" t="s">
         <v>0</v>
       </c>
       <c r="D110" t="str">
         <f t="shared" si="3"/>
-        <v>www.twimfeed.com</v>
+        <v>www.twicopy.com</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
@@ -2825,14 +2837,14 @@
         <v>0</v>
       </c>
       <c r="B111" t="s">
-        <v>133</v>
+        <v>185</v>
       </c>
       <c r="C111" t="s">
         <v>0</v>
       </c>
       <c r="D111" t="str">
         <f t="shared" si="3"/>
-        <v>www.twimg.com</v>
+        <v>www.twidoom.com</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
@@ -2840,14 +2852,14 @@
         <v>0</v>
       </c>
       <c r="B112" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C112" t="s">
         <v>0</v>
       </c>
       <c r="D112" t="str">
         <f t="shared" si="3"/>
-        <v>www.twipho.net</v>
+        <v>www.twiiit.com</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
@@ -2855,14 +2867,14 @@
         <v>0</v>
       </c>
       <c r="B113" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C113" t="s">
         <v>0</v>
       </c>
       <c r="D113" t="str">
         <f t="shared" si="3"/>
-        <v>www.twipu.net</v>
+        <v>www.twimfeed.com</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
@@ -2870,14 +2882,14 @@
         <v>0</v>
       </c>
       <c r="B114" t="s">
-        <v>205</v>
+        <v>133</v>
       </c>
       <c r="C114" t="s">
         <v>0</v>
       </c>
       <c r="D114" t="str">
         <f t="shared" si="3"/>
-        <v>www.twisave.com</v>
+        <v>www.twimg.com</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
@@ -2885,14 +2897,14 @@
         <v>0</v>
       </c>
       <c r="B115" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C115" t="s">
         <v>0</v>
       </c>
       <c r="D115" t="str">
         <f t="shared" si="3"/>
-        <v>www.twitter.com</v>
+        <v>www.twipho.net</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
@@ -2900,14 +2912,14 @@
         <v>0</v>
       </c>
       <c r="B116" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C116" t="s">
         <v>0</v>
       </c>
       <c r="D116" t="str">
         <f t="shared" si="3"/>
-        <v>www.twittertt.com</v>
+        <v>www.twipu.net</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
@@ -2915,14 +2927,14 @@
         <v>0</v>
       </c>
       <c r="B117" t="s">
-        <v>144</v>
+        <v>205</v>
       </c>
       <c r="C117" t="s">
         <v>0</v>
       </c>
       <c r="D117" t="str">
         <f t="shared" si="3"/>
-        <v>www.twubs.com</v>
+        <v>www.twisave.com</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
@@ -2930,14 +2942,14 @@
         <v>0</v>
       </c>
       <c r="B118" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C118" t="s">
         <v>0</v>
       </c>
       <c r="D118" t="str">
         <f t="shared" si="3"/>
-        <v>www.viewerig.com</v>
+        <v>www.twitter.com</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
@@ -2945,14 +2957,14 @@
         <v>0</v>
       </c>
       <c r="B119" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C119" t="s">
         <v>0</v>
       </c>
       <c r="D119" t="str">
         <f t="shared" si="3"/>
-        <v>www.viewprivateinsta.com</v>
+        <v>www.twittertt.com</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
@@ -2960,14 +2972,14 @@
         <v>0</v>
       </c>
       <c r="B120" t="s">
-        <v>147</v>
+        <v>225</v>
       </c>
       <c r="C120" t="s">
         <v>0</v>
       </c>
       <c r="D120" t="str">
         <f t="shared" si="3"/>
-        <v>www.visibletweets.com</v>
+        <v>www.twstalker.com</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
@@ -2975,14 +2987,14 @@
         <v>0</v>
       </c>
       <c r="B121" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C121" t="s">
         <v>0</v>
       </c>
       <c r="D121" t="str">
         <f t="shared" si="3"/>
-        <v>www.watchinsta.com</v>
+        <v>www.twubs.com</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
@@ -2990,14 +3002,14 @@
         <v>0</v>
       </c>
       <c r="B122" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C122" t="s">
         <v>0</v>
       </c>
       <c r="D122" t="str">
         <f t="shared" si="3"/>
-        <v>www.webstagram.org</v>
+        <v>www.viewerig.com</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
@@ -3005,14 +3017,14 @@
         <v>0</v>
       </c>
       <c r="B123" t="s">
-        <v>223</v>
+        <v>146</v>
       </c>
       <c r="C123" t="s">
         <v>0</v>
       </c>
       <c r="D123" t="str">
         <f t="shared" si="3"/>
-        <v>www.iganony.com</v>
+        <v>www.viewprivateinsta.com</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
@@ -3020,14 +3032,14 @@
         <v>0</v>
       </c>
       <c r="B124" t="s">
-        <v>224</v>
+        <v>147</v>
       </c>
       <c r="C124" t="s">
         <v>0</v>
       </c>
       <c r="D124" t="str">
         <f t="shared" si="3"/>
-        <v>www.inststalk.com</v>
+        <v>www.visibletweets.com</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
@@ -3035,19 +3047,34 @@
         <v>0</v>
       </c>
       <c r="B125" t="s">
-        <v>225</v>
+        <v>148</v>
       </c>
       <c r="C125" t="s">
         <v>0</v>
       </c>
       <c r="D125" t="str">
         <f t="shared" si="3"/>
-        <v>www.twstalker.com</v>
+        <v>www.watchinsta.com</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>0</v>
+      </c>
+      <c r="B126" t="s">
+        <v>150</v>
+      </c>
+      <c r="C126" t="s">
+        <v>0</v>
+      </c>
+      <c r="D126" t="str">
+        <f t="shared" si="3"/>
+        <v>www.webstagram.org</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:B122">
-    <sortCondition ref="B3:B122"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:B126">
+    <sortCondition ref="B126"/>
   </sortState>
   <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
@@ -3061,10 +3088,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA59CB1C-FDC9-4B42-B2B3-9AF6BDB5B633}">
-  <dimension ref="A1:G96"/>
+  <dimension ref="A1:G98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="B98" sqref="B98"/>
+    <sheetView topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="F94" sqref="F94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3128,7 +3155,7 @@
         <v>0.0.0.0</v>
       </c>
       <c r="G4" t="str">
-        <f t="shared" ref="G4:G14" si="1">_xlfn.CONCAT("www.",E4)</f>
+        <f t="shared" ref="G4:G15" si="1">_xlfn.CONCAT("www.",E4)</f>
         <v>www.nitter.ca</v>
       </c>
     </row>
@@ -3158,8 +3185,8 @@
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>165</v>
+      <c r="B6" t="s">
+        <v>238</v>
       </c>
       <c r="D6" t="s">
         <v>0</v>
@@ -3181,7 +3208,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>165</v>
       </c>
       <c r="D7" t="s">
         <v>0</v>
@@ -3203,7 +3230,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
         <v>0</v>
@@ -3225,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>166</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
         <v>0</v>
@@ -3247,7 +3274,7 @@
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>59</v>
+        <v>166</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>0</v>
@@ -3269,7 +3296,7 @@
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>169</v>
+        <v>59</v>
       </c>
       <c r="D11" t="s">
         <v>0</v>
@@ -3278,7 +3305,7 @@
         <v>234</v>
       </c>
       <c r="F11" t="str">
-        <f t="shared" ref="F11:F14" si="2">D11</f>
+        <f t="shared" ref="F11:F15" si="2">D11</f>
         <v>0.0.0.0</v>
       </c>
       <c r="G11" t="str">
@@ -3291,7 +3318,7 @@
         <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>61</v>
+        <v>169</v>
       </c>
       <c r="D12" t="s">
         <v>0</v>
@@ -3312,8 +3339,8 @@
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B13" t="s">
-        <v>211</v>
+      <c r="B13" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="D13" t="s">
         <v>0</v>
@@ -3334,8 +3361,8 @@
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>167</v>
+      <c r="B14" t="s">
+        <v>211</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>0</v>
@@ -3357,7 +3384,21 @@
         <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>63</v>
+        <v>167</v>
+      </c>
+      <c r="D15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>239</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="2"/>
+        <v>0.0.0.0</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="1"/>
+        <v>www.nitter.kling.gg</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -3365,15 +3406,15 @@
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B17" t="s">
-        <v>229</v>
+      <c r="B17" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -3381,15 +3422,15 @@
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>65</v>
+      <c r="B19" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -3397,71 +3438,71 @@
         <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B21" t="s">
-        <v>217</v>
+      <c r="B21" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>159</v>
+      <c r="B22" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B23" t="s">
-        <v>232</v>
+      <c r="B23" s="1" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>68</v>
+      <c r="B24" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B25" t="s">
-        <v>216</v>
+      <c r="B25" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>70</v>
+      <c r="B26" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>71</v>
+      <c r="B27" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B28" t="s">
-        <v>219</v>
+      <c r="B28" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -3469,15 +3510,15 @@
         <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>73</v>
+      <c r="B30" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -3485,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>157</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -3493,15 +3534,15 @@
         <v>0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>75</v>
+      <c r="B33" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -3509,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>76</v>
+        <v>157</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -3517,7 +3558,7 @@
         <v>0</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>164</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -3525,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>156</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -3533,23 +3574,23 @@
         <v>0</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B38" t="s">
-        <v>228</v>
+      <c r="B38" s="1" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B39" t="s">
-        <v>215</v>
+      <c r="B39" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -3557,15 +3598,15 @@
         <v>0</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>81</v>
+      <c r="B41" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -3573,23 +3614,23 @@
         <v>0</v>
       </c>
       <c r="B42" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B43" t="s">
-        <v>212</v>
+      <c r="B43" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B44" t="s">
-        <v>235</v>
+      <c r="B44" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -3597,15 +3638,15 @@
         <v>0</v>
       </c>
       <c r="B45" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>82</v>
+      <c r="B46" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -3613,15 +3654,15 @@
         <v>0</v>
       </c>
       <c r="B47" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>83</v>
+      <c r="B48" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -3629,23 +3670,23 @@
         <v>0</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>85</v>
+      <c r="B50" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B51" t="s">
-        <v>221</v>
+      <c r="B51" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -3653,7 +3694,7 @@
         <v>0</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -3661,23 +3702,23 @@
         <v>0</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>89</v>
+      <c r="B54" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B55" t="s">
-        <v>230</v>
+      <c r="B55" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -3685,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -3693,15 +3734,15 @@
         <v>0</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>92</v>
+      <c r="B58" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -3709,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -3717,7 +3758,7 @@
         <v>0</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>176</v>
+        <v>91</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -3725,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>161</v>
+        <v>92</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -3733,7 +3774,7 @@
         <v>0</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -3741,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -3749,15 +3790,15 @@
         <v>0</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B65" t="s">
-        <v>237</v>
+      <c r="B65" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -3765,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>95</v>
+        <v>172</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -3773,7 +3814,7 @@
         <v>0</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -3781,15 +3822,15 @@
         <v>0</v>
       </c>
       <c r="B68" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B69" t="s">
-        <v>210</v>
+      <c r="B69" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -3797,31 +3838,31 @@
         <v>0</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>96</v>
+        <v>170</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>171</v>
+      <c r="B71" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>97</v>
+      <c r="B72" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B73" t="s">
-        <v>226</v>
+      <c r="B73" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -3829,7 +3870,7 @@
         <v>0</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>98</v>
+        <v>171</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
@@ -3837,7 +3878,7 @@
         <v>0</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>158</v>
+        <v>97</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -3845,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="B76" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
@@ -3853,23 +3894,23 @@
         <v>0</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B78" t="s">
-        <v>233</v>
+      <c r="B78" s="1" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>0</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>100</v>
+      <c r="B79" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
@@ -3877,15 +3918,15 @@
         <v>0</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>102</v>
+      <c r="B81" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -3893,7 +3934,7 @@
         <v>0</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
@@ -3901,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>174</v>
+        <v>101</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
@@ -3909,7 +3950,7 @@
         <v>0</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
@@ -3917,7 +3958,7 @@
         <v>0</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>173</v>
+        <v>104</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
@@ -3925,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
@@ -3933,7 +3974,7 @@
         <v>0</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
@@ -3941,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>129</v>
+        <v>173</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
@@ -3949,7 +3990,7 @@
         <v>0</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
@@ -3957,7 +3998,7 @@
         <v>0</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
@@ -3965,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
@@ -3973,7 +4014,7 @@
         <v>0</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
@@ -3981,7 +4022,7 @@
         <v>0</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>163</v>
+        <v>137</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
@@ -3989,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
@@ -3997,20 +4038,36 @@
         <v>0</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>168</v>
+        <v>140</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>0</v>
       </c>
-      <c r="B96" t="s">
-        <v>238</v>
+      <c r="B96" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>0</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E3:E14">
-    <sortCondition ref="E3:E14"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:B98">
+    <sortCondition ref="B98"/>
   </sortState>
   <mergeCells count="2">
     <mergeCell ref="A1:B1"/>

--- a/Sources/Commons List.xlsx
+++ b/Sources/Commons List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOHABANE\Documents\Projects\Personal-Hosts\Sources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Programs\Personal-Hosts\Sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD658E1-704F-4743-A4F3-F1DC24BED9D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D7036C-3E0B-4CC0-A6B3-3ECDBB363BE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AC752DA5-279B-4E7D-9469-CEF11FD242ED}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AC752DA5-279B-4E7D-9469-CEF11FD242ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Common" sheetId="1" r:id="rId1"/>
@@ -24,9 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="247">
   <si>
     <t>0.0.0.0</t>
   </si>
@@ -764,6 +762,18 @@
   </si>
   <si>
     <t>mollygram.com</t>
+  </si>
+  <si>
+    <t>twitter.jae.su</t>
+  </si>
+  <si>
+    <t>twitter.privacy.com.de</t>
+  </si>
+  <si>
+    <t>insta-story-viewer.pl</t>
+  </si>
+  <si>
+    <t>storyviewer.io</t>
   </si>
 </sst>
 </file>
@@ -832,7 +842,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -842,6 +852,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1156,21 +1167,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECE8835C-5E4A-4A67-BE0B-662B45AD2111}">
-  <dimension ref="A1:G126"/>
+  <dimension ref="A1:G128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="G124" sqref="G124"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="34.109375" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" customWidth="1"/>
-    <col min="4" max="4" width="34.109375" customWidth="1"/>
-    <col min="7" max="7" width="27.33203125" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" customWidth="1"/>
+    <col min="7" max="7" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>177</v>
       </c>
@@ -1182,7 +1193,7 @@
       </c>
       <c r="G1" s="4"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1203,7 +1214,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1224,7 +1235,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1245,7 +1256,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1266,7 +1277,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1287,7 +1298,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1302,7 +1313,7 @@
         <v>www.croxyproxy.com</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1317,7 +1328,7 @@
         <v>www.croxyproxy.rocks</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1332,7 +1343,7 @@
         <v>www.downloadgram.pro</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -1347,7 +1358,7 @@
         <v>www.dumpor.com</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -1362,7 +1373,7 @@
         <v>www.farside.link</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -1377,7 +1388,7 @@
         <v>www.foller.me</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1392,7 +1403,7 @@
         <v>www.followerwonk.com</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -1407,7 +1418,7 @@
         <v>www.fritter.cc</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -1422,7 +1433,7 @@
         <v>www.fullinsta.photo</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -1437,7 +1448,7 @@
         <v>www.getmytweet.com</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -1452,7 +1463,7 @@
         <v>www.gmail.com</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -1467,7 +1478,7 @@
         <v>www.gramhir.com</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -1482,7 +1493,7 @@
         <v>www.gramho.com</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -1497,7 +1508,7 @@
         <v>www.gramvi.com</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -1512,7 +1523,7 @@
         <v>www.gramvio.com</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -1527,7 +1538,7 @@
         <v>www.greatfon.com</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -1542,7 +1553,7 @@
         <v>www.gwaa.net</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -1557,7 +1568,7 @@
         <v>www.hookgram.com</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -1572,7 +1583,7 @@
         <v>www.iganony.com</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -1587,7 +1598,7 @@
         <v>www.iglookup.com</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -1602,7 +1613,7 @@
         <v>www.igpanda.com</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -1617,7 +1628,7 @@
         <v>www.igrab.online</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -1632,7 +1643,7 @@
         <v>www.igram.io</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -1647,7 +1658,7 @@
         <v>www.igstories.app</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -1662,7 +1673,7 @@
         <v>www.ig-stories-viewer.net</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -1677,7 +1688,7 @@
         <v>www.imagerocket.com</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -1692,7 +1703,7 @@
         <v>www.imagerocket.net</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -1707,7 +1718,7 @@
         <v>www.imginn.com</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -1722,7 +1733,7 @@
         <v>www.imginn.org</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -1737,7 +1748,7 @@
         <v>www.inflact.com</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -1752,7 +1763,7 @@
         <v>www.ingramer.com</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -1767,7 +1778,7 @@
         <v>www.instabig.net</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -1782,7 +1793,7 @@
         <v>www.instadp.com</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -1797,7 +1808,7 @@
         <v>www.instadp.net</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -1812,7 +1823,7 @@
         <v>www.instadp.org</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -1827,7 +1838,7 @@
         <v>www.instafollowers.co</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -1842,7 +1853,7 @@
         <v>www.instafreeview.com</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -1857,7 +1868,7 @@
         <v>www.instagram.com</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -1872,7 +1883,7 @@
         <v>www.instajust.com</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>0</v>
       </c>
@@ -1887,7 +1898,7 @@
         <v>www.instalker.org</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>0</v>
       </c>
@@ -1902,7 +1913,7 @@
         <v>www.instalkr.com</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -1917,7 +1928,7 @@
         <v>www.instalooker.com</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>0</v>
       </c>
@@ -1932,7 +1943,7 @@
         <v>www.instanavigation.com</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>0</v>
       </c>
@@ -1947,7 +1958,7 @@
         <v>www.instaonline.org</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>0</v>
       </c>
@@ -1962,7 +1973,7 @@
         <v>www.instaprivate.com</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>0</v>
       </c>
@@ -1977,7 +1988,7 @@
         <v>www.instaprivateprofileviewer.com</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>0</v>
       </c>
@@ -1992,7 +2003,7 @@
         <v>www.instasaved.net</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>0</v>
       </c>
@@ -2007,7 +2018,7 @@
         <v>www.instasaver.app</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>0</v>
       </c>
@@ -2022,7 +2033,7 @@
         <v>www.insta-stories.com</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>0</v>
       </c>
@@ -2037,7 +2048,7 @@
         <v>www.instastories.net</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>0</v>
       </c>
@@ -2052,7 +2063,7 @@
         <v>www.insta-stories.online</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>0</v>
       </c>
@@ -2067,7 +2078,7 @@
         <v>www.instastories.watch</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>0</v>
       </c>
@@ -2082,7 +2093,7 @@
         <v>www.insta-stories-viewer.com</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>0</v>
       </c>
@@ -2097,7 +2108,7 @@
         <v>www.instastory.net</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>0</v>
       </c>
@@ -2112,969 +2123,999 @@
         <v>www.instastoryviewer.com</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>0</v>
       </c>
-      <c r="B63" t="s">
-        <v>49</v>
+      <c r="B63" s="5" t="s">
+        <v>245</v>
       </c>
       <c r="C63" t="s">
         <v>0</v>
       </c>
       <c r="D63" t="str">
         <f t="shared" si="1"/>
-        <v>www.instaviewer.ga</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+        <v>www.insta-story-viewer.pl</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>0</v>
       </c>
       <c r="B64" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C64" t="s">
         <v>0</v>
       </c>
       <c r="D64" t="str">
         <f t="shared" si="1"/>
-        <v>www.instaviewer.live</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+        <v>www.instaviewer.ga</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>0</v>
       </c>
       <c r="B65" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C65" t="s">
         <v>0</v>
       </c>
       <c r="D65" t="str">
         <f t="shared" si="1"/>
-        <v>www.instaviewerapp.weebly.com</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+        <v>www.instaviewer.live</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>206</v>
+        <v>51</v>
       </c>
       <c r="C66" t="s">
         <v>0</v>
       </c>
       <c r="D66" t="str">
         <f t="shared" si="1"/>
-        <v>www.instaviewers.net</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+        <v>www.instaviewerapp.weebly.com</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>0</v>
       </c>
       <c r="B67" t="s">
-        <v>52</v>
+        <v>206</v>
       </c>
       <c r="C67" t="s">
         <v>0</v>
       </c>
       <c r="D67" t="str">
         <f t="shared" ref="D67:D98" si="2">_xlfn.CONCAT("www.",B67)</f>
-        <v>www.instaviews.net</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+        <v>www.instaviewers.net</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>0</v>
       </c>
       <c r="B68" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C68" t="s">
         <v>0</v>
       </c>
       <c r="D68" t="str">
         <f t="shared" si="2"/>
-        <v>www.instaxyz.com</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+        <v>www.instaviews.net</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>0</v>
       </c>
       <c r="B69" t="s">
-        <v>224</v>
+        <v>53</v>
       </c>
       <c r="C69" t="s">
         <v>0</v>
       </c>
       <c r="D69" t="str">
         <f t="shared" si="2"/>
-        <v>www.inststalk.com</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+        <v>www.instaxyz.com</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>0</v>
       </c>
       <c r="B70" t="s">
-        <v>54</v>
+        <v>224</v>
       </c>
       <c r="C70" t="s">
         <v>0</v>
       </c>
       <c r="D70" t="str">
         <f t="shared" si="2"/>
-        <v>www.insuiter.com</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+        <v>www.inststalk.com</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>0</v>
       </c>
       <c r="B71" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C71" t="s">
         <v>0</v>
       </c>
       <c r="D71" t="str">
         <f t="shared" si="2"/>
-        <v>www.i-private-profile-viewer.com</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+        <v>www.insuiter.com</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>0</v>
       </c>
       <c r="B72" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C72" t="s">
         <v>0</v>
       </c>
       <c r="D72" t="str">
         <f t="shared" si="2"/>
-        <v>www.istaprivate.com</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+        <v>www.i-private-profile-viewer.com</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>0</v>
       </c>
       <c r="B73" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C73" t="s">
         <v>0</v>
       </c>
       <c r="D73" t="str">
         <f t="shared" si="2"/>
-        <v>www.likecreeper.com</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+        <v>www.istaprivate.com</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>0</v>
       </c>
       <c r="B74" t="s">
-        <v>242</v>
+        <v>57</v>
       </c>
       <c r="C74" t="s">
         <v>0</v>
       </c>
       <c r="D74" t="str">
         <f t="shared" si="2"/>
-        <v>www.mollygram.com</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+        <v>www.likecreeper.com</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>0</v>
       </c>
       <c r="B75" t="s">
-        <v>58</v>
+        <v>242</v>
       </c>
       <c r="C75" t="s">
         <v>0</v>
       </c>
       <c r="D75" t="str">
         <f t="shared" si="2"/>
-        <v>www.mystalk.net</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+        <v>www.mollygram.com</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>0</v>
       </c>
       <c r="B76" t="s">
-        <v>152</v>
+        <v>58</v>
       </c>
       <c r="C76" t="s">
         <v>0</v>
       </c>
       <c r="D76" t="str">
         <f t="shared" si="2"/>
-        <v>www.mythreadreader.com</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+        <v>www.mystalk.net</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>0</v>
       </c>
       <c r="B77" t="s">
-        <v>62</v>
+        <v>152</v>
       </c>
       <c r="C77" t="s">
         <v>0</v>
       </c>
       <c r="D77" t="str">
         <f t="shared" si="2"/>
-        <v>www.ninjalitics.com</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+        <v>www.mythreadreader.com</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>0</v>
       </c>
       <c r="B78" t="s">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="C78" t="s">
         <v>0</v>
       </c>
       <c r="D78" t="str">
         <f t="shared" si="2"/>
-        <v>www.omnicity.com</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+        <v>www.ninjalitics.com</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>0</v>
       </c>
       <c r="B79" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C79" t="s">
         <v>0</v>
       </c>
       <c r="D79" t="str">
         <f t="shared" si="2"/>
-        <v>www.peekinspo.com</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+        <v>www.omnicity.com</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>0</v>
       </c>
       <c r="B80" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C80" t="s">
         <v>0</v>
       </c>
       <c r="D80" t="str">
         <f t="shared" si="2"/>
-        <v>www.picaki.com</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+        <v>www.peekinspo.com</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>0</v>
       </c>
       <c r="B81" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C81" t="s">
         <v>0</v>
       </c>
       <c r="D81" t="str">
         <f t="shared" si="2"/>
-        <v>www.picosico.org</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+        <v>www.picaki.com</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>0</v>
       </c>
       <c r="B82" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C82" t="s">
         <v>0</v>
       </c>
       <c r="D82" t="str">
         <f t="shared" si="2"/>
-        <v>www.picuki.com</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+        <v>www.picosico.org</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>0</v>
       </c>
       <c r="B83" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C83" t="s">
         <v>0</v>
       </c>
       <c r="D83" t="str">
         <f t="shared" si="2"/>
-        <v>www.picuki.net</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+        <v>www.picuki.com</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>0</v>
       </c>
       <c r="B84" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C84" t="s">
         <v>0</v>
       </c>
       <c r="D84" t="str">
         <f t="shared" si="2"/>
-        <v>www.pikviewer.com</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+        <v>www.picuki.net</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>0</v>
       </c>
       <c r="B85" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C85" t="s">
         <v>0</v>
       </c>
       <c r="D85" t="str">
         <f t="shared" si="2"/>
-        <v>www.pixwox.com</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+        <v>www.pikviewer.com</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>0</v>
       </c>
       <c r="B86" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C86" t="s">
         <v>0</v>
       </c>
       <c r="D86" t="str">
         <f t="shared" si="2"/>
-        <v>www.privategramview.com</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+        <v>www.pixwox.com</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>0</v>
       </c>
       <c r="B87" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C87" t="s">
         <v>0</v>
       </c>
       <c r="D87" t="str">
         <f t="shared" si="2"/>
-        <v>www.privateinstaview.com</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+        <v>www.privategramview.com</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>0</v>
       </c>
       <c r="B88" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C88" t="s">
         <v>0</v>
       </c>
       <c r="D88" t="str">
         <f t="shared" si="2"/>
-        <v>www.privatephotoviewer.com</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+        <v>www.privateinstaview.com</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>0</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>184</v>
+      <c r="B89" t="s">
+        <v>116</v>
       </c>
       <c r="C89" t="s">
         <v>0</v>
       </c>
       <c r="D89" t="str">
         <f t="shared" si="2"/>
-        <v>www.profileviewer.vercel.app</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+        <v>www.privatephotoviewer.com</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>0</v>
       </c>
-      <c r="B90" t="s">
-        <v>190</v>
+      <c r="B90" s="2" t="s">
+        <v>184</v>
       </c>
       <c r="C90" t="s">
         <v>0</v>
       </c>
       <c r="D90" t="str">
         <f t="shared" si="2"/>
-        <v>www.save-insta.com</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+        <v>www.profileviewer.vercel.app</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>0</v>
       </c>
       <c r="B91" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="C91" t="s">
         <v>0</v>
       </c>
       <c r="D91" t="str">
         <f t="shared" si="2"/>
-        <v>www.simpliers.com</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+        <v>www.save-insta.com</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>0</v>
       </c>
       <c r="B92" t="s">
-        <v>117</v>
+        <v>198</v>
       </c>
       <c r="C92" t="s">
         <v>0</v>
       </c>
       <c r="D92" t="str">
         <f t="shared" si="2"/>
-        <v>www.smihub.com</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+        <v>www.simpliers.com</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>0</v>
       </c>
       <c r="B93" t="s">
-        <v>203</v>
+        <v>117</v>
       </c>
       <c r="C93" t="s">
         <v>0</v>
       </c>
       <c r="D93" t="str">
         <f t="shared" si="2"/>
-        <v>www.snapinsta.app</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+        <v>www.smihub.com</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>0</v>
       </c>
       <c r="B94" t="s">
-        <v>118</v>
+        <v>203</v>
       </c>
       <c r="C94" t="s">
         <v>0</v>
       </c>
       <c r="D94" t="str">
         <f t="shared" si="2"/>
-        <v>www.sotwe.com</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+        <v>www.snapinsta.app</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>0</v>
       </c>
       <c r="B95" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C95" t="s">
         <v>0</v>
       </c>
       <c r="D95" t="str">
         <f t="shared" si="2"/>
-        <v>www.storiesdown.com</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+        <v>www.sotwe.com</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>0</v>
       </c>
       <c r="B96" t="s">
-        <v>181</v>
+        <v>119</v>
       </c>
       <c r="C96" t="s">
         <v>0</v>
       </c>
       <c r="D96" t="str">
         <f t="shared" si="2"/>
-        <v>www.storiesig.app</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+        <v>www.storiesdown.com</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>0</v>
       </c>
       <c r="B97" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C97" t="s">
         <v>0</v>
       </c>
       <c r="D97" t="str">
         <f t="shared" si="2"/>
-        <v>www.storiesig.info</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+        <v>www.storiesig.app</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>0</v>
       </c>
       <c r="B98" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="C98" t="s">
         <v>0</v>
       </c>
       <c r="D98" t="str">
         <f t="shared" si="2"/>
+        <v>www.storiesig.info</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>0</v>
+      </c>
+      <c r="B99" t="s">
+        <v>182</v>
+      </c>
+      <c r="C99" t="s">
+        <v>0</v>
+      </c>
+      <c r="D99" t="str">
+        <f>_xlfn.CONCAT("www.",B99)</f>
         <v>www.storiesig.me</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>0</v>
-      </c>
-      <c r="B99" t="s">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B100" t="s">
         <v>120</v>
       </c>
-      <c r="C99" t="s">
-        <v>0</v>
-      </c>
-      <c r="D99" t="str">
-        <f t="shared" ref="D99:D126" si="3">_xlfn.CONCAT("www.",B99)</f>
+      <c r="C100" t="s">
+        <v>0</v>
+      </c>
+      <c r="D100" t="str">
+        <f>_xlfn.CONCAT("www.",B100)</f>
         <v>www.storiesig.net</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>0</v>
-      </c>
-      <c r="B100" t="s">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B101" t="s">
         <v>121</v>
       </c>
-      <c r="C100" t="s">
-        <v>0</v>
-      </c>
-      <c r="D100" t="str">
-        <f t="shared" si="3"/>
+      <c r="C101" t="s">
+        <v>0</v>
+      </c>
+      <c r="D101" t="str">
+        <f>_xlfn.CONCAT("www.",B101)</f>
         <v>www.storieswatch.com</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>0</v>
-      </c>
-      <c r="B101" t="s">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>0</v>
+      </c>
+      <c r="B102" t="s">
         <v>202</v>
       </c>
-      <c r="C101" t="s">
-        <v>0</v>
-      </c>
-      <c r="D101" t="str">
-        <f t="shared" si="3"/>
+      <c r="C102" t="s">
+        <v>0</v>
+      </c>
+      <c r="D102" t="str">
+        <f>_xlfn.CONCAT("www.",B102)</f>
         <v>www.storistalker.com</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>0</v>
-      </c>
-      <c r="B102" t="s">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B103" t="s">
         <v>122</v>
       </c>
-      <c r="C102" t="s">
-        <v>0</v>
-      </c>
-      <c r="D102" t="str">
-        <f t="shared" si="3"/>
+      <c r="C103" t="s">
+        <v>0</v>
+      </c>
+      <c r="D103" t="str">
+        <f>_xlfn.CONCAT("www.",B103)</f>
         <v>www.storysaver.net</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>0</v>
-      </c>
-      <c r="B103" t="s">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>0</v>
+      </c>
+      <c r="B104" t="s">
+        <v>246</v>
+      </c>
+      <c r="C104" t="s">
+        <v>0</v>
+      </c>
+      <c r="D104" t="str">
+        <f>_xlfn.CONCAT("www.",B104)</f>
+        <v>www.storyviewer.io</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>0</v>
+      </c>
+      <c r="B105" t="s">
         <v>123</v>
       </c>
-      <c r="C103" t="s">
-        <v>0</v>
-      </c>
-      <c r="D103" t="str">
-        <f t="shared" si="3"/>
+      <c r="C105" t="s">
+        <v>0</v>
+      </c>
+      <c r="D105" t="str">
+        <f>_xlfn.CONCAT("www.",B105)</f>
         <v>www.stweetly.com</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>0</v>
-      </c>
-      <c r="B104" t="s">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>0</v>
+      </c>
+      <c r="B106" t="s">
         <v>124</v>
       </c>
-      <c r="C104" t="s">
-        <v>0</v>
-      </c>
-      <c r="D104" t="str">
-        <f t="shared" si="3"/>
+      <c r="C106" t="s">
+        <v>0</v>
+      </c>
+      <c r="D106" t="str">
+        <f>_xlfn.CONCAT("www.",B106)</f>
         <v>www.t.com.sb</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>0</v>
-      </c>
-      <c r="B105" t="s">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>0</v>
+      </c>
+      <c r="B107" t="s">
         <v>125</v>
       </c>
-      <c r="C105" t="s">
-        <v>0</v>
-      </c>
-      <c r="D105" t="str">
-        <f t="shared" si="3"/>
+      <c r="C107" t="s">
+        <v>0</v>
+      </c>
+      <c r="D107" t="str">
+        <f>_xlfn.CONCAT("www.",B107)</f>
         <v>www.thepicgram.com</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>0</v>
-      </c>
-      <c r="B106" t="s">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>0</v>
+      </c>
+      <c r="B108" t="s">
         <v>153</v>
       </c>
-      <c r="C106" t="s">
-        <v>0</v>
-      </c>
-      <c r="D106" t="str">
-        <f t="shared" si="3"/>
+      <c r="C108" t="s">
+        <v>0</v>
+      </c>
+      <c r="D108" t="str">
+        <f>_xlfn.CONCAT("www.",B108)</f>
         <v>www.threadreaderapp.com</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>0</v>
-      </c>
-      <c r="B107" t="s">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>0</v>
+      </c>
+      <c r="B109" t="s">
         <v>127</v>
       </c>
-      <c r="C107" t="s">
-        <v>0</v>
-      </c>
-      <c r="D107" t="str">
-        <f t="shared" si="3"/>
+      <c r="C109" t="s">
+        <v>0</v>
+      </c>
+      <c r="D109" t="str">
+        <f>_xlfn.CONCAT("www.",B109)</f>
         <v>www.tweepsmap.com</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>0</v>
-      </c>
-      <c r="B108" t="s">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>0</v>
+      </c>
+      <c r="B110" t="s">
         <v>128</v>
       </c>
-      <c r="C108" t="s">
-        <v>0</v>
-      </c>
-      <c r="D108" t="str">
-        <f t="shared" si="3"/>
+      <c r="C110" t="s">
+        <v>0</v>
+      </c>
+      <c r="D110" t="str">
+        <f>_xlfn.CONCAT("www.",B110)</f>
         <v>www.tweepy.net</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>0</v>
-      </c>
-      <c r="B109" t="s">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B111" t="s">
         <v>130</v>
       </c>
-      <c r="C109" t="s">
-        <v>0</v>
-      </c>
-      <c r="D109" t="str">
-        <f t="shared" si="3"/>
+      <c r="C111" t="s">
+        <v>0</v>
+      </c>
+      <c r="D111" t="str">
+        <f>_xlfn.CONCAT("www.",B111)</f>
         <v>www.tweetbeam.com</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>0</v>
-      </c>
-      <c r="B110" t="s">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>0</v>
+      </c>
+      <c r="B112" t="s">
         <v>204</v>
       </c>
-      <c r="C110" t="s">
-        <v>0</v>
-      </c>
-      <c r="D110" t="str">
-        <f t="shared" si="3"/>
+      <c r="C112" t="s">
+        <v>0</v>
+      </c>
+      <c r="D112" t="str">
+        <f>_xlfn.CONCAT("www.",B112)</f>
         <v>www.twicopy.com</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>0</v>
-      </c>
-      <c r="B111" t="s">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>0</v>
+      </c>
+      <c r="B113" t="s">
         <v>185</v>
       </c>
-      <c r="C111" t="s">
-        <v>0</v>
-      </c>
-      <c r="D111" t="str">
-        <f t="shared" si="3"/>
+      <c r="C113" t="s">
+        <v>0</v>
+      </c>
+      <c r="D113" t="str">
+        <f>_xlfn.CONCAT("www.",B113)</f>
         <v>www.twidoom.com</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
-        <v>0</v>
-      </c>
-      <c r="B112" t="s">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>0</v>
+      </c>
+      <c r="B114" t="s">
         <v>131</v>
       </c>
-      <c r="C112" t="s">
-        <v>0</v>
-      </c>
-      <c r="D112" t="str">
-        <f t="shared" si="3"/>
+      <c r="C114" t="s">
+        <v>0</v>
+      </c>
+      <c r="D114" t="str">
+        <f>_xlfn.CONCAT("www.",B114)</f>
         <v>www.twiiit.com</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
-        <v>0</v>
-      </c>
-      <c r="B113" t="s">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>0</v>
+      </c>
+      <c r="B115" t="s">
         <v>132</v>
       </c>
-      <c r="C113" t="s">
-        <v>0</v>
-      </c>
-      <c r="D113" t="str">
-        <f t="shared" si="3"/>
+      <c r="C115" t="s">
+        <v>0</v>
+      </c>
+      <c r="D115" t="str">
+        <f>_xlfn.CONCAT("www.",B115)</f>
         <v>www.twimfeed.com</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
-        <v>0</v>
-      </c>
-      <c r="B114" t="s">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>0</v>
+      </c>
+      <c r="B116" t="s">
         <v>133</v>
       </c>
-      <c r="C114" t="s">
-        <v>0</v>
-      </c>
-      <c r="D114" t="str">
-        <f t="shared" si="3"/>
+      <c r="C116" t="s">
+        <v>0</v>
+      </c>
+      <c r="D116" t="str">
+        <f>_xlfn.CONCAT("www.",B116)</f>
         <v>www.twimg.com</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
-        <v>0</v>
-      </c>
-      <c r="B115" t="s">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>0</v>
+      </c>
+      <c r="B117" t="s">
         <v>134</v>
       </c>
-      <c r="C115" t="s">
-        <v>0</v>
-      </c>
-      <c r="D115" t="str">
-        <f t="shared" si="3"/>
+      <c r="C117" t="s">
+        <v>0</v>
+      </c>
+      <c r="D117" t="str">
+        <f>_xlfn.CONCAT("www.",B117)</f>
         <v>www.twipho.net</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
-        <v>0</v>
-      </c>
-      <c r="B116" t="s">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>0</v>
+      </c>
+      <c r="B118" t="s">
         <v>135</v>
       </c>
-      <c r="C116" t="s">
-        <v>0</v>
-      </c>
-      <c r="D116" t="str">
-        <f t="shared" si="3"/>
+      <c r="C118" t="s">
+        <v>0</v>
+      </c>
+      <c r="D118" t="str">
+        <f>_xlfn.CONCAT("www.",B118)</f>
         <v>www.twipu.net</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
-        <v>0</v>
-      </c>
-      <c r="B117" t="s">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>0</v>
+      </c>
+      <c r="B119" t="s">
         <v>205</v>
       </c>
-      <c r="C117" t="s">
-        <v>0</v>
-      </c>
-      <c r="D117" t="str">
-        <f t="shared" si="3"/>
+      <c r="C119" t="s">
+        <v>0</v>
+      </c>
+      <c r="D119" t="str">
+        <f>_xlfn.CONCAT("www.",B119)</f>
         <v>www.twisave.com</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
-        <v>0</v>
-      </c>
-      <c r="B118" t="s">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>0</v>
+      </c>
+      <c r="B120" t="s">
         <v>139</v>
       </c>
-      <c r="C118" t="s">
-        <v>0</v>
-      </c>
-      <c r="D118" t="str">
-        <f t="shared" si="3"/>
+      <c r="C120" t="s">
+        <v>0</v>
+      </c>
+      <c r="D120" t="str">
+        <f>_xlfn.CONCAT("www.",B120)</f>
         <v>www.twitter.com</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
-        <v>0</v>
-      </c>
-      <c r="B119" t="s">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>0</v>
+      </c>
+      <c r="B121" t="s">
         <v>142</v>
       </c>
-      <c r="C119" t="s">
-        <v>0</v>
-      </c>
-      <c r="D119" t="str">
-        <f t="shared" si="3"/>
+      <c r="C121" t="s">
+        <v>0</v>
+      </c>
+      <c r="D121" t="str">
+        <f>_xlfn.CONCAT("www.",B121)</f>
         <v>www.twittertt.com</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
-        <v>0</v>
-      </c>
-      <c r="B120" t="s">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>0</v>
+      </c>
+      <c r="B122" t="s">
         <v>225</v>
       </c>
-      <c r="C120" t="s">
-        <v>0</v>
-      </c>
-      <c r="D120" t="str">
-        <f t="shared" si="3"/>
+      <c r="C122" t="s">
+        <v>0</v>
+      </c>
+      <c r="D122" t="str">
+        <f>_xlfn.CONCAT("www.",B122)</f>
         <v>www.twstalker.com</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
-        <v>0</v>
-      </c>
-      <c r="B121" t="s">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>0</v>
+      </c>
+      <c r="B123" t="s">
         <v>144</v>
       </c>
-      <c r="C121" t="s">
-        <v>0</v>
-      </c>
-      <c r="D121" t="str">
-        <f t="shared" si="3"/>
+      <c r="C123" t="s">
+        <v>0</v>
+      </c>
+      <c r="D123" t="str">
+        <f>_xlfn.CONCAT("www.",B123)</f>
         <v>www.twubs.com</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
-        <v>0</v>
-      </c>
-      <c r="B122" t="s">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>0</v>
+      </c>
+      <c r="B124" t="s">
         <v>145</v>
       </c>
-      <c r="C122" t="s">
-        <v>0</v>
-      </c>
-      <c r="D122" t="str">
-        <f t="shared" si="3"/>
+      <c r="C124" t="s">
+        <v>0</v>
+      </c>
+      <c r="D124" t="str">
+        <f>_xlfn.CONCAT("www.",B124)</f>
         <v>www.viewerig.com</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
-        <v>0</v>
-      </c>
-      <c r="B123" t="s">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>0</v>
+      </c>
+      <c r="B125" t="s">
         <v>146</v>
       </c>
-      <c r="C123" t="s">
-        <v>0</v>
-      </c>
-      <c r="D123" t="str">
-        <f t="shared" si="3"/>
+      <c r="C125" t="s">
+        <v>0</v>
+      </c>
+      <c r="D125" t="str">
+        <f>_xlfn.CONCAT("www.",B125)</f>
         <v>www.viewprivateinsta.com</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
-        <v>0</v>
-      </c>
-      <c r="B124" t="s">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>0</v>
+      </c>
+      <c r="B126" t="s">
         <v>147</v>
       </c>
-      <c r="C124" t="s">
-        <v>0</v>
-      </c>
-      <c r="D124" t="str">
-        <f t="shared" si="3"/>
+      <c r="C126" t="s">
+        <v>0</v>
+      </c>
+      <c r="D126" t="str">
+        <f>_xlfn.CONCAT("www.",B126)</f>
         <v>www.visibletweets.com</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
-        <v>0</v>
-      </c>
-      <c r="B125" t="s">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>0</v>
+      </c>
+      <c r="B127" t="s">
         <v>148</v>
       </c>
-      <c r="C125" t="s">
-        <v>0</v>
-      </c>
-      <c r="D125" t="str">
-        <f t="shared" si="3"/>
+      <c r="C127" t="s">
+        <v>0</v>
+      </c>
+      <c r="D127" t="str">
+        <f>_xlfn.CONCAT("www.",B127)</f>
         <v>www.watchinsta.com</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
-        <v>0</v>
-      </c>
-      <c r="B126" t="s">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>0</v>
+      </c>
+      <c r="B128" t="s">
         <v>150</v>
       </c>
-      <c r="C126" t="s">
-        <v>0</v>
-      </c>
-      <c r="D126" t="str">
-        <f t="shared" si="3"/>
+      <c r="C128" t="s">
+        <v>0</v>
+      </c>
+      <c r="D128" t="str">
+        <f>_xlfn.CONCAT("www.",B128)</f>
         <v>www.webstagram.org</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:B126">
-    <sortCondition ref="B126"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:B128">
+    <sortCondition ref="B128"/>
   </sortState>
   <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
@@ -3088,22 +3129,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA59CB1C-FDC9-4B42-B2B3-9AF6BDB5B633}">
-  <dimension ref="A1:G98"/>
+  <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="F94" sqref="F94"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" customWidth="1"/>
-    <col min="5" max="5" width="23.6640625" customWidth="1"/>
-    <col min="7" max="7" width="23.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" customWidth="1"/>
+    <col min="7" max="7" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>178</v>
       </c>
@@ -3115,7 +3156,7 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -3137,7 +3178,7 @@
         <v>www.nitter.at</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -3159,7 +3200,7 @@
         <v>www.nitter.ca</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -3181,7 +3222,7 @@
         <v>www.nitter.cz</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -3203,7 +3244,7 @@
         <v>www.nitter.hu</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -3225,7 +3266,7 @@
         <v>www.nitter.ir</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -3247,7 +3288,7 @@
         <v>www.nitter.it</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -3269,7 +3310,7 @@
         <v>www.nitter.net</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -3291,7 +3332,7 @@
         <v>www.nitter.nl</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -3313,7 +3354,7 @@
         <v>www.nitter.pufe.org</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -3335,7 +3376,7 @@
         <v>www.nitter.pw</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -3357,7 +3398,7 @@
         <v>www.notabird.site</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -3379,7 +3420,7 @@
         <v>www.unofficialbird.com</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -3401,7 +3442,7 @@
         <v>www.nitter.kling.gg</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -3409,7 +3450,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -3417,7 +3458,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -3425,7 +3466,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -3433,7 +3474,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
@@ -3441,7 +3482,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -3449,7 +3490,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -3457,7 +3498,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -3465,7 +3506,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -3473,7 +3514,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -3481,7 +3522,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
@@ -3489,7 +3530,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
@@ -3497,7 +3538,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
@@ -3505,7 +3546,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -3513,7 +3554,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
@@ -3521,7 +3562,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
@@ -3529,7 +3570,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
@@ -3537,7 +3578,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
@@ -3545,7 +3586,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>0</v>
       </c>
@@ -3553,7 +3594,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
@@ -3561,7 +3602,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
@@ -3569,7 +3610,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
@@ -3577,7 +3618,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>0</v>
       </c>
@@ -3585,7 +3626,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>0</v>
       </c>
@@ -3593,7 +3634,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>0</v>
       </c>
@@ -3601,7 +3642,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>0</v>
       </c>
@@ -3609,7 +3650,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>0</v>
       </c>
@@ -3617,7 +3658,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
@@ -3625,7 +3666,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>0</v>
       </c>
@@ -3633,7 +3674,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
@@ -3641,7 +3682,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>0</v>
       </c>
@@ -3649,7 +3690,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>0</v>
       </c>
@@ -3657,7 +3698,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>0</v>
       </c>
@@ -3665,7 +3706,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>0</v>
       </c>
@@ -3673,7 +3714,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>0</v>
       </c>
@@ -3681,7 +3722,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>0</v>
       </c>
@@ -3689,7 +3730,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>0</v>
       </c>
@@ -3697,7 +3738,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>0</v>
       </c>
@@ -3705,7 +3746,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>0</v>
       </c>
@@ -3713,7 +3754,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>0</v>
       </c>
@@ -3721,7 +3762,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>0</v>
       </c>
@@ -3729,7 +3770,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>0</v>
       </c>
@@ -3737,7 +3778,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>0</v>
       </c>
@@ -3745,7 +3786,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>0</v>
       </c>
@@ -3753,7 +3794,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>0</v>
       </c>
@@ -3761,7 +3802,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>0</v>
       </c>
@@ -3769,7 +3810,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>0</v>
       </c>
@@ -3777,7 +3818,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>0</v>
       </c>
@@ -3785,7 +3826,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>0</v>
       </c>
@@ -3793,7 +3834,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>0</v>
       </c>
@@ -3801,7 +3842,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>0</v>
       </c>
@@ -3809,7 +3850,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>0</v>
       </c>
@@ -3817,7 +3858,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>0</v>
       </c>
@@ -3825,7 +3866,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>0</v>
       </c>
@@ -3833,7 +3874,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>0</v>
       </c>
@@ -3841,7 +3882,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>0</v>
       </c>
@@ -3849,7 +3890,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>0</v>
       </c>
@@ -3857,7 +3898,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>0</v>
       </c>
@@ -3865,7 +3906,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>0</v>
       </c>
@@ -3873,7 +3914,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>0</v>
       </c>
@@ -3881,7 +3922,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>0</v>
       </c>
@@ -3889,7 +3930,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>0</v>
       </c>
@@ -3897,7 +3938,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>0</v>
       </c>
@@ -3905,7 +3946,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>0</v>
       </c>
@@ -3913,7 +3954,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>0</v>
       </c>
@@ -3921,7 +3962,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>0</v>
       </c>
@@ -3929,7 +3970,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>0</v>
       </c>
@@ -3937,7 +3978,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>0</v>
       </c>
@@ -3945,7 +3986,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>0</v>
       </c>
@@ -3953,7 +3994,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>0</v>
       </c>
@@ -3961,7 +4002,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>0</v>
       </c>
@@ -3969,7 +4010,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>0</v>
       </c>
@@ -3977,7 +4018,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>0</v>
       </c>
@@ -3985,7 +4026,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>0</v>
       </c>
@@ -3993,7 +4034,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>0</v>
       </c>
@@ -4001,7 +4042,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>0</v>
       </c>
@@ -4009,7 +4050,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>0</v>
       </c>
@@ -4017,7 +4058,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>0</v>
       </c>
@@ -4025,7 +4066,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>0</v>
       </c>
@@ -4033,7 +4074,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>0</v>
       </c>
@@ -4041,7 +4082,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>0</v>
       </c>
@@ -4049,7 +4090,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>0</v>
       </c>
@@ -4057,12 +4098,28 @@
         <v>143</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>168</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>0</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B100" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>

--- a/Sources/Commons List.xlsx
+++ b/Sources/Commons List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Programs\Personal-Hosts\Sources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOHABANE\Documents\Projects\Personal-Hosts\Sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D7036C-3E0B-4CC0-A6B3-3ECDBB363BE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5700B369-97D0-4D64-96DA-EF9927F5D030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AC752DA5-279B-4E7D-9469-CEF11FD242ED}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AC752DA5-279B-4E7D-9469-CEF11FD242ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Common" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="251">
   <si>
     <t>0.0.0.0</t>
   </si>
@@ -774,13 +776,25 @@
   </si>
   <si>
     <t>storyviewer.io</t>
+  </si>
+  <si>
+    <t>instasupersave.com</t>
+  </si>
+  <si>
+    <t>exploreig.com</t>
+  </si>
+  <si>
+    <t>in-stories.online</t>
+  </si>
+  <si>
+    <t>birdo.stuehieyr.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -815,6 +829,10 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -842,17 +860,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1167,33 +1186,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECE8835C-5E4A-4A67-BE0B-662B45AD2111}">
-  <dimension ref="A1:G128"/>
+  <dimension ref="A1:G131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G7"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="A129" sqref="A129:B131"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="34.140625" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" customWidth="1"/>
-    <col min="7" max="7" width="27.28515625" customWidth="1"/>
+    <col min="2" max="2" width="34.109375" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" customWidth="1"/>
+    <col min="4" max="4" width="34.109375" customWidth="1"/>
+    <col min="7" max="7" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="F1" s="4" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="F1" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G1" s="5"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1214,7 +1233,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1235,7 +1254,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1256,7 +1275,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1277,7 +1296,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1298,7 +1317,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1313,7 +1332,7 @@
         <v>www.croxyproxy.com</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1328,7 +1347,7 @@
         <v>www.croxyproxy.rocks</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1343,7 +1362,7 @@
         <v>www.downloadgram.pro</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -1358,7 +1377,7 @@
         <v>www.dumpor.com</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -1373,7 +1392,7 @@
         <v>www.farside.link</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -1388,7 +1407,7 @@
         <v>www.foller.me</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1403,7 +1422,7 @@
         <v>www.followerwonk.com</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -1418,7 +1437,7 @@
         <v>www.fritter.cc</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -1433,7 +1452,7 @@
         <v>www.fullinsta.photo</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -1448,7 +1467,7 @@
         <v>www.getmytweet.com</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -1463,7 +1482,7 @@
         <v>www.gmail.com</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -1478,7 +1497,7 @@
         <v>www.gramhir.com</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -1493,7 +1512,7 @@
         <v>www.gramho.com</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -1508,7 +1527,7 @@
         <v>www.gramvi.com</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -1523,7 +1542,7 @@
         <v>www.gramvio.com</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -1538,7 +1557,7 @@
         <v>www.greatfon.com</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -1553,7 +1572,7 @@
         <v>www.gwaa.net</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -1568,7 +1587,7 @@
         <v>www.hookgram.com</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -1583,7 +1602,7 @@
         <v>www.iganony.com</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -1598,7 +1617,7 @@
         <v>www.iglookup.com</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -1613,7 +1632,7 @@
         <v>www.igpanda.com</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -1628,7 +1647,7 @@
         <v>www.igrab.online</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -1643,7 +1662,7 @@
         <v>www.igram.io</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -1658,7 +1677,7 @@
         <v>www.igstories.app</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -1673,7 +1692,7 @@
         <v>www.ig-stories-viewer.net</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -1688,7 +1707,7 @@
         <v>www.imagerocket.com</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -1703,7 +1722,7 @@
         <v>www.imagerocket.net</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -1718,7 +1737,7 @@
         <v>www.imginn.com</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -1733,7 +1752,7 @@
         <v>www.imginn.org</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -1748,7 +1767,7 @@
         <v>www.inflact.com</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -1763,7 +1782,7 @@
         <v>www.ingramer.com</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -1778,7 +1797,7 @@
         <v>www.instabig.net</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -1793,7 +1812,7 @@
         <v>www.instadp.com</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -1808,7 +1827,7 @@
         <v>www.instadp.net</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -1823,7 +1842,7 @@
         <v>www.instadp.org</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -1838,7 +1857,7 @@
         <v>www.instafollowers.co</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -1853,7 +1872,7 @@
         <v>www.instafreeview.com</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -1868,7 +1887,7 @@
         <v>www.instagram.com</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -1883,7 +1902,7 @@
         <v>www.instajust.com</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>0</v>
       </c>
@@ -1898,7 +1917,7 @@
         <v>www.instalker.org</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>0</v>
       </c>
@@ -1913,7 +1932,7 @@
         <v>www.instalkr.com</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -1928,7 +1947,7 @@
         <v>www.instalooker.com</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>0</v>
       </c>
@@ -1943,7 +1962,7 @@
         <v>www.instanavigation.com</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>0</v>
       </c>
@@ -1958,7 +1977,7 @@
         <v>www.instaonline.org</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>0</v>
       </c>
@@ -1973,7 +1992,7 @@
         <v>www.instaprivate.com</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>0</v>
       </c>
@@ -1988,7 +2007,7 @@
         <v>www.instaprivateprofileviewer.com</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>0</v>
       </c>
@@ -2003,7 +2022,7 @@
         <v>www.instasaved.net</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>0</v>
       </c>
@@ -2018,7 +2037,7 @@
         <v>www.instasaver.app</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>0</v>
       </c>
@@ -2033,7 +2052,7 @@
         <v>www.insta-stories.com</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>0</v>
       </c>
@@ -2048,7 +2067,7 @@
         <v>www.instastories.net</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>0</v>
       </c>
@@ -2063,7 +2082,7 @@
         <v>www.insta-stories.online</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>0</v>
       </c>
@@ -2078,7 +2097,7 @@
         <v>www.instastories.watch</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>0</v>
       </c>
@@ -2093,7 +2112,7 @@
         <v>www.insta-stories-viewer.com</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>0</v>
       </c>
@@ -2108,7 +2127,7 @@
         <v>www.instastory.net</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>0</v>
       </c>
@@ -2123,11 +2142,11 @@
         <v>www.instastoryviewer.com</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>0</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="3" t="s">
         <v>245</v>
       </c>
       <c r="C63" t="s">
@@ -2138,7 +2157,7 @@
         <v>www.insta-story-viewer.pl</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>0</v>
       </c>
@@ -2153,7 +2172,7 @@
         <v>www.instaviewer.ga</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>0</v>
       </c>
@@ -2168,7 +2187,7 @@
         <v>www.instaviewer.live</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>0</v>
       </c>
@@ -2183,7 +2202,7 @@
         <v>www.instaviewerapp.weebly.com</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>0</v>
       </c>
@@ -2198,7 +2217,7 @@
         <v>www.instaviewers.net</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>0</v>
       </c>
@@ -2213,7 +2232,7 @@
         <v>www.instaviews.net</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>0</v>
       </c>
@@ -2228,7 +2247,7 @@
         <v>www.instaxyz.com</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>0</v>
       </c>
@@ -2243,7 +2262,7 @@
         <v>www.inststalk.com</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>0</v>
       </c>
@@ -2258,7 +2277,7 @@
         <v>www.insuiter.com</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>0</v>
       </c>
@@ -2273,7 +2292,7 @@
         <v>www.i-private-profile-viewer.com</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>0</v>
       </c>
@@ -2288,7 +2307,7 @@
         <v>www.istaprivate.com</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>0</v>
       </c>
@@ -2303,7 +2322,7 @@
         <v>www.likecreeper.com</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>0</v>
       </c>
@@ -2318,7 +2337,7 @@
         <v>www.mollygram.com</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>0</v>
       </c>
@@ -2333,7 +2352,7 @@
         <v>www.mystalk.net</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>0</v>
       </c>
@@ -2348,7 +2367,7 @@
         <v>www.mythreadreader.com</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>0</v>
       </c>
@@ -2363,7 +2382,7 @@
         <v>www.ninjalitics.com</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>0</v>
       </c>
@@ -2378,7 +2397,7 @@
         <v>www.omnicity.com</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>0</v>
       </c>
@@ -2393,7 +2412,7 @@
         <v>www.peekinspo.com</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>0</v>
       </c>
@@ -2408,7 +2427,7 @@
         <v>www.picaki.com</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>0</v>
       </c>
@@ -2423,7 +2442,7 @@
         <v>www.picosico.org</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>0</v>
       </c>
@@ -2438,7 +2457,7 @@
         <v>www.picuki.com</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>0</v>
       </c>
@@ -2453,7 +2472,7 @@
         <v>www.picuki.net</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>0</v>
       </c>
@@ -2468,7 +2487,7 @@
         <v>www.pikviewer.com</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>0</v>
       </c>
@@ -2483,7 +2502,7 @@
         <v>www.pixwox.com</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>0</v>
       </c>
@@ -2498,7 +2517,7 @@
         <v>www.privategramview.com</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>0</v>
       </c>
@@ -2513,7 +2532,7 @@
         <v>www.privateinstaview.com</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>0</v>
       </c>
@@ -2528,7 +2547,7 @@
         <v>www.privatephotoviewer.com</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>0</v>
       </c>
@@ -2543,7 +2562,7 @@
         <v>www.profileviewer.vercel.app</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>0</v>
       </c>
@@ -2558,7 +2577,7 @@
         <v>www.save-insta.com</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>0</v>
       </c>
@@ -2573,7 +2592,7 @@
         <v>www.simpliers.com</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>0</v>
       </c>
@@ -2588,7 +2607,7 @@
         <v>www.smihub.com</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>0</v>
       </c>
@@ -2603,7 +2622,7 @@
         <v>www.snapinsta.app</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>0</v>
       </c>
@@ -2618,7 +2637,7 @@
         <v>www.sotwe.com</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>0</v>
       </c>
@@ -2633,7 +2652,7 @@
         <v>www.storiesdown.com</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>0</v>
       </c>
@@ -2648,7 +2667,7 @@
         <v>www.storiesig.app</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>0</v>
       </c>
@@ -2663,7 +2682,7 @@
         <v>www.storiesig.info</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>0</v>
       </c>
@@ -2674,11 +2693,11 @@
         <v>0</v>
       </c>
       <c r="D99" t="str">
-        <f>_xlfn.CONCAT("www.",B99)</f>
+        <f t="shared" ref="D99:D131" si="3">_xlfn.CONCAT("www.",B99)</f>
         <v>www.storiesig.me</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>0</v>
       </c>
@@ -2689,11 +2708,11 @@
         <v>0</v>
       </c>
       <c r="D100" t="str">
-        <f>_xlfn.CONCAT("www.",B100)</f>
+        <f t="shared" si="3"/>
         <v>www.storiesig.net</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>0</v>
       </c>
@@ -2704,11 +2723,11 @@
         <v>0</v>
       </c>
       <c r="D101" t="str">
-        <f>_xlfn.CONCAT("www.",B101)</f>
+        <f t="shared" si="3"/>
         <v>www.storieswatch.com</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>0</v>
       </c>
@@ -2719,11 +2738,11 @@
         <v>0</v>
       </c>
       <c r="D102" t="str">
-        <f>_xlfn.CONCAT("www.",B102)</f>
+        <f t="shared" si="3"/>
         <v>www.storistalker.com</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>0</v>
       </c>
@@ -2734,11 +2753,11 @@
         <v>0</v>
       </c>
       <c r="D103" t="str">
-        <f>_xlfn.CONCAT("www.",B103)</f>
+        <f t="shared" si="3"/>
         <v>www.storysaver.net</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>0</v>
       </c>
@@ -2749,11 +2768,11 @@
         <v>0</v>
       </c>
       <c r="D104" t="str">
-        <f>_xlfn.CONCAT("www.",B104)</f>
+        <f t="shared" si="3"/>
         <v>www.storyviewer.io</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>0</v>
       </c>
@@ -2764,11 +2783,11 @@
         <v>0</v>
       </c>
       <c r="D105" t="str">
-        <f>_xlfn.CONCAT("www.",B105)</f>
+        <f t="shared" si="3"/>
         <v>www.stweetly.com</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>0</v>
       </c>
@@ -2779,11 +2798,11 @@
         <v>0</v>
       </c>
       <c r="D106" t="str">
-        <f>_xlfn.CONCAT("www.",B106)</f>
+        <f t="shared" si="3"/>
         <v>www.t.com.sb</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>0</v>
       </c>
@@ -2794,11 +2813,11 @@
         <v>0</v>
       </c>
       <c r="D107" t="str">
-        <f>_xlfn.CONCAT("www.",B107)</f>
+        <f t="shared" si="3"/>
         <v>www.thepicgram.com</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>0</v>
       </c>
@@ -2809,11 +2828,11 @@
         <v>0</v>
       </c>
       <c r="D108" t="str">
-        <f>_xlfn.CONCAT("www.",B108)</f>
+        <f t="shared" si="3"/>
         <v>www.threadreaderapp.com</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>0</v>
       </c>
@@ -2824,11 +2843,11 @@
         <v>0</v>
       </c>
       <c r="D109" t="str">
-        <f>_xlfn.CONCAT("www.",B109)</f>
+        <f t="shared" si="3"/>
         <v>www.tweepsmap.com</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>0</v>
       </c>
@@ -2839,11 +2858,11 @@
         <v>0</v>
       </c>
       <c r="D110" t="str">
-        <f>_xlfn.CONCAT("www.",B110)</f>
+        <f t="shared" si="3"/>
         <v>www.tweepy.net</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>0</v>
       </c>
@@ -2854,11 +2873,11 @@
         <v>0</v>
       </c>
       <c r="D111" t="str">
-        <f>_xlfn.CONCAT("www.",B111)</f>
+        <f t="shared" si="3"/>
         <v>www.tweetbeam.com</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>0</v>
       </c>
@@ -2869,11 +2888,11 @@
         <v>0</v>
       </c>
       <c r="D112" t="str">
-        <f>_xlfn.CONCAT("www.",B112)</f>
+        <f t="shared" si="3"/>
         <v>www.twicopy.com</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>0</v>
       </c>
@@ -2884,11 +2903,11 @@
         <v>0</v>
       </c>
       <c r="D113" t="str">
-        <f>_xlfn.CONCAT("www.",B113)</f>
+        <f t="shared" si="3"/>
         <v>www.twidoom.com</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>0</v>
       </c>
@@ -2899,11 +2918,11 @@
         <v>0</v>
       </c>
       <c r="D114" t="str">
-        <f>_xlfn.CONCAT("www.",B114)</f>
+        <f t="shared" si="3"/>
         <v>www.twiiit.com</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>0</v>
       </c>
@@ -2914,11 +2933,11 @@
         <v>0</v>
       </c>
       <c r="D115" t="str">
-        <f>_xlfn.CONCAT("www.",B115)</f>
+        <f t="shared" si="3"/>
         <v>www.twimfeed.com</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>0</v>
       </c>
@@ -2929,11 +2948,11 @@
         <v>0</v>
       </c>
       <c r="D116" t="str">
-        <f>_xlfn.CONCAT("www.",B116)</f>
+        <f t="shared" si="3"/>
         <v>www.twimg.com</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>0</v>
       </c>
@@ -2944,11 +2963,11 @@
         <v>0</v>
       </c>
       <c r="D117" t="str">
-        <f>_xlfn.CONCAT("www.",B117)</f>
+        <f t="shared" si="3"/>
         <v>www.twipho.net</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>0</v>
       </c>
@@ -2959,11 +2978,11 @@
         <v>0</v>
       </c>
       <c r="D118" t="str">
-        <f>_xlfn.CONCAT("www.",B118)</f>
+        <f t="shared" si="3"/>
         <v>www.twipu.net</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>0</v>
       </c>
@@ -2974,11 +2993,11 @@
         <v>0</v>
       </c>
       <c r="D119" t="str">
-        <f>_xlfn.CONCAT("www.",B119)</f>
+        <f t="shared" si="3"/>
         <v>www.twisave.com</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>0</v>
       </c>
@@ -2989,11 +3008,11 @@
         <v>0</v>
       </c>
       <c r="D120" t="str">
-        <f>_xlfn.CONCAT("www.",B120)</f>
+        <f t="shared" si="3"/>
         <v>www.twitter.com</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>0</v>
       </c>
@@ -3004,11 +3023,11 @@
         <v>0</v>
       </c>
       <c r="D121" t="str">
-        <f>_xlfn.CONCAT("www.",B121)</f>
+        <f t="shared" si="3"/>
         <v>www.twittertt.com</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>0</v>
       </c>
@@ -3019,11 +3038,11 @@
         <v>0</v>
       </c>
       <c r="D122" t="str">
-        <f>_xlfn.CONCAT("www.",B122)</f>
+        <f t="shared" si="3"/>
         <v>www.twstalker.com</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>0</v>
       </c>
@@ -3034,11 +3053,11 @@
         <v>0</v>
       </c>
       <c r="D123" t="str">
-        <f>_xlfn.CONCAT("www.",B123)</f>
+        <f t="shared" si="3"/>
         <v>www.twubs.com</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>0</v>
       </c>
@@ -3049,11 +3068,11 @@
         <v>0</v>
       </c>
       <c r="D124" t="str">
-        <f>_xlfn.CONCAT("www.",B124)</f>
+        <f t="shared" si="3"/>
         <v>www.viewerig.com</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>0</v>
       </c>
@@ -3064,11 +3083,11 @@
         <v>0</v>
       </c>
       <c r="D125" t="str">
-        <f>_xlfn.CONCAT("www.",B125)</f>
+        <f t="shared" si="3"/>
         <v>www.viewprivateinsta.com</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>0</v>
       </c>
@@ -3079,11 +3098,11 @@
         <v>0</v>
       </c>
       <c r="D126" t="str">
-        <f>_xlfn.CONCAT("www.",B126)</f>
+        <f t="shared" si="3"/>
         <v>www.visibletweets.com</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>0</v>
       </c>
@@ -3094,11 +3113,11 @@
         <v>0</v>
       </c>
       <c r="D127" t="str">
-        <f>_xlfn.CONCAT("www.",B127)</f>
+        <f t="shared" si="3"/>
         <v>www.watchinsta.com</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>0</v>
       </c>
@@ -3109,8 +3128,53 @@
         <v>0</v>
       </c>
       <c r="D128" t="str">
-        <f>_xlfn.CONCAT("www.",B128)</f>
+        <f t="shared" si="3"/>
         <v>www.webstagram.org</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>0</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C129" t="s">
+        <v>0</v>
+      </c>
+      <c r="D129" t="str">
+        <f t="shared" si="3"/>
+        <v>www.instasupersave.com</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>0</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C130" t="s">
+        <v>0</v>
+      </c>
+      <c r="D130" t="str">
+        <f t="shared" si="3"/>
+        <v>www.exploreig.com</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>0</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="C131" t="s">
+        <v>0</v>
+      </c>
+      <c r="D131" t="str">
+        <f t="shared" si="3"/>
+        <v>www.in-stories.online</v>
       </c>
     </row>
   </sheetData>
@@ -3129,34 +3193,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA59CB1C-FDC9-4B42-B2B3-9AF6BDB5B633}">
-  <dimension ref="A1:G100"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E15"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="A100" sqref="A100:B101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" customWidth="1"/>
-    <col min="7" max="7" width="23.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" customWidth="1"/>
+    <col min="7" max="7" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="D1" s="4" t="s">
+      <c r="B1" s="5"/>
+      <c r="D1" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -3178,7 +3242,7 @@
         <v>www.nitter.at</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -3200,7 +3264,7 @@
         <v>www.nitter.ca</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -3222,7 +3286,7 @@
         <v>www.nitter.cz</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -3244,7 +3308,7 @@
         <v>www.nitter.hu</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -3266,7 +3330,7 @@
         <v>www.nitter.ir</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -3288,7 +3352,7 @@
         <v>www.nitter.it</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -3310,7 +3374,7 @@
         <v>www.nitter.net</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -3332,7 +3396,7 @@
         <v>www.nitter.nl</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -3354,7 +3418,7 @@
         <v>www.nitter.pufe.org</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -3376,7 +3440,7 @@
         <v>www.nitter.pw</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -3398,7 +3462,7 @@
         <v>www.notabird.site</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -3420,7 +3484,7 @@
         <v>www.unofficialbird.com</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -3442,7 +3506,7 @@
         <v>www.nitter.kling.gg</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -3450,7 +3514,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -3458,7 +3522,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -3466,7 +3530,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -3474,7 +3538,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
@@ -3482,7 +3546,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -3490,7 +3554,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -3498,7 +3562,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -3506,7 +3570,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -3514,7 +3578,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -3522,7 +3586,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
@@ -3530,7 +3594,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
@@ -3538,7 +3602,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
@@ -3546,7 +3610,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -3554,7 +3618,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
@@ -3562,7 +3626,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
@@ -3570,7 +3634,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
@@ -3578,7 +3642,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
@@ -3586,7 +3650,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>0</v>
       </c>
@@ -3594,7 +3658,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
@@ -3602,7 +3666,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
@@ -3610,7 +3674,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
@@ -3618,7 +3682,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>0</v>
       </c>
@@ -3626,7 +3690,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>0</v>
       </c>
@@ -3634,7 +3698,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>0</v>
       </c>
@@ -3642,7 +3706,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>0</v>
       </c>
@@ -3650,7 +3714,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>0</v>
       </c>
@@ -3658,7 +3722,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
@@ -3666,7 +3730,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>0</v>
       </c>
@@ -3674,7 +3738,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
@@ -3682,7 +3746,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>0</v>
       </c>
@@ -3690,7 +3754,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>0</v>
       </c>
@@ -3698,7 +3762,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>0</v>
       </c>
@@ -3706,7 +3770,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>0</v>
       </c>
@@ -3714,7 +3778,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>0</v>
       </c>
@@ -3722,7 +3786,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>0</v>
       </c>
@@ -3730,7 +3794,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>0</v>
       </c>
@@ -3738,7 +3802,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>0</v>
       </c>
@@ -3746,7 +3810,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>0</v>
       </c>
@@ -3754,7 +3818,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>0</v>
       </c>
@@ -3762,7 +3826,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>0</v>
       </c>
@@ -3770,7 +3834,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>0</v>
       </c>
@@ -3778,7 +3842,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>0</v>
       </c>
@@ -3786,7 +3850,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>0</v>
       </c>
@@ -3794,7 +3858,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>0</v>
       </c>
@@ -3802,7 +3866,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>0</v>
       </c>
@@ -3810,7 +3874,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>0</v>
       </c>
@@ -3818,7 +3882,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>0</v>
       </c>
@@ -3826,7 +3890,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>0</v>
       </c>
@@ -3834,7 +3898,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>0</v>
       </c>
@@ -3842,7 +3906,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>0</v>
       </c>
@@ -3850,7 +3914,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>0</v>
       </c>
@@ -3858,7 +3922,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>0</v>
       </c>
@@ -3866,7 +3930,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>0</v>
       </c>
@@ -3874,7 +3938,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>0</v>
       </c>
@@ -3882,7 +3946,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>0</v>
       </c>
@@ -3890,7 +3954,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>0</v>
       </c>
@@ -3898,7 +3962,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>0</v>
       </c>
@@ -3906,7 +3970,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>0</v>
       </c>
@@ -3914,7 +3978,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>0</v>
       </c>
@@ -3922,7 +3986,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>0</v>
       </c>
@@ -3930,7 +3994,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>0</v>
       </c>
@@ -3938,7 +4002,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>0</v>
       </c>
@@ -3946,7 +4010,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>0</v>
       </c>
@@ -3954,7 +4018,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>0</v>
       </c>
@@ -3962,7 +4026,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>0</v>
       </c>
@@ -3970,7 +4034,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>0</v>
       </c>
@@ -3978,7 +4042,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>0</v>
       </c>
@@ -3986,7 +4050,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>0</v>
       </c>
@@ -3994,7 +4058,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>0</v>
       </c>
@@ -4002,7 +4066,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>0</v>
       </c>
@@ -4010,7 +4074,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>0</v>
       </c>
@@ -4018,7 +4082,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>0</v>
       </c>
@@ -4026,7 +4090,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>0</v>
       </c>
@@ -4034,7 +4098,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>0</v>
       </c>
@@ -4042,7 +4106,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>0</v>
       </c>
@@ -4050,7 +4114,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>0</v>
       </c>
@@ -4058,7 +4122,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>0</v>
       </c>
@@ -4066,7 +4130,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>0</v>
       </c>
@@ -4074,7 +4138,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>0</v>
       </c>
@@ -4082,7 +4146,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>0</v>
       </c>
@@ -4090,7 +4154,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>0</v>
       </c>
@@ -4098,7 +4162,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>0</v>
       </c>
@@ -4106,20 +4170,28 @@
         <v>168</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>0</v>
       </c>
-      <c r="B99" s="5" t="s">
+      <c r="B99" s="3" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>0</v>
       </c>
       <c r="B100" t="s">
         <v>244</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B101" t="s">
+        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/Sources/Commons List.xlsx
+++ b/Sources/Commons List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOHABANE\Documents\Projects\Personal-Hosts\Sources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Programs\Personal-Hosts\Sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5700B369-97D0-4D64-96DA-EF9927F5D030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F1E17D9-557D-478F-8DC2-D568CB829ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AC752DA5-279B-4E7D-9469-CEF11FD242ED}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{AC752DA5-279B-4E7D-9469-CEF11FD242ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Common" sheetId="1" r:id="rId1"/>
@@ -24,9 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="252">
   <si>
     <t>0.0.0.0</t>
   </si>
@@ -788,13 +786,16 @@
   </si>
   <si>
     <t>birdo.stuehieyr.com</t>
+  </si>
+  <si>
+    <t>nitter.ktachibana.party</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -829,10 +830,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Roboto"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -860,18 +857,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1188,31 +1184,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECE8835C-5E4A-4A67-BE0B-662B45AD2111}">
   <dimension ref="A1:G131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="A129" sqref="A129:B131"/>
+    <sheetView topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="E123" sqref="E123"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="34.109375" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" customWidth="1"/>
-    <col min="4" max="4" width="34.109375" customWidth="1"/>
-    <col min="7" max="7" width="27.33203125" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" customWidth="1"/>
+    <col min="7" max="7" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="F1" s="5" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="F1" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G1" s="4"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1233,7 +1229,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1254,7 +1250,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1275,7 +1271,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1296,7 +1292,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1317,7 +1313,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1332,7 +1328,7 @@
         <v>www.croxyproxy.com</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1347,7 +1343,7 @@
         <v>www.croxyproxy.rocks</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1362,7 +1358,7 @@
         <v>www.downloadgram.pro</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -1377,7 +1373,7 @@
         <v>www.dumpor.com</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -1392,7 +1388,7 @@
         <v>www.farside.link</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -1407,7 +1403,7 @@
         <v>www.foller.me</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1422,7 +1418,7 @@
         <v>www.followerwonk.com</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -1437,7 +1433,7 @@
         <v>www.fritter.cc</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -1452,7 +1448,7 @@
         <v>www.fullinsta.photo</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -1467,7 +1463,7 @@
         <v>www.getmytweet.com</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -1482,7 +1478,7 @@
         <v>www.gmail.com</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -1497,7 +1493,7 @@
         <v>www.gramhir.com</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -1512,7 +1508,7 @@
         <v>www.gramho.com</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -1527,7 +1523,7 @@
         <v>www.gramvi.com</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -1542,7 +1538,7 @@
         <v>www.gramvio.com</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -1557,7 +1553,7 @@
         <v>www.greatfon.com</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -1572,7 +1568,7 @@
         <v>www.gwaa.net</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -1587,7 +1583,7 @@
         <v>www.hookgram.com</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -1602,7 +1598,7 @@
         <v>www.iganony.com</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -1617,7 +1613,7 @@
         <v>www.iglookup.com</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -1632,7 +1628,7 @@
         <v>www.igpanda.com</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -1647,7 +1643,7 @@
         <v>www.igrab.online</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -1662,7 +1658,7 @@
         <v>www.igram.io</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -1677,7 +1673,7 @@
         <v>www.igstories.app</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -1692,7 +1688,7 @@
         <v>www.ig-stories-viewer.net</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -1707,7 +1703,7 @@
         <v>www.imagerocket.com</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -1722,7 +1718,7 @@
         <v>www.imagerocket.net</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -1737,7 +1733,7 @@
         <v>www.imginn.com</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -1752,7 +1748,7 @@
         <v>www.imginn.org</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -1767,7 +1763,7 @@
         <v>www.inflact.com</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -1782,7 +1778,7 @@
         <v>www.ingramer.com</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -1797,7 +1793,7 @@
         <v>www.instabig.net</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -1812,7 +1808,7 @@
         <v>www.instadp.com</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -1827,7 +1823,7 @@
         <v>www.instadp.net</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -1842,7 +1838,7 @@
         <v>www.instadp.org</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -1857,7 +1853,7 @@
         <v>www.instafollowers.co</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -1872,7 +1868,7 @@
         <v>www.instafreeview.com</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -1887,7 +1883,7 @@
         <v>www.instagram.com</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -1902,7 +1898,7 @@
         <v>www.instajust.com</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>0</v>
       </c>
@@ -1917,7 +1913,7 @@
         <v>www.instalker.org</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>0</v>
       </c>
@@ -1932,7 +1928,7 @@
         <v>www.instalkr.com</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -1947,7 +1943,7 @@
         <v>www.instalooker.com</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>0</v>
       </c>
@@ -1962,7 +1958,7 @@
         <v>www.instanavigation.com</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>0</v>
       </c>
@@ -1977,7 +1973,7 @@
         <v>www.instaonline.org</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>0</v>
       </c>
@@ -1992,7 +1988,7 @@
         <v>www.instaprivate.com</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>0</v>
       </c>
@@ -2007,7 +2003,7 @@
         <v>www.instaprivateprofileviewer.com</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>0</v>
       </c>
@@ -2022,7 +2018,7 @@
         <v>www.instasaved.net</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>0</v>
       </c>
@@ -2037,7 +2033,7 @@
         <v>www.instasaver.app</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>0</v>
       </c>
@@ -2052,7 +2048,7 @@
         <v>www.insta-stories.com</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>0</v>
       </c>
@@ -2067,7 +2063,7 @@
         <v>www.instastories.net</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>0</v>
       </c>
@@ -2082,7 +2078,7 @@
         <v>www.insta-stories.online</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>0</v>
       </c>
@@ -2097,7 +2093,7 @@
         <v>www.instastories.watch</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>0</v>
       </c>
@@ -2112,7 +2108,7 @@
         <v>www.insta-stories-viewer.com</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>0</v>
       </c>
@@ -2127,7 +2123,7 @@
         <v>www.instastory.net</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>0</v>
       </c>
@@ -2142,11 +2138,11 @@
         <v>www.instastoryviewer.com</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>0</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" t="s">
         <v>245</v>
       </c>
       <c r="C63" t="s">
@@ -2157,7 +2153,7 @@
         <v>www.insta-story-viewer.pl</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>0</v>
       </c>
@@ -2172,7 +2168,7 @@
         <v>www.instaviewer.ga</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>0</v>
       </c>
@@ -2187,7 +2183,7 @@
         <v>www.instaviewer.live</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>0</v>
       </c>
@@ -2202,7 +2198,7 @@
         <v>www.instaviewerapp.weebly.com</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>0</v>
       </c>
@@ -2217,7 +2213,7 @@
         <v>www.instaviewers.net</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>0</v>
       </c>
@@ -2232,7 +2228,7 @@
         <v>www.instaviews.net</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>0</v>
       </c>
@@ -2247,7 +2243,7 @@
         <v>www.instaxyz.com</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>0</v>
       </c>
@@ -2262,7 +2258,7 @@
         <v>www.inststalk.com</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>0</v>
       </c>
@@ -2277,7 +2273,7 @@
         <v>www.insuiter.com</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>0</v>
       </c>
@@ -2292,7 +2288,7 @@
         <v>www.i-private-profile-viewer.com</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>0</v>
       </c>
@@ -2307,7 +2303,7 @@
         <v>www.istaprivate.com</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>0</v>
       </c>
@@ -2322,7 +2318,7 @@
         <v>www.likecreeper.com</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>0</v>
       </c>
@@ -2337,7 +2333,7 @@
         <v>www.mollygram.com</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>0</v>
       </c>
@@ -2352,7 +2348,7 @@
         <v>www.mystalk.net</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>0</v>
       </c>
@@ -2367,7 +2363,7 @@
         <v>www.mythreadreader.com</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>0</v>
       </c>
@@ -2382,7 +2378,7 @@
         <v>www.ninjalitics.com</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>0</v>
       </c>
@@ -2397,7 +2393,7 @@
         <v>www.omnicity.com</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>0</v>
       </c>
@@ -2412,7 +2408,7 @@
         <v>www.peekinspo.com</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>0</v>
       </c>
@@ -2427,7 +2423,7 @@
         <v>www.picaki.com</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>0</v>
       </c>
@@ -2442,7 +2438,7 @@
         <v>www.picosico.org</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>0</v>
       </c>
@@ -2457,7 +2453,7 @@
         <v>www.picuki.com</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>0</v>
       </c>
@@ -2472,7 +2468,7 @@
         <v>www.picuki.net</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>0</v>
       </c>
@@ -2487,7 +2483,7 @@
         <v>www.pikviewer.com</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>0</v>
       </c>
@@ -2502,7 +2498,7 @@
         <v>www.pixwox.com</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>0</v>
       </c>
@@ -2517,7 +2513,7 @@
         <v>www.privategramview.com</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>0</v>
       </c>
@@ -2532,7 +2528,7 @@
         <v>www.privateinstaview.com</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>0</v>
       </c>
@@ -2547,7 +2543,7 @@
         <v>www.privatephotoviewer.com</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>0</v>
       </c>
@@ -2562,7 +2558,7 @@
         <v>www.profileviewer.vercel.app</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>0</v>
       </c>
@@ -2577,7 +2573,7 @@
         <v>www.save-insta.com</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>0</v>
       </c>
@@ -2592,7 +2588,7 @@
         <v>www.simpliers.com</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>0</v>
       </c>
@@ -2607,7 +2603,7 @@
         <v>www.smihub.com</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>0</v>
       </c>
@@ -2622,7 +2618,7 @@
         <v>www.snapinsta.app</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>0</v>
       </c>
@@ -2637,7 +2633,7 @@
         <v>www.sotwe.com</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>0</v>
       </c>
@@ -2652,7 +2648,7 @@
         <v>www.storiesdown.com</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>0</v>
       </c>
@@ -2667,7 +2663,7 @@
         <v>www.storiesig.app</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>0</v>
       </c>
@@ -2682,7 +2678,7 @@
         <v>www.storiesig.info</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>0</v>
       </c>
@@ -2697,7 +2693,7 @@
         <v>www.storiesig.me</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>0</v>
       </c>
@@ -2712,7 +2708,7 @@
         <v>www.storiesig.net</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>0</v>
       </c>
@@ -2727,7 +2723,7 @@
         <v>www.storieswatch.com</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>0</v>
       </c>
@@ -2742,7 +2738,7 @@
         <v>www.storistalker.com</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>0</v>
       </c>
@@ -2757,7 +2753,7 @@
         <v>www.storysaver.net</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>0</v>
       </c>
@@ -2772,7 +2768,7 @@
         <v>www.storyviewer.io</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>0</v>
       </c>
@@ -2787,7 +2783,7 @@
         <v>www.stweetly.com</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>0</v>
       </c>
@@ -2802,7 +2798,7 @@
         <v>www.t.com.sb</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>0</v>
       </c>
@@ -2817,7 +2813,7 @@
         <v>www.thepicgram.com</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>0</v>
       </c>
@@ -2832,7 +2828,7 @@
         <v>www.threadreaderapp.com</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>0</v>
       </c>
@@ -2847,7 +2843,7 @@
         <v>www.tweepsmap.com</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>0</v>
       </c>
@@ -2862,7 +2858,7 @@
         <v>www.tweepy.net</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>0</v>
       </c>
@@ -2877,7 +2873,7 @@
         <v>www.tweetbeam.com</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>0</v>
       </c>
@@ -2892,7 +2888,7 @@
         <v>www.twicopy.com</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>0</v>
       </c>
@@ -2907,7 +2903,7 @@
         <v>www.twidoom.com</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>0</v>
       </c>
@@ -2922,7 +2918,7 @@
         <v>www.twiiit.com</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>0</v>
       </c>
@@ -2937,7 +2933,7 @@
         <v>www.twimfeed.com</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>0</v>
       </c>
@@ -2952,7 +2948,7 @@
         <v>www.twimg.com</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>0</v>
       </c>
@@ -2967,7 +2963,7 @@
         <v>www.twipho.net</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>0</v>
       </c>
@@ -2982,7 +2978,7 @@
         <v>www.twipu.net</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>0</v>
       </c>
@@ -2997,7 +2993,7 @@
         <v>www.twisave.com</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>0</v>
       </c>
@@ -3012,7 +3008,7 @@
         <v>www.twitter.com</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>0</v>
       </c>
@@ -3027,7 +3023,7 @@
         <v>www.twittertt.com</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>0</v>
       </c>
@@ -3042,7 +3038,7 @@
         <v>www.twstalker.com</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>0</v>
       </c>
@@ -3057,11 +3053,11 @@
         <v>www.twubs.com</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>0</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124" s="5" t="s">
         <v>145</v>
       </c>
       <c r="C124" t="s">
@@ -3072,11 +3068,11 @@
         <v>www.viewerig.com</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>0</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125" s="5" t="s">
         <v>146</v>
       </c>
       <c r="C125" t="s">
@@ -3087,11 +3083,11 @@
         <v>www.viewprivateinsta.com</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>0</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="5" t="s">
         <v>147</v>
       </c>
       <c r="C126" t="s">
@@ -3102,11 +3098,11 @@
         <v>www.visibletweets.com</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>0</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" s="5" t="s">
         <v>148</v>
       </c>
       <c r="C127" t="s">
@@ -3117,11 +3113,11 @@
         <v>www.watchinsta.com</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>0</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" s="5" t="s">
         <v>150</v>
       </c>
       <c r="C128" t="s">
@@ -3132,11 +3128,11 @@
         <v>www.webstagram.org</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>0</v>
       </c>
-      <c r="B129" s="3" t="s">
+      <c r="B129" s="5" t="s">
         <v>247</v>
       </c>
       <c r="C129" t="s">
@@ -3147,11 +3143,11 @@
         <v>www.instasupersave.com</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>0</v>
       </c>
-      <c r="B130" s="3" t="s">
+      <c r="B130" s="5" t="s">
         <v>248</v>
       </c>
       <c r="C130" t="s">
@@ -3162,11 +3158,11 @@
         <v>www.exploreig.com</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>0</v>
       </c>
-      <c r="B131" s="6" t="s">
+      <c r="B131" s="2" t="s">
         <v>249</v>
       </c>
       <c r="C131" t="s">
@@ -3193,34 +3189,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA59CB1C-FDC9-4B42-B2B3-9AF6BDB5B633}">
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:G102"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="A100" sqref="A100:B101"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" customWidth="1"/>
-    <col min="5" max="5" width="23.6640625" customWidth="1"/>
-    <col min="7" max="7" width="23.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" customWidth="1"/>
+    <col min="7" max="7" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="D1" s="5" t="s">
+      <c r="B1" s="4"/>
+      <c r="D1" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -3242,7 +3238,7 @@
         <v>www.nitter.at</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -3264,7 +3260,7 @@
         <v>www.nitter.ca</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -3286,7 +3282,7 @@
         <v>www.nitter.cz</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -3308,7 +3304,7 @@
         <v>www.nitter.hu</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -3330,7 +3326,7 @@
         <v>www.nitter.ir</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -3352,7 +3348,7 @@
         <v>www.nitter.it</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -3374,7 +3370,7 @@
         <v>www.nitter.net</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -3396,7 +3392,7 @@
         <v>www.nitter.nl</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -3418,7 +3414,7 @@
         <v>www.nitter.pufe.org</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -3440,7 +3436,7 @@
         <v>www.nitter.pw</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -3462,7 +3458,7 @@
         <v>www.notabird.site</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -3484,7 +3480,7 @@
         <v>www.unofficialbird.com</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -3506,7 +3502,7 @@
         <v>www.nitter.kling.gg</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -3514,7 +3510,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -3522,7 +3518,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -3530,7 +3526,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -3538,7 +3534,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
@@ -3546,7 +3542,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -3554,7 +3550,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -3562,7 +3558,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -3570,7 +3566,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -3578,7 +3574,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -3586,7 +3582,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
@@ -3594,7 +3590,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
@@ -3602,7 +3598,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
@@ -3610,7 +3606,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -3618,7 +3614,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
@@ -3626,7 +3622,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
@@ -3634,7 +3630,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
@@ -3642,7 +3638,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
@@ -3650,7 +3646,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>0</v>
       </c>
@@ -3658,7 +3654,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
@@ -3666,7 +3662,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
@@ -3674,7 +3670,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
@@ -3682,7 +3678,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>0</v>
       </c>
@@ -3690,7 +3686,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>0</v>
       </c>
@@ -3698,7 +3694,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>0</v>
       </c>
@@ -3706,7 +3702,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>0</v>
       </c>
@@ -3714,7 +3710,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>0</v>
       </c>
@@ -3722,7 +3718,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
@@ -3730,7 +3726,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>0</v>
       </c>
@@ -3738,7 +3734,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
@@ -3746,7 +3742,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>0</v>
       </c>
@@ -3754,7 +3750,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>0</v>
       </c>
@@ -3762,7 +3758,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>0</v>
       </c>
@@ -3770,7 +3766,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>0</v>
       </c>
@@ -3778,7 +3774,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>0</v>
       </c>
@@ -3786,7 +3782,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>0</v>
       </c>
@@ -3794,7 +3790,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>0</v>
       </c>
@@ -3802,7 +3798,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>0</v>
       </c>
@@ -3810,7 +3806,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>0</v>
       </c>
@@ -3818,7 +3814,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>0</v>
       </c>
@@ -3826,7 +3822,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>0</v>
       </c>
@@ -3834,7 +3830,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>0</v>
       </c>
@@ -3842,7 +3838,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>0</v>
       </c>
@@ -3850,7 +3846,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>0</v>
       </c>
@@ -3858,7 +3854,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>0</v>
       </c>
@@ -3866,7 +3862,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>0</v>
       </c>
@@ -3874,7 +3870,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>0</v>
       </c>
@@ -3882,7 +3878,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>0</v>
       </c>
@@ -3890,7 +3886,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>0</v>
       </c>
@@ -3898,7 +3894,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>0</v>
       </c>
@@ -3906,7 +3902,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>0</v>
       </c>
@@ -3914,7 +3910,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>0</v>
       </c>
@@ -3922,7 +3918,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>0</v>
       </c>
@@ -3930,7 +3926,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>0</v>
       </c>
@@ -3938,7 +3934,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>0</v>
       </c>
@@ -3946,7 +3942,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>0</v>
       </c>
@@ -3954,7 +3950,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>0</v>
       </c>
@@ -3962,7 +3958,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>0</v>
       </c>
@@ -3970,7 +3966,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>0</v>
       </c>
@@ -3978,7 +3974,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>0</v>
       </c>
@@ -3986,7 +3982,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>0</v>
       </c>
@@ -3994,7 +3990,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>0</v>
       </c>
@@ -4002,7 +3998,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>0</v>
       </c>
@@ -4010,7 +4006,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>0</v>
       </c>
@@ -4018,7 +4014,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>0</v>
       </c>
@@ -4026,7 +4022,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>0</v>
       </c>
@@ -4034,7 +4030,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>0</v>
       </c>
@@ -4042,7 +4038,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>0</v>
       </c>
@@ -4050,7 +4046,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>0</v>
       </c>
@@ -4058,7 +4054,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>0</v>
       </c>
@@ -4066,7 +4062,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>0</v>
       </c>
@@ -4074,7 +4070,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>0</v>
       </c>
@@ -4082,7 +4078,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>0</v>
       </c>
@@ -4090,7 +4086,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>0</v>
       </c>
@@ -4098,7 +4094,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>0</v>
       </c>
@@ -4106,7 +4102,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>0</v>
       </c>
@@ -4114,7 +4110,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>0</v>
       </c>
@@ -4122,7 +4118,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>0</v>
       </c>
@@ -4130,7 +4126,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>0</v>
       </c>
@@ -4138,7 +4134,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>0</v>
       </c>
@@ -4146,7 +4142,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>0</v>
       </c>
@@ -4154,7 +4150,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>0</v>
       </c>
@@ -4162,7 +4158,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>0</v>
       </c>
@@ -4170,15 +4166,15 @@
         <v>168</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>0</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B99" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>0</v>
       </c>
@@ -4186,12 +4182,20 @@
         <v>244</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>0</v>
       </c>
       <c r="B101" t="s">
         <v>250</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>0</v>
+      </c>
+      <c r="B102" t="s">
+        <v>251</v>
       </c>
     </row>
   </sheetData>

--- a/Sources/Commons List.xlsx
+++ b/Sources/Commons List.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Programs\Personal-Hosts\Sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F1E17D9-557D-478F-8DC2-D568CB829ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27034CBA-45A9-457B-9AC3-A6B61B2BE9F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{AC752DA5-279B-4E7D-9469-CEF11FD242ED}"/>
   </bookViews>
@@ -24,8 +24,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="260">
   <si>
     <t>0.0.0.0</t>
   </si>
@@ -789,6 +793,30 @@
   </si>
   <si>
     <t>nitter.ktachibana.party</t>
+  </si>
+  <si>
+    <t>nitter.riverside.rocks</t>
+  </si>
+  <si>
+    <t>nitter.girlboss.ceo</t>
+  </si>
+  <si>
+    <t>nitter.lunar.icu</t>
+  </si>
+  <si>
+    <t>twitter.moe.ngo</t>
+  </si>
+  <si>
+    <t>nitter.freedit.eu</t>
+  </si>
+  <si>
+    <t>ntr.frail.duckdns.org</t>
+  </si>
+  <si>
+    <t>nitter.librenode.org</t>
+  </si>
+  <si>
+    <t>n.opnxng.com</t>
   </si>
 </sst>
 </file>
@@ -867,7 +895,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1184,7 +1212,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECE8835C-5E4A-4A67-BE0B-662B45AD2111}">
   <dimension ref="A1:G131"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" workbookViewId="0">
+    <sheetView topLeftCell="A106" workbookViewId="0">
       <selection activeCell="E123" sqref="E123"/>
     </sheetView>
   </sheetViews>
@@ -3057,7 +3085,7 @@
       <c r="A124" t="s">
         <v>0</v>
       </c>
-      <c r="B124" s="5" t="s">
+      <c r="B124" t="s">
         <v>145</v>
       </c>
       <c r="C124" t="s">
@@ -3072,7 +3100,7 @@
       <c r="A125" t="s">
         <v>0</v>
       </c>
-      <c r="B125" s="5" t="s">
+      <c r="B125" t="s">
         <v>146</v>
       </c>
       <c r="C125" t="s">
@@ -3087,7 +3115,7 @@
       <c r="A126" t="s">
         <v>0</v>
       </c>
-      <c r="B126" s="5" t="s">
+      <c r="B126" t="s">
         <v>147</v>
       </c>
       <c r="C126" t="s">
@@ -3102,7 +3130,7 @@
       <c r="A127" t="s">
         <v>0</v>
       </c>
-      <c r="B127" s="5" t="s">
+      <c r="B127" t="s">
         <v>148</v>
       </c>
       <c r="C127" t="s">
@@ -3117,7 +3145,7 @@
       <c r="A128" t="s">
         <v>0</v>
       </c>
-      <c r="B128" s="5" t="s">
+      <c r="B128" t="s">
         <v>150</v>
       </c>
       <c r="C128" t="s">
@@ -3132,7 +3160,7 @@
       <c r="A129" t="s">
         <v>0</v>
       </c>
-      <c r="B129" s="5" t="s">
+      <c r="B129" t="s">
         <v>247</v>
       </c>
       <c r="C129" t="s">
@@ -3147,7 +3175,7 @@
       <c r="A130" t="s">
         <v>0</v>
       </c>
-      <c r="B130" s="5" t="s">
+      <c r="B130" t="s">
         <v>248</v>
       </c>
       <c r="C130" t="s">
@@ -3189,10 +3217,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA59CB1C-FDC9-4B42-B2B3-9AF6BDB5B633}">
-  <dimension ref="A1:G102"/>
+  <dimension ref="A1:G111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="B105" sqref="B105"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="E110" sqref="E110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4198,6 +4226,78 @@
         <v>251</v>
       </c>
     </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>0</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>0</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>0</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>0</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>0</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>0</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>0</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>259</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:B98">
     <sortCondition ref="B98"/>

--- a/Sources/Commons List.xlsx
+++ b/Sources/Commons List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Programs\Personal-Hosts\Sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27034CBA-45A9-457B-9AC3-A6B61B2BE9F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E28B31-14F8-4273-B561-501C02996EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{AC752DA5-279B-4E7D-9469-CEF11FD242ED}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AC752DA5-279B-4E7D-9469-CEF11FD242ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Common" sheetId="1" r:id="rId1"/>
@@ -21,23 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="266">
   <si>
     <t>0.0.0.0</t>
   </si>
@@ -817,6 +806,24 @@
   </si>
   <si>
     <t>n.opnxng.com</t>
+  </si>
+  <si>
+    <t>nitter.plus.st</t>
+  </si>
+  <si>
+    <t>nitter.in.projectsegfau.lt</t>
+  </si>
+  <si>
+    <t>nitter.tux.pizza</t>
+  </si>
+  <si>
+    <t>t.floss.media</t>
+  </si>
+  <si>
+    <t>twit.hell.rodeo</t>
+  </si>
+  <si>
+    <t>smihub.io</t>
   </si>
 </sst>
 </file>
@@ -885,7 +892,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -895,7 +902,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1210,10 +1216,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECE8835C-5E4A-4A67-BE0B-662B45AD2111}">
-  <dimension ref="A1:G131"/>
+  <dimension ref="A1:G132"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="E123" sqref="E123"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="G138" sqref="G138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2717,7 +2723,7 @@
         <v>0</v>
       </c>
       <c r="D99" t="str">
-        <f t="shared" ref="D99:D131" si="3">_xlfn.CONCAT("www.",B99)</f>
+        <f t="shared" ref="D99:D132" si="3">_xlfn.CONCAT("www.",B99)</f>
         <v>www.storiesig.me</v>
       </c>
     </row>
@@ -3199,6 +3205,21 @@
       <c r="D131" t="str">
         <f t="shared" si="3"/>
         <v>www.in-stories.online</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>0</v>
+      </c>
+      <c r="B132" t="s">
+        <v>265</v>
+      </c>
+      <c r="C132" t="s">
+        <v>0</v>
+      </c>
+      <c r="D132" t="str">
+        <f t="shared" si="3"/>
+        <v>www.smihub.io</v>
       </c>
     </row>
   </sheetData>
@@ -3217,10 +3238,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA59CB1C-FDC9-4B42-B2B3-9AF6BDB5B633}">
-  <dimension ref="A1:G111"/>
+  <dimension ref="A1:G116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="E110" sqref="E110"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="B111" sqref="B111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4230,7 +4251,7 @@
       <c r="A103" t="s">
         <v>0</v>
       </c>
-      <c r="B103" s="5" t="s">
+      <c r="B103" t="s">
         <v>252</v>
       </c>
     </row>
@@ -4238,7 +4259,7 @@
       <c r="A104" t="s">
         <v>0</v>
       </c>
-      <c r="B104" s="5" t="s">
+      <c r="B104" t="s">
         <v>253</v>
       </c>
     </row>
@@ -4246,7 +4267,7 @@
       <c r="A105" t="s">
         <v>0</v>
       </c>
-      <c r="B105" s="5" t="s">
+      <c r="B105" t="s">
         <v>254</v>
       </c>
     </row>
@@ -4254,7 +4275,7 @@
       <c r="A106" t="s">
         <v>0</v>
       </c>
-      <c r="B106" s="5" t="s">
+      <c r="B106" t="s">
         <v>255</v>
       </c>
     </row>
@@ -4262,7 +4283,7 @@
       <c r="A107" t="s">
         <v>0</v>
       </c>
-      <c r="B107" s="5" t="s">
+      <c r="B107" t="s">
         <v>256</v>
       </c>
     </row>
@@ -4270,7 +4291,7 @@
       <c r="A108" t="s">
         <v>0</v>
       </c>
-      <c r="B108" s="5" t="s">
+      <c r="B108" t="s">
         <v>257</v>
       </c>
     </row>
@@ -4278,7 +4299,7 @@
       <c r="A109" t="s">
         <v>0</v>
       </c>
-      <c r="B109" s="5" t="s">
+      <c r="B109" t="s">
         <v>233</v>
       </c>
     </row>
@@ -4286,7 +4307,7 @@
       <c r="A110" t="s">
         <v>0</v>
       </c>
-      <c r="B110" s="5" t="s">
+      <c r="B110" t="s">
         <v>258</v>
       </c>
     </row>
@@ -4294,8 +4315,48 @@
       <c r="A111" t="s">
         <v>0</v>
       </c>
-      <c r="B111" s="5" t="s">
+      <c r="B111" t="s">
         <v>259</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>0</v>
+      </c>
+      <c r="B112" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>0</v>
+      </c>
+      <c r="B113" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>0</v>
+      </c>
+      <c r="B114" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>0</v>
+      </c>
+      <c r="B115" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>0</v>
+      </c>
+      <c r="B116" t="s">
+        <v>264</v>
       </c>
     </row>
   </sheetData>
